--- a/data/nzd0154/nzd0154.xlsx
+++ b/data/nzd0154/nzd0154.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W325"/>
+  <dimension ref="A1:W330"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22977,6 +22977,367 @@
         </is>
       </c>
     </row>
+    <row r="326">
+      <c r="A326" s="1" t="inlineStr">
+        <is>
+          <t>2024-11-27 22:05:54+00:00</t>
+        </is>
+      </c>
+      <c r="B326" t="n">
+        <v>307.3200000000001</v>
+      </c>
+      <c r="C326" t="n">
+        <v>301.4366666666667</v>
+      </c>
+      <c r="D326" t="n">
+        <v>305.7472727272728</v>
+      </c>
+      <c r="E326" t="n">
+        <v>313.09</v>
+      </c>
+      <c r="F326" t="n">
+        <v>318.7672727272728</v>
+      </c>
+      <c r="G326" t="n">
+        <v>308.915</v>
+      </c>
+      <c r="H326" t="n">
+        <v>307.0033333333333</v>
+      </c>
+      <c r="I326" t="n">
+        <v>309.3328571428572</v>
+      </c>
+      <c r="J326" t="n">
+        <v>321.0352173913044</v>
+      </c>
+      <c r="K326" t="n">
+        <v>327.2828571428572</v>
+      </c>
+      <c r="L326" t="n">
+        <v>331.6728571428571</v>
+      </c>
+      <c r="M326" t="n">
+        <v>333.38</v>
+      </c>
+      <c r="N326" t="n">
+        <v>341.2415789473685</v>
+      </c>
+      <c r="O326" t="n">
+        <v>340.0933333333333</v>
+      </c>
+      <c r="P326" t="n">
+        <v>340.5233333333333</v>
+      </c>
+      <c r="Q326" t="n">
+        <v>343.2233333333333</v>
+      </c>
+      <c r="R326" t="n">
+        <v>340.7628571428572</v>
+      </c>
+      <c r="S326" t="n">
+        <v>338.39</v>
+      </c>
+      <c r="T326" t="n">
+        <v>344.3933333333333</v>
+      </c>
+      <c r="U326" t="n">
+        <v>341.14</v>
+      </c>
+      <c r="V326" t="n">
+        <v>344.47</v>
+      </c>
+      <c r="W326" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-05 22:06:09+00:00</t>
+        </is>
+      </c>
+      <c r="B327" t="n">
+        <v>336.64</v>
+      </c>
+      <c r="C327" t="n">
+        <v>316.11</v>
+      </c>
+      <c r="D327" t="n">
+        <v>310.9536363636363</v>
+      </c>
+      <c r="E327" t="n">
+        <v>318.99</v>
+      </c>
+      <c r="F327" t="n">
+        <v>317.3036363636364</v>
+      </c>
+      <c r="G327" t="n">
+        <v>309.84</v>
+      </c>
+      <c r="H327" t="n">
+        <v>304.13</v>
+      </c>
+      <c r="I327" t="n">
+        <v>304.1014285714285</v>
+      </c>
+      <c r="J327" t="n">
+        <v>311.7860869565217</v>
+      </c>
+      <c r="K327" t="n">
+        <v>321.1914285714286</v>
+      </c>
+      <c r="L327" t="n">
+        <v>322.2014285714285</v>
+      </c>
+      <c r="M327" t="n">
+        <v>329.0782352941176</v>
+      </c>
+      <c r="N327" t="n">
+        <v>336.7236842105263</v>
+      </c>
+      <c r="O327" t="n">
+        <v>335.1</v>
+      </c>
+      <c r="P327" t="n">
+        <v>334.76</v>
+      </c>
+      <c r="Q327" t="n">
+        <v>337.51</v>
+      </c>
+      <c r="R327" t="n">
+        <v>336.6414285714285</v>
+      </c>
+      <c r="S327" t="n">
+        <v>331.8682352941176</v>
+      </c>
+      <c r="T327" t="n">
+        <v>330.3</v>
+      </c>
+      <c r="U327" t="n">
+        <v>334.74</v>
+      </c>
+      <c r="V327" t="n">
+        <v>340.37</v>
+      </c>
+      <c r="W327" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-13 22:05:46+00:00</t>
+        </is>
+      </c>
+      <c r="B328" t="n">
+        <v>299.87</v>
+      </c>
+      <c r="C328" t="n">
+        <v>296.3322222222222</v>
+      </c>
+      <c r="D328" t="n">
+        <v>299.6672727272727</v>
+      </c>
+      <c r="E328" t="n">
+        <v>310.5366666666667</v>
+      </c>
+      <c r="F328" t="n">
+        <v>313.0072727272727</v>
+      </c>
+      <c r="G328" t="n">
+        <v>306.68</v>
+      </c>
+      <c r="H328" t="n">
+        <v>302.2811111111111</v>
+      </c>
+      <c r="I328" t="n">
+        <v>306.9652380952381</v>
+      </c>
+      <c r="J328" t="n">
+        <v>317.5386956521739</v>
+      </c>
+      <c r="K328" t="n">
+        <v>325.7652380952381</v>
+      </c>
+      <c r="L328" t="n">
+        <v>329.7452380952381</v>
+      </c>
+      <c r="M328" t="n">
+        <v>330.8558823529411</v>
+      </c>
+      <c r="N328" t="n">
+        <v>339.6236842105263</v>
+      </c>
+      <c r="O328" t="n">
+        <v>338.4611111111111</v>
+      </c>
+      <c r="P328" t="n">
+        <v>338.2911111111111</v>
+      </c>
+      <c r="Q328" t="n">
+        <v>342.9411111111111</v>
+      </c>
+      <c r="R328" t="n">
+        <v>340.8252380952381</v>
+      </c>
+      <c r="S328" t="n">
+        <v>338.0158823529412</v>
+      </c>
+      <c r="T328" t="n">
+        <v>342.8311111111111</v>
+      </c>
+      <c r="U328" t="n">
+        <v>339.7133333333334</v>
+      </c>
+      <c r="V328" t="n">
+        <v>346.1333333333333</v>
+      </c>
+      <c r="W328" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-06 22:05:42+00:00</t>
+        </is>
+      </c>
+      <c r="B329" t="n">
+        <v>331.45</v>
+      </c>
+      <c r="C329" t="n">
+        <v>320.6422222222222</v>
+      </c>
+      <c r="D329" t="n">
+        <v>312.4936363636364</v>
+      </c>
+      <c r="E329" t="n">
+        <v>322.5966666666667</v>
+      </c>
+      <c r="F329" t="n">
+        <v>324.9736363636364</v>
+      </c>
+      <c r="G329" t="n">
+        <v>316.65</v>
+      </c>
+      <c r="H329" t="n">
+        <v>315.8511111111111</v>
+      </c>
+      <c r="I329" t="n">
+        <v>318.8409523809524</v>
+      </c>
+      <c r="J329" t="n">
+        <v>330.29</v>
+      </c>
+      <c r="K329" t="n">
+        <v>340.0609523809524</v>
+      </c>
+      <c r="L329" t="n">
+        <v>341.4209523809524</v>
+      </c>
+      <c r="M329" t="n">
+        <v>351.8417647058824</v>
+      </c>
+      <c r="N329" t="n">
+        <v>349.7621052631579</v>
+      </c>
+      <c r="O329" t="n">
+        <v>352.8211111111111</v>
+      </c>
+      <c r="P329" t="n">
+        <v>350.8411111111111</v>
+      </c>
+      <c r="Q329" t="n">
+        <v>356.4911111111111</v>
+      </c>
+      <c r="R329" t="n">
+        <v>352.8909523809524</v>
+      </c>
+      <c r="S329" t="n">
+        <v>356.1217647058824</v>
+      </c>
+      <c r="T329" t="n">
+        <v>357.0511111111111</v>
+      </c>
+      <c r="U329" t="n">
+        <v>356.7933333333333</v>
+      </c>
+      <c r="V329" t="n">
+        <v>361.9133333333333</v>
+      </c>
+      <c r="W329" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-07 22:05:41+00:00</t>
+        </is>
+      </c>
+      <c r="B330" t="n">
+        <v>298.97</v>
+      </c>
+      <c r="C330" t="n">
+        <v>299.8855555555555</v>
+      </c>
+      <c r="D330" t="n">
+        <v>303.9445454545454</v>
+      </c>
+      <c r="E330" t="n">
+        <v>313.1266666666667</v>
+      </c>
+      <c r="F330" t="n">
+        <v>315.6945454545454</v>
+      </c>
+      <c r="G330" t="n">
+        <v>307.385</v>
+      </c>
+      <c r="H330" t="n">
+        <v>305.3777777777778</v>
+      </c>
+      <c r="I330" t="n">
+        <v>308.5838095238095</v>
+      </c>
+      <c r="J330" t="n">
+        <v>321.2130434782609</v>
+      </c>
+      <c r="K330" t="n">
+        <v>326.9838095238095</v>
+      </c>
+      <c r="L330" t="n">
+        <v>332.2338095238095</v>
+      </c>
+      <c r="M330" t="n">
+        <v>334.3005882352941</v>
+      </c>
+      <c r="N330" t="n">
+        <v>340.9926315789473</v>
+      </c>
+      <c r="O330" t="n">
+        <v>339.9377777777778</v>
+      </c>
+      <c r="P330" t="inlineStr"/>
+      <c r="Q330" t="inlineStr"/>
+      <c r="R330" t="inlineStr"/>
+      <c r="S330" t="inlineStr"/>
+      <c r="T330" t="inlineStr"/>
+      <c r="U330" t="inlineStr"/>
+      <c r="V330" t="inlineStr"/>
+      <c r="W330" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -22988,7 +23349,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B328"/>
+  <dimension ref="A1:B333"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26276,6 +26637,56 @@
       </c>
       <c r="B328" t="n">
         <v>-0.4</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>2024-11-27 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B329" t="n">
+        <v>-0.51</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>2024-12-05 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B330" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>2024-12-13 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B331" t="n">
+        <v>-0.62</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>2025-01-06 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B332" t="n">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>2025-02-07 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B333" t="n">
+        <v>-0.47</v>
       </c>
     </row>
   </sheetData>
@@ -26444,28 +26855,28 @@
         <v>0.026</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4349730627908737</v>
+        <v>0.5109530775785421</v>
       </c>
       <c r="J2" t="n">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="K2" t="n">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01761292916796953</v>
+        <v>0.02451583189252082</v>
       </c>
       <c r="M2" t="n">
-        <v>19.11428778807081</v>
+        <v>19.1250572695017</v>
       </c>
       <c r="N2" t="n">
-        <v>549.1666480694915</v>
+        <v>551.1920990674561</v>
       </c>
       <c r="O2" t="n">
-        <v>23.43430494103658</v>
+        <v>23.47748067973768</v>
       </c>
       <c r="P2" t="n">
-        <v>283.2862598452074</v>
+        <v>282.5214771051145</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -26521,28 +26932,28 @@
         <v>0.054</v>
       </c>
       <c r="I3" t="n">
-        <v>0.3059378527739799</v>
+        <v>0.3578606270864862</v>
       </c>
       <c r="J3" t="n">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="K3" t="n">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="L3" t="n">
-        <v>0.01853750299672441</v>
+        <v>0.02562947257285375</v>
       </c>
       <c r="M3" t="n">
-        <v>12.67524433190303</v>
+        <v>12.66262197135857</v>
       </c>
       <c r="N3" t="n">
-        <v>248.0367647111667</v>
+        <v>248.5272019197329</v>
       </c>
       <c r="O3" t="n">
-        <v>15.74918298551283</v>
+        <v>15.76474553932708</v>
       </c>
       <c r="P3" t="n">
-        <v>285.2571200300391</v>
+        <v>284.7205719685562</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -26598,28 +27009,28 @@
         <v>0.0626</v>
       </c>
       <c r="I4" t="n">
-        <v>0.3848257332679781</v>
+        <v>0.4289928233965624</v>
       </c>
       <c r="J4" t="n">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="K4" t="n">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0513411698739431</v>
+        <v>0.06397117905005112</v>
       </c>
       <c r="M4" t="n">
-        <v>9.551872714729003</v>
+        <v>9.584662688630869</v>
       </c>
       <c r="N4" t="n">
-        <v>139.5539482535777</v>
+        <v>140.0680030201194</v>
       </c>
       <c r="O4" t="n">
-        <v>11.81329540194343</v>
+        <v>11.83503286941441</v>
       </c>
       <c r="P4" t="n">
-        <v>284.3365943663675</v>
+        <v>283.8904666200021</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -26675,28 +27086,28 @@
         <v>0.068</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4117112087659042</v>
+        <v>0.4466969038923823</v>
       </c>
       <c r="J5" t="n">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="K5" t="n">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="L5" t="n">
-        <v>0.06802955528067711</v>
+        <v>0.08060591480040702</v>
       </c>
       <c r="M5" t="n">
-        <v>8.861822144952818</v>
+        <v>8.873243986694098</v>
       </c>
       <c r="N5" t="n">
-        <v>120.3027586064021</v>
+        <v>120.1491882026291</v>
       </c>
       <c r="O5" t="n">
-        <v>10.96826142131934</v>
+        <v>10.96125851363013</v>
       </c>
       <c r="P5" t="n">
-        <v>295.3167404751919</v>
+        <v>294.9641406843974</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -26752,28 +27163,28 @@
         <v>0.2</v>
       </c>
       <c r="I6" t="n">
-        <v>0.3197266992162826</v>
+        <v>0.338736613251534</v>
       </c>
       <c r="J6" t="n">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="K6" t="n">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="L6" t="n">
-        <v>0.05098274292130633</v>
+        <v>0.05849393408542214</v>
       </c>
       <c r="M6" t="n">
-        <v>8.036008128985701</v>
+        <v>7.992036309470547</v>
       </c>
       <c r="N6" t="n">
-        <v>97.99848129810603</v>
+        <v>96.98059124059523</v>
       </c>
       <c r="O6" t="n">
-        <v>9.899418230285354</v>
+        <v>9.847872422030823</v>
       </c>
       <c r="P6" t="n">
-        <v>304.5056748703039</v>
+        <v>304.3140508101603</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -26829,28 +27240,28 @@
         <v>0.0878</v>
       </c>
       <c r="I7" t="n">
-        <v>0.2087801279268213</v>
+        <v>0.229649690603988</v>
       </c>
       <c r="J7" t="n">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="K7" t="n">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="L7" t="n">
-        <v>0.02692970775737658</v>
+        <v>0.03323350272787229</v>
       </c>
       <c r="M7" t="n">
-        <v>7.10875126575864</v>
+        <v>7.084343512729765</v>
       </c>
       <c r="N7" t="n">
-        <v>81.37564685326895</v>
+        <v>80.82993049106722</v>
       </c>
       <c r="O7" t="n">
-        <v>9.020845129657694</v>
+        <v>8.990546729263311</v>
       </c>
       <c r="P7" t="n">
-        <v>298.3831119909083</v>
+        <v>298.1760030275304</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -26906,28 +27317,28 @@
         <v>0.0982</v>
       </c>
       <c r="I8" t="n">
-        <v>0.173655911532217</v>
+        <v>0.1953450952402053</v>
       </c>
       <c r="J8" t="n">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="K8" t="n">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="L8" t="n">
-        <v>0.01836166009986495</v>
+        <v>0.02371170073632634</v>
       </c>
       <c r="M8" t="n">
-        <v>7.072228004940333</v>
+        <v>7.052944606023706</v>
       </c>
       <c r="N8" t="n">
-        <v>81.55236974436892</v>
+        <v>81.15546858192404</v>
       </c>
       <c r="O8" t="n">
-        <v>9.03063506871853</v>
+        <v>9.008633002954667</v>
       </c>
       <c r="P8" t="n">
-        <v>296.3256107847797</v>
+        <v>296.1085083250138</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -26983,28 +27394,28 @@
         <v>0.1193</v>
       </c>
       <c r="I9" t="n">
-        <v>0.2387113765636761</v>
+        <v>0.2521821031040425</v>
       </c>
       <c r="J9" t="n">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="K9" t="n">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="L9" t="n">
-        <v>0.03255982975069416</v>
+        <v>0.03724933817189569</v>
       </c>
       <c r="M9" t="n">
-        <v>7.247702085426795</v>
+        <v>7.196396483686489</v>
       </c>
       <c r="N9" t="n">
-        <v>86.31399027254717</v>
+        <v>85.50809158842264</v>
       </c>
       <c r="O9" t="n">
-        <v>9.290532292207329</v>
+        <v>9.247058537092897</v>
       </c>
       <c r="P9" t="n">
-        <v>299.5908224341757</v>
+        <v>299.4561124879604</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -27060,28 +27471,28 @@
         <v>0.1376</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1862535306321193</v>
+        <v>0.2030691246829159</v>
       </c>
       <c r="J10" t="n">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="K10" t="n">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="L10" t="n">
-        <v>0.02310723152573491</v>
+        <v>0.02799261644960127</v>
       </c>
       <c r="M10" t="n">
-        <v>6.746439559387555</v>
+        <v>6.736671790245166</v>
       </c>
       <c r="N10" t="n">
-        <v>75.05871085929026</v>
+        <v>74.77453586094326</v>
       </c>
       <c r="O10" t="n">
-        <v>8.663643047776741</v>
+        <v>8.64722706195132</v>
       </c>
       <c r="P10" t="n">
-        <v>310.7764573883953</v>
+        <v>310.6084233383518</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -27137,28 +27548,28 @@
         <v>0.1174</v>
       </c>
       <c r="I11" t="n">
-        <v>0.09850047305705796</v>
+        <v>0.1187846303580683</v>
       </c>
       <c r="J11" t="n">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="K11" t="n">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="L11" t="n">
-        <v>0.006790079684455441</v>
+        <v>0.01003049906313147</v>
       </c>
       <c r="M11" t="n">
-        <v>6.517754973316253</v>
+        <v>6.505355138831351</v>
       </c>
       <c r="N11" t="n">
-        <v>72.22570274844749</v>
+        <v>72.24418566621202</v>
       </c>
       <c r="O11" t="n">
-        <v>8.498570629726359</v>
+        <v>8.49965797348411</v>
       </c>
       <c r="P11" t="n">
-        <v>319.7849144135851</v>
+        <v>319.5802311939785</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -27214,28 +27625,28 @@
         <v>0.1204</v>
       </c>
       <c r="I12" t="n">
-        <v>0.1717771881648443</v>
+        <v>0.1927203891440149</v>
       </c>
       <c r="J12" t="n">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="K12" t="n">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="L12" t="n">
-        <v>0.02171014244445357</v>
+        <v>0.02763859242729572</v>
       </c>
       <c r="M12" t="n">
-        <v>6.286864942359616</v>
+        <v>6.306985453463592</v>
       </c>
       <c r="N12" t="n">
-        <v>68.14089302912413</v>
+        <v>68.24656792829545</v>
       </c>
       <c r="O12" t="n">
-        <v>8.254749725408042</v>
+        <v>8.261148099888747</v>
       </c>
       <c r="P12" t="n">
-        <v>320.8587250170321</v>
+        <v>320.6483133422794</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -27291,28 +27702,28 @@
         <v>0.0939</v>
       </c>
       <c r="I13" t="n">
-        <v>0.09916215763340942</v>
+        <v>0.1252868797945809</v>
       </c>
       <c r="J13" t="n">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="K13" t="n">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="L13" t="n">
-        <v>0.006394468366893391</v>
+        <v>0.01026116130806509</v>
       </c>
       <c r="M13" t="n">
-        <v>6.945266466224399</v>
+        <v>6.960153232086222</v>
       </c>
       <c r="N13" t="n">
-        <v>79.1677261367312</v>
+        <v>79.9455938454291</v>
       </c>
       <c r="O13" t="n">
-        <v>8.897624746904716</v>
+        <v>8.941229996226978</v>
       </c>
       <c r="P13" t="n">
-        <v>325.5107500609487</v>
+        <v>325.25066655375</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -27368,28 +27779,28 @@
         <v>0.1032</v>
       </c>
       <c r="I14" t="n">
-        <v>0.1680536309917873</v>
+        <v>0.1991074101760443</v>
       </c>
       <c r="J14" t="n">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="K14" t="n">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="L14" t="n">
-        <v>0.01696465952619641</v>
+        <v>0.02405098016426632</v>
       </c>
       <c r="M14" t="n">
-        <v>7.229959257678473</v>
+        <v>7.247703350895487</v>
       </c>
       <c r="N14" t="n">
-        <v>83.54333083481788</v>
+        <v>83.75932582175622</v>
       </c>
       <c r="O14" t="n">
-        <v>9.140204091529789</v>
+        <v>9.152012118750511</v>
       </c>
       <c r="P14" t="n">
-        <v>328.3650301875079</v>
+        <v>328.053499893514</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -27445,28 +27856,28 @@
         <v>0.099</v>
       </c>
       <c r="I15" t="n">
-        <v>0.1472169332583617</v>
+        <v>0.1800409500612753</v>
       </c>
       <c r="J15" t="n">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="K15" t="n">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="L15" t="n">
-        <v>0.01136629502177688</v>
+        <v>0.01715717882868895</v>
       </c>
       <c r="M15" t="n">
-        <v>7.789876195210488</v>
+        <v>7.802899036669773</v>
       </c>
       <c r="N15" t="n">
-        <v>96.39975434123039</v>
+        <v>96.84370411659529</v>
       </c>
       <c r="O15" t="n">
-        <v>9.818337656713094</v>
+        <v>9.840919881626681</v>
       </c>
       <c r="P15" t="n">
-        <v>328.0295456892551</v>
+        <v>327.7001529984601</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -27522,28 +27933,28 @@
         <v>0.1029</v>
       </c>
       <c r="I16" t="n">
-        <v>0.06764673124905772</v>
+        <v>0.09467336683606285</v>
       </c>
       <c r="J16" t="n">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="K16" t="n">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="L16" t="n">
-        <v>0.00254679199457053</v>
+        <v>0.005021763633479615</v>
       </c>
       <c r="M16" t="n">
-        <v>7.371294616633142</v>
+        <v>7.393450445693915</v>
       </c>
       <c r="N16" t="n">
-        <v>91.48973724026565</v>
+        <v>92.02317363068114</v>
       </c>
       <c r="O16" t="n">
-        <v>9.565026776766787</v>
+        <v>9.592870979570252</v>
       </c>
       <c r="P16" t="n">
-        <v>329.4409834672816</v>
+        <v>329.1683303940489</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -27599,28 +28010,28 @@
         <v>0.1031</v>
       </c>
       <c r="I17" t="n">
-        <v>0.1311074918558393</v>
+        <v>0.1609729692449963</v>
       </c>
       <c r="J17" t="n">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="K17" t="n">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="L17" t="n">
-        <v>0.00759532200847679</v>
+        <v>0.0115135219693554</v>
       </c>
       <c r="M17" t="n">
-        <v>8.479844650463557</v>
+        <v>8.510379191768024</v>
       </c>
       <c r="N17" t="n">
-        <v>114.114620045913</v>
+        <v>114.7658534668608</v>
       </c>
       <c r="O17" t="n">
-        <v>10.68244447895298</v>
+        <v>10.71288259372149</v>
       </c>
       <c r="P17" t="n">
-        <v>330.8720902042893</v>
+        <v>330.5698931144763</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -27676,28 +28087,28 @@
         <v>0.1249</v>
       </c>
       <c r="I18" t="n">
-        <v>0.1560206805114359</v>
+        <v>0.1867472710531402</v>
       </c>
       <c r="J18" t="n">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="K18" t="n">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="L18" t="n">
-        <v>0.0117616127080109</v>
+        <v>0.01692565488236353</v>
       </c>
       <c r="M18" t="n">
-        <v>7.885470572499437</v>
+        <v>7.924457374262416</v>
       </c>
       <c r="N18" t="n">
-        <v>103.4684478882175</v>
+        <v>104.1403328843615</v>
       </c>
       <c r="O18" t="n">
-        <v>10.17194415479251</v>
+        <v>10.2049170934585</v>
       </c>
       <c r="P18" t="n">
-        <v>327.8317009254001</v>
+        <v>327.5228725549762</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -27753,28 +28164,28 @@
         <v>0.0973</v>
       </c>
       <c r="I19" t="n">
-        <v>0.1638505324403866</v>
+        <v>0.1934696733689797</v>
       </c>
       <c r="J19" t="n">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="K19" t="n">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="L19" t="n">
-        <v>0.009626265982291105</v>
+        <v>0.01351873126321956</v>
       </c>
       <c r="M19" t="n">
-        <v>9.562714433166351</v>
+        <v>9.554263722264533</v>
       </c>
       <c r="N19" t="n">
-        <v>139.4897567515449</v>
+        <v>140.1713829560918</v>
       </c>
       <c r="O19" t="n">
-        <v>11.81057817177232</v>
+        <v>11.83939960285537</v>
       </c>
       <c r="P19" t="n">
-        <v>326.3497947775818</v>
+        <v>326.0512533000767</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -27830,28 +28241,28 @@
         <v>0.1034</v>
       </c>
       <c r="I20" t="n">
-        <v>0.1509827918076977</v>
+        <v>0.185001985525943</v>
       </c>
       <c r="J20" t="n">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="K20" t="n">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="L20" t="n">
-        <v>0.008749264968099246</v>
+        <v>0.01314306363734152</v>
       </c>
       <c r="M20" t="n">
-        <v>9.295762076892204</v>
+        <v>9.331538358470555</v>
       </c>
       <c r="N20" t="n">
-        <v>131.7969234437934</v>
+        <v>133.1986251410259</v>
       </c>
       <c r="O20" t="n">
-        <v>11.48028411860061</v>
+        <v>11.54117087392028</v>
       </c>
       <c r="P20" t="n">
-        <v>327.5980856080565</v>
+        <v>327.2556230822854</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -27907,28 +28318,28 @@
         <v>0.08309999999999999</v>
       </c>
       <c r="I21" t="n">
-        <v>0.2725724769996581</v>
+        <v>0.3091722520420929</v>
       </c>
       <c r="J21" t="n">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="K21" t="n">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="L21" t="n">
-        <v>0.0202507383023337</v>
+        <v>0.02623120731624606</v>
       </c>
       <c r="M21" t="n">
-        <v>10.39600222771666</v>
+        <v>10.40604237664323</v>
       </c>
       <c r="N21" t="n">
-        <v>183.2163821372964</v>
+        <v>183.8027063761971</v>
       </c>
       <c r="O21" t="n">
-        <v>13.53574460963623</v>
+        <v>13.55738567630932</v>
       </c>
       <c r="P21" t="n">
-        <v>323.3872571381168</v>
+        <v>323.0190773944068</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -27984,28 +28395,28 @@
         <v>0.0873</v>
       </c>
       <c r="I22" t="n">
-        <v>0.1831554799148181</v>
+        <v>0.2299624707719021</v>
       </c>
       <c r="J22" t="n">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="K22" t="n">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="L22" t="n">
-        <v>0.01151923388960852</v>
+        <v>0.01811026630196755</v>
       </c>
       <c r="M22" t="n">
-        <v>9.425833308789214</v>
+        <v>9.48869104505968</v>
       </c>
       <c r="N22" t="n">
-        <v>145.3933136244137</v>
+        <v>147.4178422825933</v>
       </c>
       <c r="O22" t="n">
-        <v>12.05791497832083</v>
+        <v>12.14157495066407</v>
       </c>
       <c r="P22" t="n">
-        <v>328.8294421810091</v>
+        <v>328.3556628412221</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -28042,7 +28453,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W325"/>
+  <dimension ref="A1:W330"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -62323,6 +62734,563 @@
         </is>
       </c>
     </row>
+    <row r="326">
+      <c r="A326" s="1" t="inlineStr">
+        <is>
+          <t>2024-11-27 22:05:54+00:00</t>
+        </is>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>-36.70681332524348,175.6090432260862</t>
+        </is>
+      </c>
+      <c r="C326" t="inlineStr">
+        <is>
+          <t>-36.707433669659956,175.60950672789832</t>
+        </is>
+      </c>
+      <c r="D326" t="inlineStr">
+        <is>
+          <t>-36.70799991554575,175.61006240045845</t>
+        </is>
+      </c>
+      <c r="E326" t="inlineStr">
+        <is>
+          <t>-36.70855006658128,175.6106454891871</t>
+        </is>
+      </c>
+      <c r="F326" t="inlineStr">
+        <is>
+          <t>-36.70911848720007,175.6112221911583</t>
+        </is>
+      </c>
+      <c r="G326" t="inlineStr">
+        <is>
+          <t>-36.70975318162341,175.61171546205895</t>
+        </is>
+      </c>
+      <c r="H326" t="inlineStr">
+        <is>
+          <t>-36.71031420025938,175.61229929571132</t>
+        </is>
+      </c>
+      <c r="I326" t="inlineStr">
+        <is>
+          <t>-36.710842076033046,175.6129101676991</t>
+        </is>
+      </c>
+      <c r="J326" t="inlineStr">
+        <is>
+          <t>-36.71132065354725,175.6136071777348</t>
+        </is>
+      </c>
+      <c r="K326" t="inlineStr">
+        <is>
+          <t>-36.71180939138024,175.61430362667684</t>
+        </is>
+      </c>
+      <c r="L326" t="inlineStr">
+        <is>
+          <t>-36.71225697215708,175.61502760110767</t>
+        </is>
+      </c>
+      <c r="M326" t="inlineStr">
+        <is>
+          <t>-36.71271619370545,175.61572273999516</t>
+        </is>
+      </c>
+      <c r="N326" t="inlineStr">
+        <is>
+          <t>-36.71312570949012,175.6164759327324</t>
+        </is>
+      </c>
+      <c r="O326" t="inlineStr">
+        <is>
+          <t>-36.71355968448038,175.61720206755942</t>
+        </is>
+      </c>
+      <c r="P326" t="inlineStr">
+        <is>
+          <t>-36.713978576783816,175.6179326606595</t>
+        </is>
+      </c>
+      <c r="Q326" t="inlineStr">
+        <is>
+          <t>-36.714384599844216,175.6186847408008</t>
+        </is>
+      </c>
+      <c r="R326" t="inlineStr">
+        <is>
+          <t>-36.71477576448536,175.6194506440625</t>
+        </is>
+      </c>
+      <c r="S326" t="inlineStr">
+        <is>
+          <t>-36.71515915372603,175.62021285987583</t>
+        </is>
+      </c>
+      <c r="T326" t="inlineStr">
+        <is>
+          <t>-36.71547878426396,175.6210253560522</t>
+        </is>
+      </c>
+      <c r="U326" t="inlineStr">
+        <is>
+          <t>-36.71583223893196,175.6218163634246</t>
+        </is>
+      </c>
+      <c r="V326" t="inlineStr">
+        <is>
+          <t>-36.71612738076656,175.62263634028844</t>
+        </is>
+      </c>
+      <c r="W326" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-05 22:06:09+00:00</t>
+        </is>
+      </c>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>-36.70665773932875,175.6093083276283</t>
+        </is>
+      </c>
+      <c r="C327" t="inlineStr">
+        <is>
+          <t>-36.70735580569337,175.60963940007923</t>
+        </is>
+      </c>
+      <c r="D327" t="inlineStr">
+        <is>
+          <t>-36.70797228787067,175.61010947516294</t>
+        </is>
+      </c>
+      <c r="E327" t="inlineStr">
+        <is>
+          <t>-36.70851875792841,175.61069883577463</t>
+        </is>
+      </c>
+      <c r="F327" t="inlineStr">
+        <is>
+          <t>-36.70912658493411,175.61120926670748</t>
+        </is>
+      </c>
+      <c r="G327" t="inlineStr">
+        <is>
+          <t>-36.709747722575564,175.61172328183852</t>
+        </is>
+      </c>
+      <c r="H327" t="inlineStr">
+        <is>
+          <t>-36.71033157506045,175.61227546420642</t>
+        </is>
+      </c>
+      <c r="I327" t="inlineStr">
+        <is>
+          <t>-36.71087371017599,175.61286677797332</t>
+        </is>
+      </c>
+      <c r="J327" t="inlineStr">
+        <is>
+          <t>-36.71137831253137,175.61353246653482</t>
+        </is>
+      </c>
+      <c r="K327" t="inlineStr">
+        <is>
+          <t>-36.71185007280491,175.61425788205614</t>
+        </is>
+      </c>
+      <c r="L327" t="inlineStr">
+        <is>
+          <t>-36.71232258989757,175.6149598564495</t>
+        </is>
+      </c>
+      <c r="M327" t="inlineStr">
+        <is>
+          <t>-36.71274621082181,175.61569229493458</t>
+        </is>
+      </c>
+      <c r="N327" t="inlineStr">
+        <is>
+          <t>-36.71315829197583,175.61644563707065</t>
+        </is>
+      </c>
+      <c r="O327" t="inlineStr">
+        <is>
+          <t>-36.71359657701609,175.61717009788384</t>
+        </is>
+      </c>
+      <c r="P327" t="inlineStr">
+        <is>
+          <t>-36.71402115849061,175.61789576116644</t>
+        </is>
+      </c>
+      <c r="Q327" t="inlineStr">
+        <is>
+          <t>-36.714428090737336,175.61865055012316</t>
+        </is>
+      </c>
+      <c r="R327" t="inlineStr">
+        <is>
+          <t>-36.71480805026253,175.6194278694869</t>
+        </is>
+      </c>
+      <c r="S327" t="inlineStr">
+        <is>
+          <t>-36.71521032679988,175.62017700537288</t>
+        </is>
+      </c>
+      <c r="T327" t="inlineStr">
+        <is>
+          <t>-36.715591272087494,175.6209522270867</t>
+        </is>
+      </c>
+      <c r="U327" t="inlineStr">
+        <is>
+          <t>-36.71588419070455,175.62178530459983</t>
+        </is>
+      </c>
+      <c r="V327" t="inlineStr">
+        <is>
+          <t>-36.716160697346396,175.62261653371846</t>
+        </is>
+      </c>
+      <c r="W327" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-13 22:05:46+00:00</t>
+        </is>
+      </c>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>-36.706852858411416,175.60897586552798</t>
+        </is>
+      </c>
+      <c r="C328" t="inlineStr">
+        <is>
+          <t>-36.70746075633526,175.6094605748738</t>
+        </is>
+      </c>
+      <c r="D328" t="inlineStr">
+        <is>
+          <t>-36.70803217916801,175.61000742649782</t>
+        </is>
+      </c>
+      <c r="E328" t="inlineStr">
+        <is>
+          <t>-36.70856361596876,175.61062240245818</t>
+        </is>
+      </c>
+      <c r="F328" t="inlineStr">
+        <is>
+          <t>-36.709150355045246,175.6111713282104</t>
+        </is>
+      </c>
+      <c r="G328" t="inlineStr">
+        <is>
+          <t>-36.709766371861356,175.61169656777616</t>
+        </is>
+      </c>
+      <c r="H328" t="inlineStr">
+        <is>
+          <t>-36.71034275513121,175.6122601294659</t>
+        </is>
+      </c>
+      <c r="I328" t="inlineStr">
+        <is>
+          <t>-36.7108563928889,175.61289053055475</t>
+        </is>
+      </c>
+      <c r="J328" t="inlineStr">
+        <is>
+          <t>-36.711342450832916,175.61357893408368</t>
+        </is>
+      </c>
+      <c r="K328" t="inlineStr">
+        <is>
+          <t>-36.71181952675545,175.6142922298625</t>
+        </is>
+      </c>
+      <c r="L328" t="inlineStr">
+        <is>
+          <t>-36.712270326640216,175.61501381376772</t>
+        </is>
+      </c>
+      <c r="M328" t="inlineStr">
+        <is>
+          <t>-36.712733806648494,175.61570487595384</t>
+        </is>
+      </c>
+      <c r="N328" t="inlineStr">
+        <is>
+          <t>-36.71313737754323,175.6164650836132</t>
+        </is>
+      </c>
+      <c r="O328" t="inlineStr">
+        <is>
+          <t>-36.7135717439238,175.61719161730608</t>
+        </is>
+      </c>
+      <c r="P328" t="inlineStr">
+        <is>
+          <t>-36.71399506929494,175.61791836895776</t>
+        </is>
+      </c>
+      <c r="Q328" t="inlineStr">
+        <is>
+          <t>-36.71438674816937,175.61868305188062</t>
+        </is>
+      </c>
+      <c r="R328" t="inlineStr">
+        <is>
+          <t>-36.71477527581557,175.61945098877285</t>
+        </is>
+      </c>
+      <c r="S328" t="inlineStr">
+        <is>
+          <t>-36.71516208924311,175.62021080310214</t>
+        </is>
+      </c>
+      <c r="T328" t="inlineStr">
+        <is>
+          <t>-36.71549125335132,175.62101724983992</t>
+        </is>
+      </c>
+      <c r="U328" t="inlineStr">
+        <is>
+          <t>-36.71584381984851,175.6218094398984</t>
+        </is>
+      </c>
+      <c r="V328" t="inlineStr">
+        <is>
+          <t>-36.71611386452727,175.62264437563204</t>
+        </is>
+      </c>
+      <c r="W328" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-06 22:05:42+00:00</t>
+        </is>
+      </c>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>-36.70668527998623,175.60926140147953</t>
+        </is>
+      </c>
+      <c r="C329" t="inlineStr">
+        <is>
+          <t>-36.70733175545188,175.60968037911144</t>
+        </is>
+      </c>
+      <c r="D329" t="inlineStr">
+        <is>
+          <t>-36.70796411582585,175.61012339947095</t>
+        </is>
+      </c>
+      <c r="E329" t="inlineStr">
+        <is>
+          <t>-36.70849961895557,175.61073144649177</t>
+        </is>
+      </c>
+      <c r="F329" t="inlineStr">
+        <is>
+          <t>-36.709084149775414,175.6112769956159</t>
+        </is>
+      </c>
+      <c r="G329" t="inlineStr">
+        <is>
+          <t>-36.70970753216552,175.6117808522894</t>
+        </is>
+      </c>
+      <c r="H329" t="inlineStr">
+        <is>
+          <t>-36.71026069847583,175.61237267935337</t>
+        </is>
+      </c>
+      <c r="I329" t="inlineStr">
+        <is>
+          <t>-36.71078458109929,175.61298902821693</t>
+        </is>
+      </c>
+      <c r="J329" t="inlineStr">
+        <is>
+          <t>-36.711262959284475,175.6136819344789</t>
+        </is>
+      </c>
+      <c r="K329" t="inlineStr">
+        <is>
+          <t>-36.71172405319925,175.614399585804</t>
+        </is>
+      </c>
+      <c r="L329" t="inlineStr">
+        <is>
+          <t>-36.712189437642955,175.61509732451256</t>
+        </is>
+      </c>
+      <c r="M329" t="inlineStr">
+        <is>
+          <t>-36.71258736999724,175.6158533999538</t>
+        </is>
+      </c>
+      <c r="N329" t="inlineStr">
+        <is>
+          <t>-36.713064260512766,175.61653306878534</t>
+        </is>
+      </c>
+      <c r="O329" t="inlineStr">
+        <is>
+          <t>-36.71346564706363,175.61728355666116</t>
+        </is>
+      </c>
+      <c r="P329" t="inlineStr">
+        <is>
+          <t>-36.71390234507761,175.61799871968668</t>
+        </is>
+      </c>
+      <c r="Q329" t="inlineStr">
+        <is>
+          <t>-36.71428360316491,175.61876413989333</t>
+        </is>
+      </c>
+      <c r="R329" t="inlineStr">
+        <is>
+          <t>-36.714680757362565,175.61951766251838</t>
+        </is>
+      </c>
+      <c r="S329" t="inlineStr">
+        <is>
+          <t>-36.71502002125915,175.6203103430136</t>
+        </is>
+      </c>
+      <c r="T329" t="inlineStr">
+        <is>
+          <t>-36.71537775448622,175.6210910358808</t>
+        </is>
+      </c>
+      <c r="U329" t="inlineStr">
+        <is>
+          <t>-36.71570517352591,175.62189232796416</t>
+        </is>
+      </c>
+      <c r="V329" t="inlineStr">
+        <is>
+          <t>-36.7159856362945,175.62272060659296</t>
+        </is>
+      </c>
+      <c r="W329" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-07 22:05:41+00:00</t>
+        </is>
+      </c>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>-36.70685763422795,175.60896772800612</t>
+        </is>
+      </c>
+      <c r="C330" t="inlineStr">
+        <is>
+          <t>-36.70744190061488,175.60949270316908</t>
+        </is>
+      </c>
+      <c r="D330" t="inlineStr">
+        <is>
+          <t>-36.708009481750814,175.6100461006182</t>
+        </is>
+      </c>
+      <c r="E330" t="inlineStr">
+        <is>
+          <t>-36.70854987200781,175.61064582071972</t>
+        </is>
+      </c>
+      <c r="F330" t="inlineStr">
+        <is>
+          <t>-36.70913548741039,175.61119505783594</t>
+        </is>
+      </c>
+      <c r="G330" t="inlineStr">
+        <is>
+          <t>-36.709762211182564,175.61170252771842</t>
+        </is>
+      </c>
+      <c r="H330" t="inlineStr">
+        <is>
+          <t>-36.71032402985543,175.6122858133106</t>
+        </is>
+      </c>
+      <c r="I330" t="inlineStr">
+        <is>
+          <t>-36.71084660548112,175.61290395506356</t>
+        </is>
+      </c>
+      <c r="J330" t="inlineStr">
+        <is>
+          <t>-36.711319544980825,175.61360861414985</t>
+        </is>
+      </c>
+      <c r="K330" t="inlineStr">
+        <is>
+          <t>-36.711811388561266,175.6143013809289</t>
+        </is>
+      </c>
+      <c r="L330" t="inlineStr">
+        <is>
+          <t>-36.712253085896656,175.61503161333172</t>
+        </is>
+      </c>
+      <c r="M330" t="inlineStr">
+        <is>
+          <t>-36.71270976996774,175.61572925531004</t>
+        </is>
+      </c>
+      <c r="N330" t="inlineStr">
+        <is>
+          <t>-36.713127504867245,175.6164742633659</t>
+        </is>
+      </c>
+      <c r="O330" t="inlineStr">
+        <is>
+          <t>-36.71356083378067,175.61720107161986</t>
+        </is>
+      </c>
+      <c r="P330" t="inlineStr"/>
+      <c r="Q330" t="inlineStr"/>
+      <c r="R330" t="inlineStr"/>
+      <c r="S330" t="inlineStr"/>
+      <c r="T330" t="inlineStr"/>
+      <c r="U330" t="inlineStr"/>
+      <c r="V330" t="inlineStr"/>
+      <c r="W330" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0154/nzd0154.xlsx
+++ b/data/nzd0154/nzd0154.xlsx
@@ -26700,7 +26700,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W22"/>
+  <dimension ref="A1:X22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26791,35 +26791,40 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
+          <t>ERODIBILITY</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
           <t>geometry</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>land_x</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>land_y</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>sea_x</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>sea_y</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>center_x</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>center_y</t>
         </is>
@@ -26878,27 +26883,28 @@
       <c r="P2" t="n">
         <v>282.5214771051145</v>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr">
         <is>
           <t>LINESTRING (175.60626447697462 -36.708444078605616, 175.61458812973117 -36.70355881893588)</t>
         </is>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>175.6062644769746</v>
       </c>
-      <c r="S2" t="n">
+      <c r="T2" t="n">
         <v>-36.70844407860562</v>
       </c>
-      <c r="T2" t="n">
+      <c r="U2" t="n">
         <v>175.6145881297312</v>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
         <v>-36.70355881893588</v>
       </c>
-      <c r="V2" t="n">
+      <c r="W2" t="n">
         <v>175.6104263033529</v>
       </c>
-      <c r="W2" t="n">
+      <c r="X2" t="n">
         <v>-36.70600144877075</v>
       </c>
     </row>
@@ -26955,27 +26961,28 @@
       <c r="P3" t="n">
         <v>284.7205719685562</v>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr">
         <is>
           <t>LINESTRING (175.6067811615131 -36.709033211135, 175.61510483084695 -36.704147940282475)</t>
         </is>
       </c>
-      <c r="R3" t="n">
+      <c r="S3" t="n">
         <v>175.6067811615131</v>
       </c>
-      <c r="S3" t="n">
+      <c r="T3" t="n">
         <v>-36.709033211135</v>
       </c>
-      <c r="T3" t="n">
+      <c r="U3" t="n">
         <v>175.6151048308469</v>
       </c>
-      <c r="U3" t="n">
+      <c r="V3" t="n">
         <v>-36.70414794028247</v>
       </c>
-      <c r="V3" t="n">
+      <c r="W3" t="n">
         <v>175.61094299618</v>
       </c>
-      <c r="W3" t="n">
+      <c r="X3" t="n">
         <v>-36.70659057570874</v>
       </c>
     </row>
@@ -27032,27 +27039,28 @@
       <c r="P4" t="n">
         <v>283.8904666200021</v>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr">
         <is>
           <t>LINESTRING (175.60729784605172 -36.709622339148176, 175.61562153196238 -36.70473705711249)</t>
         </is>
       </c>
-      <c r="R4" t="n">
+      <c r="S4" t="n">
         <v>175.6072978460517</v>
       </c>
-      <c r="S4" t="n">
+      <c r="T4" t="n">
         <v>-36.70962233914818</v>
       </c>
-      <c r="T4" t="n">
+      <c r="U4" t="n">
         <v>175.6156215319624</v>
       </c>
-      <c r="U4" t="n">
+      <c r="V4" t="n">
         <v>-36.70473705711249</v>
       </c>
-      <c r="V4" t="n">
+      <c r="W4" t="n">
         <v>175.6114596890071</v>
       </c>
-      <c r="W4" t="n">
+      <c r="X4" t="n">
         <v>-36.70717969813033</v>
       </c>
     </row>
@@ -27109,27 +27117,28 @@
       <c r="P5" t="n">
         <v>294.9641406843974</v>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr">
         <is>
           <t>LINESTRING (175.60781453059053 -36.710211462645056, 175.61613823307744 -36.70532616942589)</t>
         </is>
       </c>
-      <c r="R5" t="n">
+      <c r="S5" t="n">
         <v>175.6078145305905</v>
       </c>
-      <c r="S5" t="n">
+      <c r="T5" t="n">
         <v>-36.71021146264506</v>
       </c>
-      <c r="T5" t="n">
+      <c r="U5" t="n">
         <v>175.6161382330774</v>
       </c>
-      <c r="U5" t="n">
+      <c r="V5" t="n">
         <v>-36.70532616942589</v>
       </c>
-      <c r="V5" t="n">
+      <c r="W5" t="n">
         <v>175.611976381834</v>
       </c>
-      <c r="W5" t="n">
+      <c r="X5" t="n">
         <v>-36.70776881603547</v>
       </c>
     </row>
@@ -27186,27 +27195,28 @@
       <c r="P6" t="n">
         <v>304.3140508101603</v>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr">
         <is>
           <t>LINESTRING (175.60840729323442 -36.71088207239083, 175.61653596983882 -36.705788915579475)</t>
         </is>
       </c>
-      <c r="R6" t="n">
+      <c r="S6" t="n">
         <v>175.6084072932344</v>
       </c>
-      <c r="S6" t="n">
+      <c r="T6" t="n">
         <v>-36.71088207239083</v>
       </c>
-      <c r="T6" t="n">
+      <c r="U6" t="n">
         <v>175.6165359698388</v>
       </c>
-      <c r="U6" t="n">
+      <c r="V6" t="n">
         <v>-36.70578891557948</v>
       </c>
-      <c r="V6" t="n">
+      <c r="W6" t="n">
         <v>175.6124716315366</v>
       </c>
-      <c r="W6" t="n">
+      <c r="X6" t="n">
         <v>-36.70833549398515</v>
       </c>
     </row>
@@ -27263,27 +27273,28 @@
       <c r="P7" t="n">
         <v>298.1760030275304</v>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr">
         <is>
           <t>LINESTRING (175.6091038891695 -36.71157627047247, 175.61688528759743 -36.70614381333472)</t>
         </is>
       </c>
-      <c r="R7" t="n">
+      <c r="S7" t="n">
         <v>175.6091038891695</v>
       </c>
-      <c r="S7" t="n">
+      <c r="T7" t="n">
         <v>-36.71157627047247</v>
       </c>
-      <c r="T7" t="n">
+      <c r="U7" t="n">
         <v>175.6168852875974</v>
       </c>
-      <c r="U7" t="n">
+      <c r="V7" t="n">
         <v>-36.70614381333472</v>
       </c>
-      <c r="V7" t="n">
+      <c r="W7" t="n">
         <v>175.6129945883835</v>
       </c>
-      <c r="W7" t="n">
+      <c r="X7" t="n">
         <v>-36.70886004190359</v>
       </c>
     </row>
@@ -27340,27 +27351,28 @@
       <c r="P8" t="n">
         <v>296.1085083250138</v>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr">
         <is>
           <t>LINESTRING (175.609752940644 -36.71217059830702, 175.6173869883649 -36.70660464256198)</t>
         </is>
       </c>
-      <c r="R8" t="n">
+      <c r="S8" t="n">
         <v>175.609752940644</v>
       </c>
-      <c r="S8" t="n">
+      <c r="T8" t="n">
         <v>-36.71217059830702</v>
       </c>
-      <c r="T8" t="n">
+      <c r="U8" t="n">
         <v>175.6173869883649</v>
       </c>
-      <c r="U8" t="n">
+      <c r="V8" t="n">
         <v>-36.70660464256198</v>
       </c>
-      <c r="V8" t="n">
+      <c r="W8" t="n">
         <v>175.6135699645044</v>
       </c>
-      <c r="W8" t="n">
+      <c r="X8" t="n">
         <v>-36.7093876204345</v>
       </c>
     </row>
@@ -27417,27 +27429,28 @@
       <c r="P9" t="n">
         <v>299.4561124879604</v>
       </c>
-      <c r="Q9" t="inlineStr">
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr">
         <is>
           <t>LINESTRING (175.61034448425193 -36.71271256869507, 175.6179785354028 -36.70714660184199)</t>
         </is>
       </c>
-      <c r="R9" t="n">
+      <c r="S9" t="n">
         <v>175.6103444842519</v>
       </c>
-      <c r="S9" t="n">
+      <c r="T9" t="n">
         <v>-36.71271256869507</v>
       </c>
-      <c r="T9" t="n">
+      <c r="U9" t="n">
         <v>175.6179785354028</v>
       </c>
-      <c r="U9" t="n">
+      <c r="V9" t="n">
         <v>-36.70714660184199</v>
       </c>
-      <c r="V9" t="n">
+      <c r="W9" t="n">
         <v>175.6141615098274</v>
       </c>
-      <c r="W9" t="n">
+      <c r="X9" t="n">
         <v>-36.70992958526853</v>
       </c>
     </row>
@@ -27494,27 +27507,28 @@
       <c r="P10" t="n">
         <v>310.6084233383518</v>
       </c>
-      <c r="Q10" t="inlineStr">
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr">
         <is>
           <t>LINESTRING (175.6110139034043 -36.7133219586214, 175.61844844429532 -36.70758409014092)</t>
         </is>
       </c>
-      <c r="R10" t="n">
+      <c r="S10" t="n">
         <v>175.6110139034043</v>
       </c>
-      <c r="S10" t="n">
+      <c r="T10" t="n">
         <v>-36.7133219586214</v>
       </c>
-      <c r="T10" t="n">
+      <c r="U10" t="n">
         <v>175.6184484442953</v>
       </c>
-      <c r="U10" t="n">
+      <c r="V10" t="n">
         <v>-36.70758409014092</v>
       </c>
-      <c r="V10" t="n">
+      <c r="W10" t="n">
         <v>175.6147311738498</v>
       </c>
-      <c r="W10" t="n">
+      <c r="X10" t="n">
         <v>-36.71045302438116</v>
       </c>
     </row>
@@ -27571,27 +27585,28 @@
       <c r="P11" t="n">
         <v>319.5802311939785</v>
       </c>
-      <c r="Q11" t="inlineStr">
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="inlineStr">
         <is>
           <t>LINESTRING (175.6118457722189 -36.7139951176341, 175.61875680522382 -36.70784882739598)</t>
         </is>
       </c>
-      <c r="R11" t="n">
+      <c r="S11" t="n">
         <v>175.6118457722189</v>
       </c>
-      <c r="S11" t="n">
+      <c r="T11" t="n">
         <v>-36.7139951176341</v>
       </c>
-      <c r="T11" t="n">
+      <c r="U11" t="n">
         <v>175.6187568052238</v>
       </c>
-      <c r="U11" t="n">
+      <c r="V11" t="n">
         <v>-36.70784882739598</v>
       </c>
-      <c r="V11" t="n">
+      <c r="W11" t="n">
         <v>175.6153012887214</v>
       </c>
-      <c r="W11" t="n">
+      <c r="X11" t="n">
         <v>-36.71092197251504</v>
       </c>
     </row>
@@ -27648,27 +27663,28 @@
       <c r="P12" t="n">
         <v>320.6483133422794</v>
       </c>
-      <c r="Q12" t="inlineStr">
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="inlineStr">
         <is>
           <t>LINESTRING (175.61265523361462 -36.71455476996266, 175.61923716361179 -36.70817928823422)</t>
         </is>
       </c>
-      <c r="R12" t="n">
+      <c r="S12" t="n">
         <v>175.6126552336146</v>
       </c>
-      <c r="S12" t="n">
+      <c r="T12" t="n">
         <v>-36.71455476996266</v>
       </c>
-      <c r="T12" t="n">
+      <c r="U12" t="n">
         <v>175.6192371636118</v>
       </c>
-      <c r="U12" t="n">
+      <c r="V12" t="n">
         <v>-36.70817928823422</v>
       </c>
-      <c r="V12" t="n">
+      <c r="W12" t="n">
         <v>175.6159461986132</v>
       </c>
-      <c r="W12" t="n">
+      <c r="X12" t="n">
         <v>-36.71136702909844</v>
       </c>
     </row>
@@ -27725,27 +27741,28 @@
       <c r="P13" t="n">
         <v>325.25066655375</v>
       </c>
-      <c r="Q13" t="inlineStr">
+      <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="inlineStr">
         <is>
           <t>LINESTRING (175.61336322606994 -36.71504245229107, 175.61987587498066 -36.708621153821085)</t>
         </is>
       </c>
-      <c r="R13" t="n">
+      <c r="S13" t="n">
         <v>175.6133632260699</v>
       </c>
-      <c r="S13" t="n">
+      <c r="T13" t="n">
         <v>-36.71504245229107</v>
       </c>
-      <c r="T13" t="n">
+      <c r="U13" t="n">
         <v>175.6198758749807</v>
       </c>
-      <c r="U13" t="n">
+      <c r="V13" t="n">
         <v>-36.70862115382108</v>
       </c>
-      <c r="V13" t="n">
+      <c r="W13" t="n">
         <v>175.6166195505253</v>
       </c>
-      <c r="W13" t="n">
+      <c r="X13" t="n">
         <v>-36.71183180305608</v>
       </c>
     </row>
@@ -27802,27 +27819,28 @@
       <c r="P14" t="n">
         <v>328.053499893514</v>
       </c>
-      <c r="Q14" t="inlineStr">
+      <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="inlineStr">
         <is>
           <t>LINESTRING (175.61418759686953 -36.71558668129436, 175.62035787074427 -36.70895046757339)</t>
         </is>
       </c>
-      <c r="R14" t="n">
+      <c r="S14" t="n">
         <v>175.6141875968695</v>
       </c>
-      <c r="S14" t="n">
+      <c r="T14" t="n">
         <v>-36.71558668129436</v>
       </c>
-      <c r="T14" t="n">
+      <c r="U14" t="n">
         <v>175.6203578707443</v>
       </c>
-      <c r="U14" t="n">
+      <c r="V14" t="n">
         <v>-36.70895046757339</v>
       </c>
-      <c r="V14" t="n">
+      <c r="W14" t="n">
         <v>175.6172727338069</v>
       </c>
-      <c r="W14" t="n">
+      <c r="X14" t="n">
         <v>-36.71226857443388</v>
       </c>
     </row>
@@ -27879,27 +27897,28 @@
       <c r="P15" t="n">
         <v>327.7001529984601</v>
       </c>
-      <c r="Q15" t="inlineStr">
+      <c r="Q15" t="inlineStr"/>
+      <c r="R15" t="inlineStr">
         <is>
           <t>LINESTRING (175.6150245609039 -36.716072398532745, 175.62091551749083 -36.70927413020416)</t>
         </is>
       </c>
-      <c r="R15" t="n">
+      <c r="S15" t="n">
         <v>175.6150245609039</v>
       </c>
-      <c r="S15" t="n">
+      <c r="T15" t="n">
         <v>-36.71607239853275</v>
       </c>
-      <c r="T15" t="n">
+      <c r="U15" t="n">
         <v>175.6209155174908</v>
       </c>
-      <c r="U15" t="n">
+      <c r="V15" t="n">
         <v>-36.70927413020416</v>
       </c>
-      <c r="V15" t="n">
+      <c r="W15" t="n">
         <v>175.6179700391974</v>
       </c>
-      <c r="W15" t="n">
+      <c r="X15" t="n">
         <v>-36.71267326436845</v>
       </c>
     </row>
@@ -27956,27 +27975,28 @@
       <c r="P16" t="n">
         <v>329.1683303940489</v>
       </c>
-      <c r="Q16" t="inlineStr">
+      <c r="Q16" t="inlineStr"/>
+      <c r="R16" t="inlineStr">
         <is>
           <t>LINESTRING (175.61575240599163 -36.71649447581446, 175.62164333822818 -36.709696198269576)</t>
         </is>
       </c>
-      <c r="R16" t="n">
+      <c r="S16" t="n">
         <v>175.6157524059916</v>
       </c>
-      <c r="S16" t="n">
+      <c r="T16" t="n">
         <v>-36.71649447581446</v>
       </c>
-      <c r="T16" t="n">
+      <c r="U16" t="n">
         <v>175.6216433382282</v>
       </c>
-      <c r="U16" t="n">
+      <c r="V16" t="n">
         <v>-36.70969619826958</v>
       </c>
-      <c r="V16" t="n">
+      <c r="W16" t="n">
         <v>175.6186978721099</v>
       </c>
-      <c r="W16" t="n">
+      <c r="X16" t="n">
         <v>-36.71309533704202</v>
       </c>
     </row>
@@ -28033,27 +28053,28 @@
       <c r="P17" t="n">
         <v>330.5698931144763</v>
       </c>
-      <c r="Q17" t="inlineStr">
+      <c r="Q17" t="inlineStr"/>
+      <c r="R17" t="inlineStr">
         <is>
           <t>LINESTRING (175.61663069987196 -36.71699726067892, 175.62213658943864 -36.7099935219445)</t>
         </is>
       </c>
-      <c r="R17" t="n">
+      <c r="S17" t="n">
         <v>175.616630699872</v>
       </c>
-      <c r="S17" t="n">
+      <c r="T17" t="n">
         <v>-36.71699726067892</v>
       </c>
-      <c r="T17" t="n">
+      <c r="U17" t="n">
         <v>175.6221365894386</v>
       </c>
-      <c r="U17" t="n">
+      <c r="V17" t="n">
         <v>-36.7099935219445</v>
       </c>
-      <c r="V17" t="n">
+      <c r="W17" t="n">
         <v>175.6193836446553</v>
       </c>
-      <c r="W17" t="n">
+      <c r="X17" t="n">
         <v>-36.71349539131171</v>
       </c>
     </row>
@@ -28110,27 +28131,28 @@
       <c r="P18" t="n">
         <v>327.5228725549762</v>
       </c>
-      <c r="Q18" t="inlineStr">
+      <c r="Q18" t="inlineStr"/>
+      <c r="R18" t="inlineStr">
         <is>
           <t>LINESTRING (175.61756756223141 -36.71744516445414, 175.6226512988378 -36.71023814195877)</t>
         </is>
       </c>
-      <c r="R18" t="n">
+      <c r="S18" t="n">
         <v>175.6175675622314</v>
       </c>
-      <c r="S18" t="n">
+      <c r="T18" t="n">
         <v>-36.71744516445414</v>
       </c>
-      <c r="T18" t="n">
+      <c r="U18" t="n">
         <v>175.6226512988378</v>
       </c>
-      <c r="U18" t="n">
+      <c r="V18" t="n">
         <v>-36.71023814195877</v>
       </c>
-      <c r="V18" t="n">
+      <c r="W18" t="n">
         <v>175.6201094305346</v>
       </c>
-      <c r="W18" t="n">
+      <c r="X18" t="n">
         <v>-36.71384165320646</v>
       </c>
     </row>
@@ -28187,27 +28209,28 @@
       <c r="P19" t="n">
         <v>326.0512533000767</v>
       </c>
-      <c r="Q19" t="inlineStr">
+      <c r="Q19" t="inlineStr"/>
+      <c r="R19" t="inlineStr">
         <is>
           <t>LINESTRING (175.61835244269628 -36.7178143210007, 175.62341018241008 -36.71059549620671)</t>
         </is>
       </c>
-      <c r="R19" t="n">
+      <c r="S19" t="n">
         <v>175.6183524426963</v>
       </c>
-      <c r="S19" t="n">
+      <c r="T19" t="n">
         <v>-36.7178143210007</v>
       </c>
-      <c r="T19" t="n">
+      <c r="U19" t="n">
         <v>175.6234101824101</v>
       </c>
-      <c r="U19" t="n">
+      <c r="V19" t="n">
         <v>-36.71059549620671</v>
       </c>
-      <c r="V19" t="n">
+      <c r="W19" t="n">
         <v>175.6208813125532</v>
       </c>
-      <c r="W19" t="n">
+      <c r="X19" t="n">
         <v>-36.7142049086037</v>
       </c>
     </row>
@@ -28264,27 +28287,28 @@
       <c r="P20" t="n">
         <v>327.2556230822854</v>
       </c>
-      <c r="Q20" t="inlineStr">
+      <c r="Q20" t="inlineStr"/>
+      <c r="R20" t="inlineStr">
         <is>
           <t>LINESTRING (175.6192382727636 -36.718227594678744, 175.62401175804033 -36.71088476226838)</t>
         </is>
       </c>
-      <c r="R20" t="n">
+      <c r="S20" t="n">
         <v>175.6192382727636</v>
       </c>
-      <c r="S20" t="n">
+      <c r="T20" t="n">
         <v>-36.71822759467874</v>
       </c>
-      <c r="T20" t="n">
+      <c r="U20" t="n">
         <v>175.6240117580403</v>
       </c>
-      <c r="U20" t="n">
+      <c r="V20" t="n">
         <v>-36.71088476226838</v>
       </c>
-      <c r="V20" t="n">
+      <c r="W20" t="n">
         <v>175.6216250154019</v>
       </c>
-      <c r="W20" t="n">
+      <c r="X20" t="n">
         <v>-36.71455617847356</v>
       </c>
     </row>
@@ -28341,27 +28365,28 @@
       <c r="P21" t="n">
         <v>323.0190773944068</v>
       </c>
-      <c r="Q21" t="inlineStr">
+      <c r="Q21" t="inlineStr"/>
+      <c r="R21" t="inlineStr">
         <is>
           <t>LINESTRING (175.62016077491447 -36.71860142119947, 175.624625003708 -36.7111339490397)</t>
         </is>
       </c>
-      <c r="R21" t="n">
+      <c r="S21" t="n">
         <v>175.6201607749145</v>
       </c>
-      <c r="S21" t="n">
+      <c r="T21" t="n">
         <v>-36.71860142119947</v>
       </c>
-      <c r="T21" t="n">
+      <c r="U21" t="n">
         <v>175.624625003708</v>
       </c>
-      <c r="U21" t="n">
+      <c r="V21" t="n">
         <v>-36.7111339490397</v>
       </c>
-      <c r="V21" t="n">
+      <c r="W21" t="n">
         <v>175.6223928893112</v>
       </c>
-      <c r="W21" t="n">
+      <c r="X21" t="n">
         <v>-36.71486768511959</v>
       </c>
     </row>
@@ -28418,27 +28443,28 @@
       <c r="P22" t="n">
         <v>328.3556628412221</v>
       </c>
-      <c r="Q22" t="inlineStr">
+      <c r="Q22" t="inlineStr"/>
+      <c r="R22" t="inlineStr">
         <is>
           <t>LINESTRING (175.6209721928843 -36.718926532572546, 175.62541610523908 -36.71145124331139)</t>
         </is>
       </c>
-      <c r="R22" t="n">
+      <c r="S22" t="n">
         <v>175.6209721928843</v>
       </c>
-      <c r="S22" t="n">
+      <c r="T22" t="n">
         <v>-36.71892653257255</v>
       </c>
-      <c r="T22" t="n">
+      <c r="U22" t="n">
         <v>175.6254161052391</v>
       </c>
-      <c r="U22" t="n">
+      <c r="V22" t="n">
         <v>-36.71145124331139</v>
       </c>
-      <c r="V22" t="n">
+      <c r="W22" t="n">
         <v>175.6231941490617</v>
       </c>
-      <c r="W22" t="n">
+      <c r="X22" t="n">
         <v>-36.71518888794196</v>
       </c>
     </row>

--- a/data/nzd0154/nzd0154.xlsx
+++ b/data/nzd0154/nzd0154.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W330"/>
+  <dimension ref="A1:W333"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23338,6 +23338,225 @@
         </is>
       </c>
     </row>
+    <row r="331">
+      <c r="A331" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-23 22:05:31+00:00</t>
+        </is>
+      </c>
+      <c r="B331" t="n">
+        <v>301.09</v>
+      </c>
+      <c r="C331" t="n">
+        <v>300.7588888888889</v>
+      </c>
+      <c r="D331" t="n">
+        <v>301.9654545454546</v>
+      </c>
+      <c r="E331" t="n">
+        <v>311.7466666666667</v>
+      </c>
+      <c r="F331" t="n">
+        <v>320.4754545454546</v>
+      </c>
+      <c r="G331" t="n">
+        <v>308.615</v>
+      </c>
+      <c r="H331" t="n">
+        <v>305.0744444444445</v>
+      </c>
+      <c r="I331" t="n">
+        <v>311.1052380952381</v>
+      </c>
+      <c r="J331" t="n">
+        <v>320.8647826086956</v>
+      </c>
+      <c r="K331" t="n">
+        <v>329.2952380952381</v>
+      </c>
+      <c r="L331" t="n">
+        <v>329.4852380952381</v>
+      </c>
+      <c r="M331" t="n">
+        <v>335.0864705882353</v>
+      </c>
+      <c r="N331" t="n">
+        <v>337.8442105263158</v>
+      </c>
+      <c r="O331" t="n">
+        <v>338.6644444444445</v>
+      </c>
+      <c r="P331" t="n">
+        <v>338.0344444444444</v>
+      </c>
+      <c r="Q331" t="n">
+        <v>346.2844444444444</v>
+      </c>
+      <c r="R331" t="n">
+        <v>341.375238095238</v>
+      </c>
+      <c r="S331" t="n">
+        <v>339.1864705882353</v>
+      </c>
+      <c r="T331" t="n">
+        <v>339.2044444444444</v>
+      </c>
+      <c r="U331" t="n">
+        <v>340.3733333333333</v>
+      </c>
+      <c r="V331" t="n">
+        <v>338.4533333333334</v>
+      </c>
+      <c r="W331" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-19 22:05:54+00:00</t>
+        </is>
+      </c>
+      <c r="B332" t="n">
+        <v>330.76</v>
+      </c>
+      <c r="C332" t="n">
+        <v>312.6577777777778</v>
+      </c>
+      <c r="D332" t="n">
+        <v>312.9727272727272</v>
+      </c>
+      <c r="E332" t="n">
+        <v>317.9633333333333</v>
+      </c>
+      <c r="F332" t="n">
+        <v>321.3927272727273</v>
+      </c>
+      <c r="G332" t="n">
+        <v>309.03</v>
+      </c>
+      <c r="H332" t="n">
+        <v>302.8188888888889</v>
+      </c>
+      <c r="I332" t="n">
+        <v>307.0447619047619</v>
+      </c>
+      <c r="J332" t="n">
+        <v>319.4413043478261</v>
+      </c>
+      <c r="K332" t="n">
+        <v>324.6847619047619</v>
+      </c>
+      <c r="L332" t="n">
+        <v>329.9347619047619</v>
+      </c>
+      <c r="M332" t="n">
+        <v>336.2441176470588</v>
+      </c>
+      <c r="N332" t="n">
+        <v>338.5263157894737</v>
+      </c>
+      <c r="O332" t="n">
+        <v>333.3388888888889</v>
+      </c>
+      <c r="P332" t="n">
+        <v>339.7588888888889</v>
+      </c>
+      <c r="Q332" t="n">
+        <v>340.0488888888889</v>
+      </c>
+      <c r="R332" t="n">
+        <v>335.5947619047619</v>
+      </c>
+      <c r="S332" t="n">
+        <v>346.0441176470588</v>
+      </c>
+      <c r="T332" t="inlineStr"/>
+      <c r="U332" t="inlineStr"/>
+      <c r="V332" t="inlineStr"/>
+      <c r="W332" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-12 22:05:36+00:00</t>
+        </is>
+      </c>
+      <c r="B333" t="n">
+        <v>307.94</v>
+      </c>
+      <c r="C333" t="n">
+        <v>300.1688888888889</v>
+      </c>
+      <c r="D333" t="n">
+        <v>299.550909090909</v>
+      </c>
+      <c r="E333" t="n">
+        <v>306.2266666666667</v>
+      </c>
+      <c r="F333" t="n">
+        <v>310.2909090909091</v>
+      </c>
+      <c r="G333" t="n">
+        <v>304.725</v>
+      </c>
+      <c r="H333" t="n">
+        <v>300.0444444444445</v>
+      </c>
+      <c r="I333" t="n">
+        <v>305.0938095238095</v>
+      </c>
+      <c r="J333" t="n">
+        <v>313.4252173913044</v>
+      </c>
+      <c r="K333" t="n">
+        <v>322.3538095238095</v>
+      </c>
+      <c r="L333" t="n">
+        <v>323.6238095238095</v>
+      </c>
+      <c r="M333" t="n">
+        <v>329.1917647058823</v>
+      </c>
+      <c r="N333" t="n">
+        <v>331.0236842105263</v>
+      </c>
+      <c r="O333" t="n">
+        <v>331.7744444444444</v>
+      </c>
+      <c r="P333" t="n">
+        <v>330.6244444444445</v>
+      </c>
+      <c r="Q333" t="n">
+        <v>335.5844444444444</v>
+      </c>
+      <c r="R333" t="n">
+        <v>331.8538095238095</v>
+      </c>
+      <c r="S333" t="n">
+        <v>331.4817647058824</v>
+      </c>
+      <c r="T333" t="n">
+        <v>324.9444444444445</v>
+      </c>
+      <c r="U333" t="n">
+        <v>330.1133333333333</v>
+      </c>
+      <c r="V333" t="n">
+        <v>325.9633333333333</v>
+      </c>
+      <c r="W333" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -23349,7 +23568,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B333"/>
+  <dimension ref="A1:B336"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26687,6 +26906,36 @@
       </c>
       <c r="B333" t="n">
         <v>-0.47</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>2025-02-23 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B334" t="n">
+        <v>-0.41</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>2025-03-19 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B335" t="n">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>2025-04-12 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B336" t="n">
+        <v>-0.05</v>
       </c>
     </row>
   </sheetData>
@@ -26860,28 +27109,28 @@
         <v>0.026</v>
       </c>
       <c r="I2" t="n">
-        <v>0.5109530775785421</v>
+        <v>0.5497722951215235</v>
       </c>
       <c r="J2" t="n">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="K2" t="n">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="L2" t="n">
-        <v>0.02451583189252082</v>
+        <v>0.02864201025797641</v>
       </c>
       <c r="M2" t="n">
-        <v>19.1250572695017</v>
+        <v>19.09937525184335</v>
       </c>
       <c r="N2" t="n">
-        <v>551.1920990674561</v>
+        <v>550.1491577637127</v>
       </c>
       <c r="O2" t="n">
-        <v>23.47748067973768</v>
+        <v>23.45525863774929</v>
       </c>
       <c r="P2" t="n">
-        <v>282.5214771051145</v>
+        <v>282.1257152801582</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -26938,28 +27187,28 @@
         <v>0.054</v>
       </c>
       <c r="I3" t="n">
-        <v>0.3578606270864862</v>
+        <v>0.3814950585770024</v>
       </c>
       <c r="J3" t="n">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="K3" t="n">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="L3" t="n">
-        <v>0.02562947257285375</v>
+        <v>0.02949309503328945</v>
       </c>
       <c r="M3" t="n">
-        <v>12.66262197135857</v>
+        <v>12.62862489123667</v>
       </c>
       <c r="N3" t="n">
-        <v>248.5272019197329</v>
+        <v>247.3178999680137</v>
       </c>
       <c r="O3" t="n">
-        <v>15.76474553932708</v>
+        <v>15.72634413867424</v>
       </c>
       <c r="P3" t="n">
-        <v>284.7205719685562</v>
+        <v>284.4735962122575</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -27016,28 +27265,28 @@
         <v>0.0626</v>
       </c>
       <c r="I4" t="n">
-        <v>0.4289928233965624</v>
+        <v>0.4499120761947238</v>
       </c>
       <c r="J4" t="n">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="K4" t="n">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="L4" t="n">
-        <v>0.06397117905005112</v>
+        <v>0.07073070195639919</v>
       </c>
       <c r="M4" t="n">
-        <v>9.584662688630869</v>
+        <v>9.579588737493985</v>
       </c>
       <c r="N4" t="n">
-        <v>140.0680030201194</v>
+        <v>139.9552531820752</v>
       </c>
       <c r="O4" t="n">
-        <v>11.83503286941441</v>
+        <v>11.83026851690507</v>
       </c>
       <c r="P4" t="n">
-        <v>283.8904666200021</v>
+        <v>283.6768643632972</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -27094,28 +27343,28 @@
         <v>0.068</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4466969038923823</v>
+        <v>0.458336152624561</v>
       </c>
       <c r="J5" t="n">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="K5" t="n">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="L5" t="n">
-        <v>0.08060591480040702</v>
+        <v>0.08584723607622802</v>
       </c>
       <c r="M5" t="n">
-        <v>8.873243986694098</v>
+        <v>8.836041893341783</v>
       </c>
       <c r="N5" t="n">
-        <v>120.1491882026291</v>
+        <v>119.415291943094</v>
       </c>
       <c r="O5" t="n">
-        <v>10.96125851363013</v>
+        <v>10.92773041134773</v>
       </c>
       <c r="P5" t="n">
-        <v>294.9641406843974</v>
+        <v>294.845628082956</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -27172,28 +27421,28 @@
         <v>0.2</v>
       </c>
       <c r="I6" t="n">
-        <v>0.338736613251534</v>
+        <v>0.3479860596150828</v>
       </c>
       <c r="J6" t="n">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="K6" t="n">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="L6" t="n">
-        <v>0.05849393408542214</v>
+        <v>0.06254891798457451</v>
       </c>
       <c r="M6" t="n">
-        <v>7.992036309470547</v>
+        <v>7.976259554127057</v>
       </c>
       <c r="N6" t="n">
-        <v>96.98059124059523</v>
+        <v>96.40258021351559</v>
       </c>
       <c r="O6" t="n">
-        <v>9.847872422030823</v>
+        <v>9.818481563536981</v>
       </c>
       <c r="P6" t="n">
-        <v>304.3140508101603</v>
+        <v>304.2200107208363</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -27250,28 +27499,28 @@
         <v>0.0878</v>
       </c>
       <c r="I7" t="n">
-        <v>0.229649690603988</v>
+        <v>0.2364018241399563</v>
       </c>
       <c r="J7" t="n">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="K7" t="n">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="L7" t="n">
-        <v>0.03323350272787229</v>
+        <v>0.03582493089007133</v>
       </c>
       <c r="M7" t="n">
-        <v>7.084343512729765</v>
+        <v>7.043497266152813</v>
       </c>
       <c r="N7" t="n">
-        <v>80.82993049106722</v>
+        <v>80.16846275695286</v>
       </c>
       <c r="O7" t="n">
-        <v>8.990546729263311</v>
+        <v>8.9536843118882</v>
       </c>
       <c r="P7" t="n">
-        <v>298.1760030275304</v>
+        <v>298.108352852253</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -27328,28 +27577,28 @@
         <v>0.0982</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1953450952402053</v>
+        <v>0.1984882580072881</v>
       </c>
       <c r="J8" t="n">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="K8" t="n">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="L8" t="n">
-        <v>0.02371170073632634</v>
+        <v>0.0249874330205736</v>
       </c>
       <c r="M8" t="n">
-        <v>7.052944606023706</v>
+        <v>7.003584748839743</v>
       </c>
       <c r="N8" t="n">
-        <v>81.15546858192404</v>
+        <v>80.39388042326827</v>
       </c>
       <c r="O8" t="n">
-        <v>9.008633002954667</v>
+        <v>8.966263459394234</v>
       </c>
       <c r="P8" t="n">
-        <v>296.1085083250138</v>
+        <v>296.0768385552523</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -27406,28 +27655,28 @@
         <v>0.1193</v>
       </c>
       <c r="I9" t="n">
-        <v>0.2521821031040425</v>
+        <v>0.2558733742027063</v>
       </c>
       <c r="J9" t="n">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="K9" t="n">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="L9" t="n">
-        <v>0.03724933817189569</v>
+        <v>0.03908799626674753</v>
       </c>
       <c r="M9" t="n">
-        <v>7.196396483686489</v>
+        <v>7.146297186764594</v>
       </c>
       <c r="N9" t="n">
-        <v>85.50809158842264</v>
+        <v>84.73813028708329</v>
       </c>
       <c r="O9" t="n">
-        <v>9.247058537092897</v>
+        <v>9.205331622873958</v>
       </c>
       <c r="P9" t="n">
-        <v>299.4561124879604</v>
+        <v>299.4189813547357</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -27484,28 +27733,28 @@
         <v>0.1376</v>
       </c>
       <c r="I10" t="n">
-        <v>0.2030691246829159</v>
+        <v>0.2073151689305311</v>
       </c>
       <c r="J10" t="n">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="K10" t="n">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="L10" t="n">
-        <v>0.02799261644960127</v>
+        <v>0.02971671104246765</v>
       </c>
       <c r="M10" t="n">
-        <v>6.736671790245166</v>
+        <v>6.704885870231695</v>
       </c>
       <c r="N10" t="n">
-        <v>74.77453586094326</v>
+        <v>74.16142309174442</v>
       </c>
       <c r="O10" t="n">
-        <v>8.64722706195132</v>
+        <v>8.611702682498068</v>
       </c>
       <c r="P10" t="n">
-        <v>310.6084233383518</v>
+        <v>310.5657699774201</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -27562,28 +27811,28 @@
         <v>0.1174</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1187846303580683</v>
+        <v>0.124429281438746</v>
       </c>
       <c r="J11" t="n">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="K11" t="n">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="L11" t="n">
-        <v>0.01003049906313147</v>
+        <v>0.01120744863444578</v>
       </c>
       <c r="M11" t="n">
-        <v>6.505355138831351</v>
+        <v>6.466852651021012</v>
       </c>
       <c r="N11" t="n">
-        <v>72.24418566621202</v>
+        <v>71.67641579078833</v>
       </c>
       <c r="O11" t="n">
-        <v>8.49965797348411</v>
+        <v>8.466192520300275</v>
       </c>
       <c r="P11" t="n">
-        <v>319.5802311939785</v>
+        <v>319.5228688000686</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -27640,28 +27889,28 @@
         <v>0.1204</v>
       </c>
       <c r="I12" t="n">
-        <v>0.1927203891440149</v>
+        <v>0.1968539764696833</v>
       </c>
       <c r="J12" t="n">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="K12" t="n">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="L12" t="n">
-        <v>0.02763859242729572</v>
+        <v>0.02935296735758031</v>
       </c>
       <c r="M12" t="n">
-        <v>6.306985453463592</v>
+        <v>6.278967868646653</v>
       </c>
       <c r="N12" t="n">
-        <v>68.24656792829545</v>
+        <v>67.68755635236721</v>
       </c>
       <c r="O12" t="n">
-        <v>8.261148099888747</v>
+        <v>8.22724476069402</v>
       </c>
       <c r="P12" t="n">
-        <v>320.6483133422794</v>
+        <v>320.6065133385507</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -27718,28 +27967,28 @@
         <v>0.0939</v>
       </c>
       <c r="I13" t="n">
-        <v>0.1252868797945809</v>
+        <v>0.1351990893383433</v>
       </c>
       <c r="J13" t="n">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="K13" t="n">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="L13" t="n">
-        <v>0.01026116130806509</v>
+        <v>0.01213042611165127</v>
       </c>
       <c r="M13" t="n">
-        <v>6.960153232086222</v>
+        <v>6.940399889993592</v>
       </c>
       <c r="N13" t="n">
-        <v>79.9455938454291</v>
+        <v>79.48962702199418</v>
       </c>
       <c r="O13" t="n">
-        <v>8.941229996226978</v>
+        <v>8.915695543365878</v>
       </c>
       <c r="P13" t="n">
-        <v>325.25066655375</v>
+        <v>325.1511460951685</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -27796,28 +28045,28 @@
         <v>0.1032</v>
       </c>
       <c r="I14" t="n">
-        <v>0.1991074101760443</v>
+        <v>0.2044517209027781</v>
       </c>
       <c r="J14" t="n">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="K14" t="n">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="L14" t="n">
-        <v>0.02405098016426632</v>
+        <v>0.02581743334274156</v>
       </c>
       <c r="M14" t="n">
-        <v>7.247703350895487</v>
+        <v>7.213071879856817</v>
       </c>
       <c r="N14" t="n">
-        <v>83.75932582175622</v>
+        <v>83.09087808916739</v>
       </c>
       <c r="O14" t="n">
-        <v>9.152012118750511</v>
+        <v>9.115419797747517</v>
       </c>
       <c r="P14" t="n">
-        <v>328.053499893514</v>
+        <v>327.9994794394646</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -27874,28 +28123,28 @@
         <v>0.099</v>
       </c>
       <c r="I15" t="n">
-        <v>0.1800409500612753</v>
+        <v>0.1846601788604423</v>
       </c>
       <c r="J15" t="n">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="K15" t="n">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="L15" t="n">
-        <v>0.01715717882868895</v>
+        <v>0.01839968924729662</v>
       </c>
       <c r="M15" t="n">
-        <v>7.802899036669773</v>
+        <v>7.748054955445534</v>
       </c>
       <c r="N15" t="n">
-        <v>96.84370411659529</v>
+        <v>95.98996243900922</v>
       </c>
       <c r="O15" t="n">
-        <v>9.840919881626681</v>
+        <v>9.797446730603296</v>
       </c>
       <c r="P15" t="n">
-        <v>327.7001529984601</v>
+        <v>327.6534742907626</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -27952,28 +28201,28 @@
         <v>0.1029</v>
       </c>
       <c r="I16" t="n">
-        <v>0.09467336683606285</v>
+        <v>0.1038190392117629</v>
       </c>
       <c r="J16" t="n">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="K16" t="n">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="L16" t="n">
-        <v>0.005021763633479615</v>
+        <v>0.006139217201103997</v>
       </c>
       <c r="M16" t="n">
-        <v>7.393450445693915</v>
+        <v>7.367098864517365</v>
       </c>
       <c r="N16" t="n">
-        <v>92.02317363068114</v>
+        <v>91.45242196414497</v>
       </c>
       <c r="O16" t="n">
-        <v>9.592870979570252</v>
+        <v>9.563075967707512</v>
       </c>
       <c r="P16" t="n">
-        <v>329.1683303940489</v>
+        <v>329.0751680550101</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -28030,28 +28279,28 @@
         <v>0.1031</v>
       </c>
       <c r="I17" t="n">
-        <v>0.1609729692449963</v>
+        <v>0.1730857408805972</v>
       </c>
       <c r="J17" t="n">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="K17" t="n">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="L17" t="n">
-        <v>0.0115135219693554</v>
+        <v>0.01351263305483241</v>
       </c>
       <c r="M17" t="n">
-        <v>8.510379191768024</v>
+        <v>8.482394926446489</v>
       </c>
       <c r="N17" t="n">
-        <v>114.7658534668608</v>
+        <v>114.13827939163</v>
       </c>
       <c r="O17" t="n">
-        <v>10.71288259372149</v>
+        <v>10.68355181536693</v>
       </c>
       <c r="P17" t="n">
-        <v>330.5698931144763</v>
+        <v>330.4461800986071</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -28108,28 +28357,28 @@
         <v>0.1249</v>
       </c>
       <c r="I18" t="n">
-        <v>0.1867472710531402</v>
+        <v>0.1949287486663196</v>
       </c>
       <c r="J18" t="n">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="K18" t="n">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="L18" t="n">
-        <v>0.01692565488236353</v>
+        <v>0.01876847786163749</v>
       </c>
       <c r="M18" t="n">
-        <v>7.924457374262416</v>
+        <v>7.886918501092379</v>
       </c>
       <c r="N18" t="n">
-        <v>104.1403328843615</v>
+        <v>103.3897426772429</v>
       </c>
       <c r="O18" t="n">
-        <v>10.2049170934585</v>
+        <v>10.16807467897649</v>
       </c>
       <c r="P18" t="n">
-        <v>327.5228725549762</v>
+        <v>327.4399318048171</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
@@ -28186,28 +28435,28 @@
         <v>0.0973</v>
       </c>
       <c r="I19" t="n">
-        <v>0.1934696733689797</v>
+        <v>0.2098093279809096</v>
       </c>
       <c r="J19" t="n">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="K19" t="n">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="L19" t="n">
-        <v>0.01351873126321956</v>
+        <v>0.01610319041625519</v>
       </c>
       <c r="M19" t="n">
-        <v>9.554263722264533</v>
+        <v>9.52358178527793</v>
       </c>
       <c r="N19" t="n">
-        <v>140.1713829560918</v>
+        <v>139.7171004840061</v>
       </c>
       <c r="O19" t="n">
-        <v>11.83939960285537</v>
+        <v>11.82019883436848</v>
       </c>
       <c r="P19" t="n">
-        <v>326.0512533000767</v>
+        <v>325.8849799165695</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">
@@ -28264,28 +28513,28 @@
         <v>0.1034</v>
       </c>
       <c r="I20" t="n">
-        <v>0.185001985525943</v>
+        <v>0.1850371648160574</v>
       </c>
       <c r="J20" t="n">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="K20" t="n">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="L20" t="n">
-        <v>0.01314306363734152</v>
+        <v>0.01330761934147462</v>
       </c>
       <c r="M20" t="n">
-        <v>9.331538358470555</v>
+        <v>9.316359624522171</v>
       </c>
       <c r="N20" t="n">
-        <v>133.1986251410259</v>
+        <v>132.6298818842637</v>
       </c>
       <c r="O20" t="n">
-        <v>11.54117087392028</v>
+        <v>11.51650475987674</v>
       </c>
       <c r="P20" t="n">
-        <v>327.2556230822854</v>
+        <v>327.2555734589648</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr">
@@ -28342,28 +28591,28 @@
         <v>0.08309999999999999</v>
       </c>
       <c r="I21" t="n">
-        <v>0.3091722520420929</v>
+        <v>0.3152666090556511</v>
       </c>
       <c r="J21" t="n">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="K21" t="n">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="L21" t="n">
-        <v>0.02623120731624606</v>
+        <v>0.02760982639756038</v>
       </c>
       <c r="M21" t="n">
-        <v>10.40604237664323</v>
+        <v>10.36532625358707</v>
       </c>
       <c r="N21" t="n">
-        <v>183.8027063761971</v>
+        <v>182.8147927725009</v>
       </c>
       <c r="O21" t="n">
-        <v>13.55738567630932</v>
+        <v>13.5209020694812</v>
       </c>
       <c r="P21" t="n">
-        <v>323.0190773944068</v>
+        <v>322.9573108701773</v>
       </c>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr">
@@ -28420,28 +28669,28 @@
         <v>0.0873</v>
       </c>
       <c r="I22" t="n">
-        <v>0.2299624707719021</v>
+        <v>0.2266496185117271</v>
       </c>
       <c r="J22" t="n">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="K22" t="n">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="L22" t="n">
-        <v>0.01811026630196755</v>
+        <v>0.01785524674744177</v>
       </c>
       <c r="M22" t="n">
-        <v>9.48869104505968</v>
+        <v>9.464322007733779</v>
       </c>
       <c r="N22" t="n">
-        <v>147.4178422825933</v>
+        <v>146.6011368741803</v>
       </c>
       <c r="O22" t="n">
-        <v>12.14157495066407</v>
+        <v>12.10789564186033</v>
       </c>
       <c r="P22" t="n">
-        <v>328.3556628412221</v>
+        <v>328.3898805312721</v>
       </c>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr">
@@ -28479,7 +28728,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W330"/>
+  <dimension ref="A1:W333"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -63317,6 +63566,345 @@
         </is>
       </c>
     </row>
+    <row r="331">
+      <c r="A331" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-23 22:05:31+00:00</t>
+        </is>
+      </c>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>-36.70684638452596,175.6089868963893</t>
+        </is>
+      </c>
+      <c r="C331" t="inlineStr">
+        <is>
+          <t>-36.70743726628085,175.60950059961445</t>
+        </is>
+      </c>
+      <c r="D331" t="inlineStr">
+        <is>
+          <t>-36.708019983830326,175.61002820613436</t>
+        </is>
+      </c>
+      <c r="E331" t="inlineStr">
+        <is>
+          <t>-36.70855719504545,175.61063334303702</t>
+        </is>
+      </c>
+      <c r="F331" t="inlineStr">
+        <is>
+          <t>-36.70910903648894,175.61123727503255</t>
+        </is>
+      </c>
+      <c r="G331" t="inlineStr">
+        <is>
+          <t>-36.709754952125294,175.611712925914</t>
+        </is>
+      </c>
+      <c r="H331" t="inlineStr">
+        <is>
+          <t>-36.71032586408611,175.61228329745555</t>
+        </is>
+      </c>
+      <c r="I331" t="inlineStr">
+        <is>
+          <t>-36.71083135854566,175.6129248679058</t>
+        </is>
+      </c>
+      <c r="J331" t="inlineStr">
+        <is>
+          <t>-36.711321716036316,175.613605801024</t>
+        </is>
+      </c>
+      <c r="K331" t="inlineStr">
+        <is>
+          <t>-36.711795951750375,175.6143187389839</t>
+        </is>
+      </c>
+      <c r="L331" t="inlineStr">
+        <is>
+          <t>-36.71227212791178,175.6150119541113</t>
+        </is>
+      </c>
+      <c r="M331" t="inlineStr">
+        <is>
+          <t>-36.71270428618886,175.61573481726487</t>
+        </is>
+      </c>
+      <c r="N331" t="inlineStr">
+        <is>
+          <t>-36.71315021088234,175.61645315099005</t>
+        </is>
+      </c>
+      <c r="O331" t="inlineStr">
+        <is>
+          <t>-36.71357024162421,175.61719291914176</t>
+        </is>
+      </c>
+      <c r="P331" t="inlineStr">
+        <is>
+          <t>-36.713996965646295,175.61791672566068</t>
+        </is>
+      </c>
+      <c r="Q331" t="inlineStr">
+        <is>
+          <t>-36.71436129812724,175.61870305959448</t>
+        </is>
+      </c>
+      <c r="R331" t="inlineStr">
+        <is>
+          <t>-36.71477096731468,175.6194540280129</t>
+        </is>
+      </c>
+      <c r="S331" t="inlineStr">
+        <is>
+          <t>-36.71515290421318,175.62021723860428</t>
+        </is>
+      </c>
+      <c r="T331" t="inlineStr">
+        <is>
+          <t>-36.71552020007858,175.62099843142553</t>
+        </is>
+      </c>
+      <c r="U331" t="inlineStr">
+        <is>
+          <t>-36.71583846232174,175.62181264283836</t>
+        </is>
+      </c>
+      <c r="V331" t="inlineStr">
+        <is>
+          <t>-36.716176272169356,175.62260727454392</t>
+        </is>
+      </c>
+      <c r="W331" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-19 22:05:54+00:00</t>
+        </is>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>-36.70668894145961,175.60925516274042</t>
+        </is>
+      </c>
+      <c r="C332" t="inlineStr">
+        <is>
+          <t>-36.70737412490498,175.6096081860748</t>
+        </is>
+      </c>
+      <c r="D332" t="inlineStr">
+        <is>
+          <t>-36.707961573518794,175.6101277312946</t>
+        </is>
+      </c>
+      <c r="E332" t="inlineStr">
+        <is>
+          <t>-36.70852420598939,175.6106895528688</t>
+        </is>
+      </c>
+      <c r="F332" t="inlineStr">
+        <is>
+          <t>-36.709103961572005,175.61124537488683</t>
+        </is>
+      </c>
+      <c r="G332" t="inlineStr">
+        <is>
+          <t>-36.709752502930996,175.61171643424782</t>
+        </is>
+      </c>
+      <c r="H332" t="inlineStr">
+        <is>
+          <t>-36.710339503235815,175.61226458981156</t>
+        </is>
+      </c>
+      <c r="I332" t="inlineStr">
+        <is>
+          <t>-36.71085591201306,175.61289119012912</t>
+        </is>
+      </c>
+      <c r="J332" t="inlineStr">
+        <is>
+          <t>-36.71133058998787,175.6135943026777</t>
+        </is>
+      </c>
+      <c r="K332" t="inlineStr">
+        <is>
+          <t>-36.711826742684025,175.61428411584384</t>
+        </is>
+      </c>
+      <c r="L332" t="inlineStr">
+        <is>
+          <t>-36.71226901362539,175.61501516934135</t>
+        </is>
+      </c>
+      <c r="M332" t="inlineStr">
+        <is>
+          <t>-36.712696208286594,175.61574301032266</t>
+        </is>
+      </c>
+      <c r="N332" t="inlineStr">
+        <is>
+          <t>-36.7131452916256,175.61645772498625</t>
+        </is>
+      </c>
+      <c r="O332" t="inlineStr">
+        <is>
+          <t>-36.71360958873415,175.61715882241253</t>
+        </is>
+      </c>
+      <c r="P332" t="inlineStr">
+        <is>
+          <t>-36.713984224791794,175.61792776633922</t>
+        </is>
+      </c>
+      <c r="Q332" t="inlineStr">
+        <is>
+          <t>-36.714408764271894,175.6186657437681</t>
+        </is>
+      </c>
+      <c r="R332" t="inlineStr">
+        <is>
+          <t>-36.71481624946912,175.6194220857154</t>
+        </is>
+      </c>
+      <c r="S332" t="inlineStr">
+        <is>
+          <t>-36.71509909562478,175.62025493962145</t>
+        </is>
+      </c>
+      <c r="T332" t="inlineStr"/>
+      <c r="U332" t="inlineStr"/>
+      <c r="V332" t="inlineStr"/>
+      <c r="W332" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-12 22:05:36+00:00</t>
+        </is>
+      </c>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>-36.70681003523326,175.60904883192813</t>
+        </is>
+      </c>
+      <c r="C333" t="inlineStr">
+        <is>
+          <t>-36.70744039710961,175.60949526499306</t>
+        </is>
+      </c>
+      <c r="D333" t="inlineStr">
+        <is>
+          <t>-36.70803279665336,175.61000637436416</t>
+        </is>
+      </c>
+      <c r="E333" t="inlineStr">
+        <is>
+          <t>-36.7085864871838,175.61058343228214</t>
+        </is>
+      </c>
+      <c r="F333" t="inlineStr">
+        <is>
+          <t>-36.70916538362429,175.61114734169178</t>
+        </is>
+      </c>
+      <c r="G333" t="inlineStr">
+        <is>
+          <t>-36.709777909628734,175.61168004055702</t>
+        </is>
+      </c>
+      <c r="H333" t="inlineStr">
+        <is>
+          <t>-36.71035628005809,175.61224157847877</t>
+        </is>
+      </c>
+      <c r="I333" t="inlineStr">
+        <is>
+          <t>-36.710867709307465,175.61287500883248</t>
+        </is>
+      </c>
+      <c r="J333" t="inlineStr">
+        <is>
+          <t>-36.711368094212204,175.6135457068581</t>
+        </is>
+      </c>
+      <c r="K333" t="inlineStr">
+        <is>
+          <t>-36.711842309879486,175.61426661115763</t>
+        </is>
+      </c>
+      <c r="L333" t="inlineStr">
+        <is>
+          <t>-36.7123127356921,175.6149700300764</t>
+        </is>
+      </c>
+      <c r="M333" t="inlineStr">
+        <is>
+          <t>-36.71274541862944,175.61569309842136</t>
+        </is>
+      </c>
+      <c r="N333" t="inlineStr">
+        <is>
+          <t>-36.71319939964548,175.61640741452567</t>
+        </is>
+      </c>
+      <c r="O333" t="inlineStr">
+        <is>
+          <t>-36.71362114740783,175.61714880609168</t>
+        </is>
+      </c>
+      <c r="P333" t="inlineStr">
+        <is>
+          <t>-36.714051713547555,175.6178692834257</t>
+        </is>
+      </c>
+      <c r="Q333" t="inlineStr">
+        <is>
+          <t>-36.71444274840124,175.61863902688552</t>
+        </is>
+      </c>
+      <c r="R333" t="inlineStr">
+        <is>
+          <t>-36.71484555472963,175.61940141359042</t>
+        </is>
+      </c>
+      <c r="S333" t="inlineStr">
+        <is>
+          <t>-36.71521335924385,175.6201748806841</t>
+        </is>
+      </c>
+      <c r="T333" t="inlineStr">
+        <is>
+          <t>-36.715634018159825,175.6209244375645</t>
+        </is>
+      </c>
+      <c r="U333" t="inlineStr">
+        <is>
+          <t>-36.71592174750255,175.62176285163264</t>
+        </is>
+      </c>
+      <c r="V333" t="inlineStr">
+        <is>
+          <t>-36.716277765826796,175.62254693684378</t>
+        </is>
+      </c>
+      <c r="W333" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0154/nzd0154.xlsx
+++ b/data/nzd0154/nzd0154.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W333"/>
+  <dimension ref="A1:W334"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23557,6 +23557,81 @@
         </is>
       </c>
     </row>
+    <row r="334">
+      <c r="A334" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-14 22:05:26+00:00</t>
+        </is>
+      </c>
+      <c r="B334" t="n">
+        <v>296.61</v>
+      </c>
+      <c r="C334" t="n">
+        <v>290.6177777777777</v>
+      </c>
+      <c r="D334" t="n">
+        <v>294.9136363636364</v>
+      </c>
+      <c r="E334" t="n">
+        <v>305.4933333333333</v>
+      </c>
+      <c r="F334" t="n">
+        <v>309.5836363636364</v>
+      </c>
+      <c r="G334" t="n">
+        <v>298.885</v>
+      </c>
+      <c r="H334" t="n">
+        <v>297.1288888888889</v>
+      </c>
+      <c r="I334" t="n">
+        <v>294.7933333333333</v>
+      </c>
+      <c r="J334" t="n">
+        <v>307.7834782608696</v>
+      </c>
+      <c r="K334" t="n">
+        <v>315.8133333333333</v>
+      </c>
+      <c r="L334" t="n">
+        <v>315.5933333333333</v>
+      </c>
+      <c r="M334" t="n">
+        <v>321.0676470588235</v>
+      </c>
+      <c r="N334" t="n">
+        <v>330.0642105263158</v>
+      </c>
+      <c r="O334" t="n">
+        <v>325.4988888888889</v>
+      </c>
+      <c r="P334" t="n">
+        <v>328.2588888888889</v>
+      </c>
+      <c r="Q334" t="n">
+        <v>331.5588888888889</v>
+      </c>
+      <c r="R334" t="n">
+        <v>327.4333333333333</v>
+      </c>
+      <c r="S334" t="n">
+        <v>325.8276470588235</v>
+      </c>
+      <c r="T334" t="n">
+        <v>321.1888888888889</v>
+      </c>
+      <c r="U334" t="n">
+        <v>321.0966666666667</v>
+      </c>
+      <c r="V334" t="n">
+        <v>326.8066666666667</v>
+      </c>
+      <c r="W334" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -23568,7 +23643,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B336"/>
+  <dimension ref="A1:B337"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26936,6 +27011,16 @@
       </c>
       <c r="B336" t="n">
         <v>-0.05</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>2025-05-14 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B337" t="n">
+        <v>0.35</v>
       </c>
     </row>
   </sheetData>
@@ -27109,28 +27194,28 @@
         <v>0.026</v>
       </c>
       <c r="I2" t="n">
-        <v>0.5497722951215235</v>
+        <v>0.5499837411914972</v>
       </c>
       <c r="J2" t="n">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="K2" t="n">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="L2" t="n">
-        <v>0.02864201025797641</v>
+        <v>0.02887788838978145</v>
       </c>
       <c r="M2" t="n">
-        <v>19.09937525184335</v>
+        <v>19.02724737076433</v>
       </c>
       <c r="N2" t="n">
-        <v>550.1491577637127</v>
+        <v>548.0416191924592</v>
       </c>
       <c r="O2" t="n">
-        <v>23.45525863774929</v>
+        <v>23.41028874645631</v>
       </c>
       <c r="P2" t="n">
-        <v>282.1257152801582</v>
+        <v>282.1235441392143</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -27187,28 +27272,28 @@
         <v>0.054</v>
       </c>
       <c r="I3" t="n">
-        <v>0.3814950585770024</v>
+        <v>0.3787350543236429</v>
       </c>
       <c r="J3" t="n">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="K3" t="n">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="L3" t="n">
-        <v>0.02949309503328945</v>
+        <v>0.0292917556003871</v>
       </c>
       <c r="M3" t="n">
-        <v>12.62862489123667</v>
+        <v>12.59592978180666</v>
       </c>
       <c r="N3" t="n">
-        <v>247.3178999680137</v>
+        <v>246.4358992579569</v>
       </c>
       <c r="O3" t="n">
-        <v>15.72634413867424</v>
+        <v>15.69827695188096</v>
       </c>
       <c r="P3" t="n">
-        <v>284.4735962122575</v>
+        <v>284.5026500829824</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -27265,28 +27350,28 @@
         <v>0.0626</v>
       </c>
       <c r="I4" t="n">
-        <v>0.4499120761947238</v>
+        <v>0.4496429870200325</v>
       </c>
       <c r="J4" t="n">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="K4" t="n">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="L4" t="n">
-        <v>0.07073070195639919</v>
+        <v>0.07114370281257265</v>
       </c>
       <c r="M4" t="n">
-        <v>9.579588737493985</v>
+        <v>9.547058265205166</v>
       </c>
       <c r="N4" t="n">
-        <v>139.9552531820752</v>
+        <v>139.4594683863694</v>
       </c>
       <c r="O4" t="n">
-        <v>11.83026851690507</v>
+        <v>11.80929584633942</v>
       </c>
       <c r="P4" t="n">
-        <v>283.6768643632972</v>
+        <v>283.679632501811</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -27343,28 +27428,28 @@
         <v>0.068</v>
       </c>
       <c r="I5" t="n">
-        <v>0.458336152624561</v>
+        <v>0.4575003646804099</v>
       </c>
       <c r="J5" t="n">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="K5" t="n">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="L5" t="n">
-        <v>0.08584723607622802</v>
+        <v>0.08613642116710796</v>
       </c>
       <c r="M5" t="n">
-        <v>8.836041893341783</v>
+        <v>8.808412829216593</v>
       </c>
       <c r="N5" t="n">
-        <v>119.415291943094</v>
+        <v>118.9876862777351</v>
       </c>
       <c r="O5" t="n">
-        <v>10.92773041134773</v>
+        <v>10.90814770149979</v>
       </c>
       <c r="P5" t="n">
-        <v>294.845628082956</v>
+        <v>294.854211187648</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -27421,28 +27506,28 @@
         <v>0.2</v>
       </c>
       <c r="I6" t="n">
-        <v>0.3479860596150828</v>
+        <v>0.3454123311380409</v>
       </c>
       <c r="J6" t="n">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="K6" t="n">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="L6" t="n">
-        <v>0.06254891798457451</v>
+        <v>0.06209003137773539</v>
       </c>
       <c r="M6" t="n">
-        <v>7.976259554127057</v>
+        <v>7.959143742069244</v>
       </c>
       <c r="N6" t="n">
-        <v>96.40258021351559</v>
+        <v>96.10031692179106</v>
       </c>
       <c r="O6" t="n">
-        <v>9.818481563536981</v>
+        <v>9.803076910939293</v>
       </c>
       <c r="P6" t="n">
-        <v>304.2200107208363</v>
+        <v>304.2464370105919</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -27499,28 +27584,28 @@
         <v>0.0878</v>
       </c>
       <c r="I7" t="n">
-        <v>0.2364018241399563</v>
+        <v>0.2328378617625133</v>
       </c>
       <c r="J7" t="n">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="K7" t="n">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="L7" t="n">
-        <v>0.03582493089007133</v>
+        <v>0.03499430179714613</v>
       </c>
       <c r="M7" t="n">
-        <v>7.043497266152813</v>
+        <v>7.039456249562588</v>
       </c>
       <c r="N7" t="n">
-        <v>80.16846275695286</v>
+        <v>79.99486665812296</v>
       </c>
       <c r="O7" t="n">
-        <v>8.9536843118882</v>
+        <v>8.943984942860926</v>
       </c>
       <c r="P7" t="n">
-        <v>298.108352852253</v>
+        <v>298.1443578467718</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -27577,28 +27662,28 @@
         <v>0.0982</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1984882580072881</v>
+        <v>0.1956569392352718</v>
       </c>
       <c r="J8" t="n">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="K8" t="n">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0249874330205736</v>
+        <v>0.02445960802744884</v>
       </c>
       <c r="M8" t="n">
-        <v>7.003584748839743</v>
+        <v>6.993811560743551</v>
       </c>
       <c r="N8" t="n">
-        <v>80.39388042326827</v>
+        <v>80.17699854306187</v>
       </c>
       <c r="O8" t="n">
-        <v>8.966263459394234</v>
+        <v>8.954160962539252</v>
       </c>
       <c r="P8" t="n">
-        <v>296.0768385552523</v>
+        <v>296.1056591207248</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -27655,28 +27740,28 @@
         <v>0.1193</v>
       </c>
       <c r="I9" t="n">
-        <v>0.2558733742027063</v>
+        <v>0.2481920988644602</v>
       </c>
       <c r="J9" t="n">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="K9" t="n">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="L9" t="n">
-        <v>0.03908799626674753</v>
+        <v>0.03694791591950453</v>
       </c>
       <c r="M9" t="n">
-        <v>7.146297186764594</v>
+        <v>7.162416545874088</v>
       </c>
       <c r="N9" t="n">
-        <v>84.73813028708329</v>
+        <v>84.87312967797303</v>
       </c>
       <c r="O9" t="n">
-        <v>9.205331622873958</v>
+        <v>9.212661378666484</v>
       </c>
       <c r="P9" t="n">
-        <v>299.4189813547357</v>
+        <v>299.4970536815076</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -27733,28 +27818,28 @@
         <v>0.1376</v>
       </c>
       <c r="I10" t="n">
-        <v>0.2073151689305311</v>
+        <v>0.2017426510904656</v>
       </c>
       <c r="J10" t="n">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="K10" t="n">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="L10" t="n">
-        <v>0.02971671104246765</v>
+        <v>0.02830573663483305</v>
       </c>
       <c r="M10" t="n">
-        <v>6.704885870231695</v>
+        <v>6.710444190602168</v>
       </c>
       <c r="N10" t="n">
-        <v>74.16142309174442</v>
+        <v>74.13200148336728</v>
       </c>
       <c r="O10" t="n">
-        <v>8.611702682498068</v>
+        <v>8.609994278939288</v>
       </c>
       <c r="P10" t="n">
-        <v>310.5657699774201</v>
+        <v>310.6223506959502</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -27811,28 +27896,28 @@
         <v>0.1174</v>
       </c>
       <c r="I11" t="n">
-        <v>0.124429281438746</v>
+        <v>0.1197597726345217</v>
       </c>
       <c r="J11" t="n">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="K11" t="n">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="L11" t="n">
-        <v>0.01120744863444578</v>
+        <v>0.01044182765887403</v>
       </c>
       <c r="M11" t="n">
-        <v>6.466852651021012</v>
+        <v>6.470679777138576</v>
       </c>
       <c r="N11" t="n">
-        <v>71.67641579078833</v>
+        <v>71.59502186076014</v>
       </c>
       <c r="O11" t="n">
-        <v>8.466192520300275</v>
+        <v>8.461384157498118</v>
       </c>
       <c r="P11" t="n">
-        <v>319.5228688000686</v>
+        <v>319.5707808979089</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -27889,28 +27974,28 @@
         <v>0.1204</v>
       </c>
       <c r="I12" t="n">
-        <v>0.1968539764696833</v>
+        <v>0.1901176119472613</v>
       </c>
       <c r="J12" t="n">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="K12" t="n">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="L12" t="n">
-        <v>0.02935296735758031</v>
+        <v>0.02749020728267149</v>
       </c>
       <c r="M12" t="n">
-        <v>6.278967868646653</v>
+        <v>6.289746189867772</v>
       </c>
       <c r="N12" t="n">
-        <v>67.68755635236721</v>
+        <v>67.79819823673922</v>
       </c>
       <c r="O12" t="n">
-        <v>8.22724476069402</v>
+        <v>8.233966130410012</v>
       </c>
       <c r="P12" t="n">
-        <v>320.6065133385507</v>
+        <v>320.6753224209244</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -27967,28 +28052,28 @@
         <v>0.0939</v>
       </c>
       <c r="I13" t="n">
-        <v>0.1351990893383433</v>
+        <v>0.1302018681365247</v>
       </c>
       <c r="J13" t="n">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="K13" t="n">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="L13" t="n">
-        <v>0.01213042611165127</v>
+        <v>0.0113128899802929</v>
       </c>
       <c r="M13" t="n">
-        <v>6.940399889993592</v>
+        <v>6.942543608488105</v>
       </c>
       <c r="N13" t="n">
-        <v>79.48962702199418</v>
+        <v>79.41444072157756</v>
       </c>
       <c r="O13" t="n">
-        <v>8.915695543365878</v>
+        <v>8.911478032379229</v>
       </c>
       <c r="P13" t="n">
-        <v>325.1511460951685</v>
+        <v>325.2017422780737</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -28045,28 +28130,28 @@
         <v>0.1032</v>
       </c>
       <c r="I14" t="n">
-        <v>0.2044517209027781</v>
+        <v>0.2022569645555162</v>
       </c>
       <c r="J14" t="n">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="K14" t="n">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="L14" t="n">
-        <v>0.02581743334274156</v>
+        <v>0.0254507387794104</v>
       </c>
       <c r="M14" t="n">
-        <v>7.213071879856817</v>
+        <v>7.200291443855019</v>
       </c>
       <c r="N14" t="n">
-        <v>83.09087808916739</v>
+        <v>82.84387664707003</v>
       </c>
       <c r="O14" t="n">
-        <v>9.115419797747517</v>
+        <v>9.101861163908733</v>
       </c>
       <c r="P14" t="n">
-        <v>327.9994794394646</v>
+        <v>328.0218812215919</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -28123,28 +28208,28 @@
         <v>0.099</v>
       </c>
       <c r="I15" t="n">
-        <v>0.1846601788604423</v>
+        <v>0.1799182109930582</v>
       </c>
       <c r="J15" t="n">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="K15" t="n">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="L15" t="n">
-        <v>0.01839968924729662</v>
+        <v>0.01758034502671901</v>
       </c>
       <c r="M15" t="n">
-        <v>7.748054955445534</v>
+        <v>7.746856459151336</v>
       </c>
       <c r="N15" t="n">
-        <v>95.98996243900922</v>
+        <v>95.82418537127597</v>
       </c>
       <c r="O15" t="n">
-        <v>9.797446730603296</v>
+        <v>9.788982856828179</v>
       </c>
       <c r="P15" t="n">
-        <v>327.6534742907626</v>
+        <v>327.7018872511691</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -28201,28 +28286,28 @@
         <v>0.1029</v>
       </c>
       <c r="I16" t="n">
-        <v>0.1038190392117629</v>
+        <v>0.1014535280931134</v>
       </c>
       <c r="J16" t="n">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="K16" t="n">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="L16" t="n">
-        <v>0.006139217201103997</v>
+        <v>0.005903758042038687</v>
       </c>
       <c r="M16" t="n">
-        <v>7.367098864517365</v>
+        <v>7.35481065161475</v>
       </c>
       <c r="N16" t="n">
-        <v>91.45242196414497</v>
+        <v>91.18524907532253</v>
       </c>
       <c r="O16" t="n">
-        <v>9.563075967707512</v>
+        <v>9.549096767512754</v>
       </c>
       <c r="P16" t="n">
-        <v>329.0751680550101</v>
+        <v>329.0994765918257</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -28279,28 +28364,28 @@
         <v>0.1031</v>
       </c>
       <c r="I17" t="n">
-        <v>0.1730857408805972</v>
+        <v>0.1707852207337138</v>
       </c>
       <c r="J17" t="n">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="K17" t="n">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="L17" t="n">
-        <v>0.01351263305483241</v>
+        <v>0.01325110279105712</v>
       </c>
       <c r="M17" t="n">
-        <v>8.482394926446489</v>
+        <v>8.465082556968571</v>
       </c>
       <c r="N17" t="n">
-        <v>114.13827939163</v>
+        <v>113.7879767441209</v>
       </c>
       <c r="O17" t="n">
-        <v>10.68355181536693</v>
+        <v>10.66714473250086</v>
       </c>
       <c r="P17" t="n">
-        <v>330.4461800986071</v>
+        <v>330.4698865626629</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -28357,28 +28442,28 @@
         <v>0.1249</v>
       </c>
       <c r="I18" t="n">
-        <v>0.1949287486663196</v>
+        <v>0.1914262223135969</v>
       </c>
       <c r="J18" t="n">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="K18" t="n">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="L18" t="n">
-        <v>0.01876847786163749</v>
+        <v>0.01823119857518873</v>
       </c>
       <c r="M18" t="n">
-        <v>7.886918501092379</v>
+        <v>7.877132399903899</v>
       </c>
       <c r="N18" t="n">
-        <v>103.3897426772429</v>
+        <v>103.1244541071616</v>
       </c>
       <c r="O18" t="n">
-        <v>10.16807467897649</v>
+        <v>10.15502112785402</v>
       </c>
       <c r="P18" t="n">
-        <v>327.4399318048171</v>
+        <v>327.4757706770458</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
@@ -28435,28 +28520,28 @@
         <v>0.0973</v>
       </c>
       <c r="I19" t="n">
-        <v>0.2098093279809096</v>
+        <v>0.2060068600928373</v>
       </c>
       <c r="J19" t="n">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="K19" t="n">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="L19" t="n">
-        <v>0.01610319041625519</v>
+        <v>0.01563737480847283</v>
       </c>
       <c r="M19" t="n">
-        <v>9.52358178527793</v>
+        <v>9.512578901486048</v>
       </c>
       <c r="N19" t="n">
-        <v>139.7171004840061</v>
+        <v>139.3440088898218</v>
       </c>
       <c r="O19" t="n">
-        <v>11.82019883436848</v>
+        <v>11.804406333646</v>
       </c>
       <c r="P19" t="n">
-        <v>325.8849799165695</v>
+        <v>325.9239793614228</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">
@@ -28513,28 +28598,28 @@
         <v>0.1034</v>
       </c>
       <c r="I20" t="n">
-        <v>0.1850371648160574</v>
+        <v>0.177448826296663</v>
       </c>
       <c r="J20" t="n">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="K20" t="n">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="L20" t="n">
-        <v>0.01330761934147462</v>
+        <v>0.01230584066071749</v>
       </c>
       <c r="M20" t="n">
-        <v>9.316359624522171</v>
+        <v>9.323621857067687</v>
       </c>
       <c r="N20" t="n">
-        <v>132.6298818842637</v>
+        <v>132.5736820933662</v>
       </c>
       <c r="O20" t="n">
-        <v>11.51650475987674</v>
+        <v>11.51406453401084</v>
       </c>
       <c r="P20" t="n">
-        <v>327.2555734589648</v>
+        <v>327.3333614138731</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr">
@@ -28591,28 +28676,28 @@
         <v>0.08309999999999999</v>
       </c>
       <c r="I21" t="n">
-        <v>0.3152666090556511</v>
+        <v>0.3080821803321048</v>
       </c>
       <c r="J21" t="n">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="K21" t="n">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="L21" t="n">
-        <v>0.02760982639756038</v>
+        <v>0.02654805499385959</v>
       </c>
       <c r="M21" t="n">
-        <v>10.36532625358707</v>
+        <v>10.36773434538537</v>
       </c>
       <c r="N21" t="n">
-        <v>182.8147927725009</v>
+        <v>182.5183394634981</v>
       </c>
       <c r="O21" t="n">
-        <v>13.5209020694812</v>
+        <v>13.50993484305154</v>
       </c>
       <c r="P21" t="n">
-        <v>322.9573108701773</v>
+        <v>323.0309035271886</v>
       </c>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr">
@@ -28669,28 +28754,28 @@
         <v>0.0873</v>
       </c>
       <c r="I22" t="n">
-        <v>0.2266496185117271</v>
+        <v>0.2207428851375462</v>
       </c>
       <c r="J22" t="n">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="K22" t="n">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="L22" t="n">
-        <v>0.01785524674744177</v>
+        <v>0.01706980860011531</v>
       </c>
       <c r="M22" t="n">
-        <v>9.464322007733779</v>
+        <v>9.457832905768591</v>
       </c>
       <c r="N22" t="n">
-        <v>146.6011368741803</v>
+        <v>146.2418111903369</v>
       </c>
       <c r="O22" t="n">
-        <v>12.10789564186033</v>
+        <v>12.09304805209741</v>
       </c>
       <c r="P22" t="n">
-        <v>328.3898805312721</v>
+        <v>328.4507623882105</v>
       </c>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr">
@@ -28728,7 +28813,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W333"/>
+  <dimension ref="A1:W334"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -63905,6 +63990,123 @@
         </is>
       </c>
     </row>
+    <row r="334">
+      <c r="A334" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-14 22:05:26+00:00</t>
+        </is>
+      </c>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>-36.70687015747771,175.60894638961062</t>
+        </is>
+      </c>
+      <c r="C334" t="inlineStr">
+        <is>
+          <t>-36.70749107994864,175.60940890635297</t>
+        </is>
+      </c>
+      <c r="D334" t="inlineStr">
+        <is>
+          <t>-36.70805740440277,175.60996444517937</t>
+        </is>
+      </c>
+      <c r="E334" t="inlineStr">
+        <is>
+          <t>-36.70859037864997,175.6105768016234</t>
+        </is>
+      </c>
+      <c r="F334" t="inlineStr">
+        <is>
+          <t>-36.709169296687314,175.61114109620445</t>
+        </is>
+      </c>
+      <c r="G334" t="inlineStr">
+        <is>
+          <t>-36.70981237537648,175.61163067021542</t>
+        </is>
+      </c>
+      <c r="H334" t="inlineStr">
+        <is>
+          <t>-36.710373910162495,175.612217396755</t>
+        </is>
+      </c>
+      <c r="I334" t="inlineStr">
+        <is>
+          <t>-36.71092999564805,175.6127895760852</t>
+        </is>
+      </c>
+      <c r="J334" t="inlineStr">
+        <is>
+          <t>-36.71140326473952,175.6135001348446</t>
+        </is>
+      </c>
+      <c r="K334" t="inlineStr">
+        <is>
+          <t>-36.71188599024083,175.61421749429365</t>
+        </is>
+      </c>
+      <c r="L334" t="inlineStr">
+        <is>
+          <t>-36.712368370539906,175.61491259179547</t>
+        </is>
+      </c>
+      <c r="M334" t="inlineStr">
+        <is>
+          <t>-36.71280210757479,175.61563560119836</t>
+        </is>
+      </c>
+      <c r="N334" t="inlineStr">
+        <is>
+          <t>-36.71320631924568,175.61640098056978</t>
+        </is>
+      </c>
+      <c r="O334" t="inlineStr">
+        <is>
+          <t>-36.7136675134436,175.61710862695674</t>
+        </is>
+      </c>
+      <c r="P334" t="inlineStr">
+        <is>
+          <t>-36.71406919116914,175.61785413803491</t>
+        </is>
+      </c>
+      <c r="Q334" t="inlineStr">
+        <is>
+          <t>-36.71447339162738,175.61861493645623</t>
+        </is>
+      </c>
+      <c r="R334" t="inlineStr">
+        <is>
+          <t>-36.714880183128564,175.61937698646582</t>
+        </is>
+      </c>
+      <c r="S334" t="inlineStr">
+        <is>
+          <t>-36.71525772431076,175.6201437961776</t>
+        </is>
+      </c>
+      <c r="T334" t="inlineStr">
+        <is>
+          <t>-36.71566399361804,175.62090495028843</t>
+        </is>
+      </c>
+      <c r="U334" t="inlineStr">
+        <is>
+          <t>-36.715994939955216,175.6217190941686</t>
+        </is>
+      </c>
+      <c r="V334" t="inlineStr">
+        <is>
+          <t>-36.716270912906516,175.6225510108913</t>
+        </is>
+      </c>
+      <c r="W334" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0154/nzd0154.xlsx
+++ b/data/nzd0154/nzd0154.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tides" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transects" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Tides" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Transects" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W334"/>
+  <dimension ref="A1:W336"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23632,6 +23632,156 @@
         </is>
       </c>
     </row>
+    <row r="335">
+      <c r="A335" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-30 22:05:30+00:00</t>
+        </is>
+      </c>
+      <c r="B335" t="n">
+        <v>249.97</v>
+      </c>
+      <c r="C335" t="n">
+        <v>276.4533333333333</v>
+      </c>
+      <c r="D335" t="n">
+        <v>275.1918181818182</v>
+      </c>
+      <c r="E335" t="n">
+        <v>286.5</v>
+      </c>
+      <c r="F335" t="n">
+        <v>307.9618181818182</v>
+      </c>
+      <c r="G335" t="n">
+        <v>302.03</v>
+      </c>
+      <c r="H335" t="n">
+        <v>302.6766666666667</v>
+      </c>
+      <c r="I335" t="n">
+        <v>305.2985714285714</v>
+      </c>
+      <c r="J335" t="n">
+        <v>306.7526086956522</v>
+      </c>
+      <c r="K335" t="n">
+        <v>320.6885714285714</v>
+      </c>
+      <c r="L335" t="n">
+        <v>319.6685714285715</v>
+      </c>
+      <c r="M335" t="n">
+        <v>308.0264705882353</v>
+      </c>
+      <c r="N335" t="n">
+        <v>317.5905263157895</v>
+      </c>
+      <c r="O335" t="n">
+        <v>330.4266666666667</v>
+      </c>
+      <c r="P335" t="n">
+        <v>315.4966666666667</v>
+      </c>
+      <c r="Q335" t="n">
+        <v>321.1766666666667</v>
+      </c>
+      <c r="R335" t="n">
+        <v>317.7685714285714</v>
+      </c>
+      <c r="S335" t="n">
+        <v>332.0264705882353</v>
+      </c>
+      <c r="T335" t="n">
+        <v>326.5566666666667</v>
+      </c>
+      <c r="U335" t="n">
+        <v>333.85</v>
+      </c>
+      <c r="V335" t="n">
+        <v>334.4299999999999</v>
+      </c>
+      <c r="W335" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-07 22:05:29+00:00</t>
+        </is>
+      </c>
+      <c r="B336" t="n">
+        <v>276.8</v>
+      </c>
+      <c r="C336" t="n">
+        <v>270.8744444444445</v>
+      </c>
+      <c r="D336" t="n">
+        <v>278.7227272727272</v>
+      </c>
+      <c r="E336" t="n">
+        <v>293.1233333333333</v>
+      </c>
+      <c r="F336" t="n">
+        <v>301.5727272727273</v>
+      </c>
+      <c r="G336" t="n">
+        <v>290.7</v>
+      </c>
+      <c r="H336" t="n">
+        <v>295.2022222222222</v>
+      </c>
+      <c r="I336" t="n">
+        <v>294.3133333333333</v>
+      </c>
+      <c r="J336" t="n">
+        <v>306.4030434782609</v>
+      </c>
+      <c r="K336" t="n">
+        <v>313.1633333333333</v>
+      </c>
+      <c r="L336" t="n">
+        <v>312.0933333333333</v>
+      </c>
+      <c r="M336" t="n">
+        <v>315.6447058823529</v>
+      </c>
+      <c r="N336" t="n">
+        <v>324.1815789473685</v>
+      </c>
+      <c r="O336" t="n">
+        <v>326.5722222222223</v>
+      </c>
+      <c r="P336" t="n">
+        <v>319.4822222222222</v>
+      </c>
+      <c r="Q336" t="n">
+        <v>323.2522222222222</v>
+      </c>
+      <c r="R336" t="n">
+        <v>319.5133333333333</v>
+      </c>
+      <c r="S336" t="n">
+        <v>318.2147058823529</v>
+      </c>
+      <c r="T336" t="n">
+        <v>313.8422222222222</v>
+      </c>
+      <c r="U336" t="n">
+        <v>315.0366666666667</v>
+      </c>
+      <c r="V336" t="n">
+        <v>318.7666666666667</v>
+      </c>
+      <c r="W336" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -23643,7 +23793,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B337"/>
+  <dimension ref="A1:B339"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27021,6 +27171,26 @@
       </c>
       <c r="B337" t="n">
         <v>0.35</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>2025-05-30 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B338" t="n">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>2025-06-07 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B339" t="n">
+        <v>-0.7</v>
       </c>
     </row>
   </sheetData>
@@ -27194,28 +27364,28 @@
         <v>0.026</v>
       </c>
       <c r="I2" t="n">
-        <v>0.5499837411914972</v>
+        <v>0.5023136334056267</v>
       </c>
       <c r="J2" t="n">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="K2" t="n">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="L2" t="n">
-        <v>0.02887788838978145</v>
+        <v>0.02415616849254965</v>
       </c>
       <c r="M2" t="n">
-        <v>19.02724737076433</v>
+        <v>19.1407083520834</v>
       </c>
       <c r="N2" t="n">
-        <v>548.0416191924592</v>
+        <v>553.3219610516926</v>
       </c>
       <c r="O2" t="n">
-        <v>23.41028874645631</v>
+        <v>23.5227966247998</v>
       </c>
       <c r="P2" t="n">
-        <v>282.1235441392143</v>
+        <v>282.6142215314624</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -27272,28 +27442,28 @@
         <v>0.054</v>
       </c>
       <c r="I3" t="n">
-        <v>0.3787350543236429</v>
+        <v>0.3485274999587834</v>
       </c>
       <c r="J3" t="n">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="K3" t="n">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0292917556003871</v>
+        <v>0.02497209863143923</v>
       </c>
       <c r="M3" t="n">
-        <v>12.59592978180666</v>
+        <v>12.66779148023187</v>
       </c>
       <c r="N3" t="n">
-        <v>246.4358992579569</v>
+        <v>247.767823079781</v>
       </c>
       <c r="O3" t="n">
-        <v>15.69827695188096</v>
+        <v>15.74064239730326</v>
       </c>
       <c r="P3" t="n">
-        <v>284.5026500829824</v>
+        <v>284.821475236273</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -27350,28 +27520,28 @@
         <v>0.0626</v>
       </c>
       <c r="I4" t="n">
-        <v>0.4496429870200325</v>
+        <v>0.4241743491325267</v>
       </c>
       <c r="J4" t="n">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="K4" t="n">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="L4" t="n">
-        <v>0.07114370281257265</v>
+        <v>0.06369166672819793</v>
       </c>
       <c r="M4" t="n">
-        <v>9.547058265205166</v>
+        <v>9.616175067442308</v>
       </c>
       <c r="N4" t="n">
-        <v>139.4594683863694</v>
+        <v>140.8213674209198</v>
       </c>
       <c r="O4" t="n">
-        <v>11.80929584633942</v>
+        <v>11.86681791471158</v>
       </c>
       <c r="P4" t="n">
-        <v>283.679632501811</v>
+        <v>283.9422808462016</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -27428,28 +27598,28 @@
         <v>0.068</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4575003646804099</v>
+        <v>0.4341433879921547</v>
       </c>
       <c r="J5" t="n">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="K5" t="n">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="L5" t="n">
-        <v>0.08613642116710796</v>
+        <v>0.07802632493541051</v>
       </c>
       <c r="M5" t="n">
-        <v>8.808412829216593</v>
+        <v>8.868085322181869</v>
       </c>
       <c r="N5" t="n">
-        <v>118.9876862777351</v>
+        <v>120.2164516096637</v>
       </c>
       <c r="O5" t="n">
-        <v>10.90814770149979</v>
+        <v>10.96432631809468</v>
       </c>
       <c r="P5" t="n">
-        <v>294.854211187648</v>
+        <v>295.0946798802892</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -27506,28 +27676,28 @@
         <v>0.2</v>
       </c>
       <c r="I6" t="n">
-        <v>0.3454123311380409</v>
+        <v>0.3336455946186399</v>
       </c>
       <c r="J6" t="n">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="K6" t="n">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="L6" t="n">
-        <v>0.06209003137773539</v>
+        <v>0.05865856917092127</v>
       </c>
       <c r="M6" t="n">
-        <v>7.959143742069244</v>
+        <v>7.956687021035486</v>
       </c>
       <c r="N6" t="n">
-        <v>96.10031692179106</v>
+        <v>95.98121317636053</v>
       </c>
       <c r="O6" t="n">
-        <v>9.803076910939293</v>
+        <v>9.797000213144864</v>
       </c>
       <c r="P6" t="n">
-        <v>304.2464370105919</v>
+        <v>304.3675911714614</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -27584,28 +27754,28 @@
         <v>0.0878</v>
       </c>
       <c r="I7" t="n">
-        <v>0.2328378617625133</v>
+        <v>0.2225533345055196</v>
       </c>
       <c r="J7" t="n">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="K7" t="n">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="L7" t="n">
-        <v>0.03499430179714613</v>
+        <v>0.0322765283417441</v>
       </c>
       <c r="M7" t="n">
-        <v>7.039456249562588</v>
+        <v>7.048772019599377</v>
       </c>
       <c r="N7" t="n">
-        <v>79.99486665812296</v>
+        <v>80.07285451176094</v>
       </c>
       <c r="O7" t="n">
-        <v>8.943984942860926</v>
+        <v>8.948343674209264</v>
       </c>
       <c r="P7" t="n">
-        <v>298.1443578467718</v>
+        <v>298.2485558380454</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -27662,28 +27832,28 @@
         <v>0.0982</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1956569392352718</v>
+        <v>0.1926035883730782</v>
       </c>
       <c r="J8" t="n">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="K8" t="n">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="L8" t="n">
-        <v>0.02445960802744884</v>
+        <v>0.02403039558479958</v>
       </c>
       <c r="M8" t="n">
-        <v>6.993811560743551</v>
+        <v>6.97206310966708</v>
       </c>
       <c r="N8" t="n">
-        <v>80.17699854306187</v>
+        <v>79.76399897453832</v>
       </c>
       <c r="O8" t="n">
-        <v>8.954160962539252</v>
+        <v>8.931069307453521</v>
       </c>
       <c r="P8" t="n">
-        <v>296.1056591207248</v>
+        <v>296.1368408007374</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -27740,28 +27910,28 @@
         <v>0.1193</v>
       </c>
       <c r="I9" t="n">
-        <v>0.2481920988644602</v>
+        <v>0.2399579635170787</v>
       </c>
       <c r="J9" t="n">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="K9" t="n">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="L9" t="n">
-        <v>0.03694791591950453</v>
+        <v>0.03493398032841566</v>
       </c>
       <c r="M9" t="n">
-        <v>7.162416545874088</v>
+        <v>7.1573707999542</v>
       </c>
       <c r="N9" t="n">
-        <v>84.87312967797303</v>
+        <v>84.75215815626704</v>
       </c>
       <c r="O9" t="n">
-        <v>9.212661378666484</v>
+        <v>9.20609353397341</v>
       </c>
       <c r="P9" t="n">
-        <v>299.4970536815076</v>
+        <v>299.5809885734764</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -27818,28 +27988,28 @@
         <v>0.1376</v>
       </c>
       <c r="I10" t="n">
-        <v>0.2017426510904656</v>
+        <v>0.1892553714877373</v>
       </c>
       <c r="J10" t="n">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="K10" t="n">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="L10" t="n">
-        <v>0.02830573663483305</v>
+        <v>0.02516541370561054</v>
       </c>
       <c r="M10" t="n">
-        <v>6.710444190602168</v>
+        <v>6.728279578134766</v>
       </c>
       <c r="N10" t="n">
-        <v>74.13200148336728</v>
+        <v>74.1988557153353</v>
       </c>
       <c r="O10" t="n">
-        <v>8.609994278939288</v>
+        <v>8.613875766188835</v>
       </c>
       <c r="P10" t="n">
-        <v>310.6223506959502</v>
+        <v>310.749455915535</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -27896,28 +28066,28 @@
         <v>0.1174</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1197597726345217</v>
+        <v>0.1121269277294671</v>
       </c>
       <c r="J11" t="n">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="K11" t="n">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="L11" t="n">
-        <v>0.01044182765887403</v>
+        <v>0.009255255298768472</v>
       </c>
       <c r="M11" t="n">
-        <v>6.470679777138576</v>
+        <v>6.468751554726819</v>
       </c>
       <c r="N11" t="n">
-        <v>71.59502186076014</v>
+        <v>71.42756739476449</v>
       </c>
       <c r="O11" t="n">
-        <v>8.461384157498118</v>
+        <v>8.45148314763536</v>
       </c>
       <c r="P11" t="n">
-        <v>319.5707808979089</v>
+        <v>319.6493200570334</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -27974,28 +28144,28 @@
         <v>0.1204</v>
       </c>
       <c r="I12" t="n">
-        <v>0.1901176119472613</v>
+        <v>0.1773507374455845</v>
       </c>
       <c r="J12" t="n">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="K12" t="n">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="L12" t="n">
-        <v>0.02749020728267149</v>
+        <v>0.02409384128926717</v>
       </c>
       <c r="M12" t="n">
-        <v>6.289746189867772</v>
+        <v>6.310448747862734</v>
       </c>
       <c r="N12" t="n">
-        <v>67.79819823673922</v>
+        <v>68.05641594337594</v>
       </c>
       <c r="O12" t="n">
-        <v>8.233966130410012</v>
+        <v>8.249631261055002</v>
       </c>
       <c r="P12" t="n">
-        <v>320.6753224209244</v>
+        <v>320.8060839282399</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -28052,28 +28222,28 @@
         <v>0.0939</v>
       </c>
       <c r="I13" t="n">
-        <v>0.1302018681365247</v>
+        <v>0.108465781968221</v>
       </c>
       <c r="J13" t="n">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="K13" t="n">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="L13" t="n">
-        <v>0.0113128899802929</v>
+        <v>0.007802347719895075</v>
       </c>
       <c r="M13" t="n">
-        <v>6.942543608488105</v>
+        <v>7.006006477536055</v>
       </c>
       <c r="N13" t="n">
-        <v>79.41444072157756</v>
+        <v>80.79234629808583</v>
       </c>
       <c r="O13" t="n">
-        <v>8.911478032379229</v>
+        <v>8.988456280034177</v>
       </c>
       <c r="P13" t="n">
-        <v>325.2017422780737</v>
+        <v>325.4223479903779</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -28130,28 +28300,28 @@
         <v>0.1032</v>
       </c>
       <c r="I14" t="n">
-        <v>0.2022569645555162</v>
+        <v>0.1856422043438247</v>
       </c>
       <c r="J14" t="n">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="K14" t="n">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="L14" t="n">
-        <v>0.0254507387794104</v>
+        <v>0.02155748710863381</v>
       </c>
       <c r="M14" t="n">
-        <v>7.200291443855019</v>
+        <v>7.239142369975656</v>
       </c>
       <c r="N14" t="n">
-        <v>82.84387664707003</v>
+        <v>83.36778509614309</v>
       </c>
       <c r="O14" t="n">
-        <v>9.101861163908733</v>
+        <v>9.130596097525238</v>
       </c>
       <c r="P14" t="n">
-        <v>328.0218812215919</v>
+        <v>328.1918664779957</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -28208,28 +28378,28 @@
         <v>0.099</v>
       </c>
       <c r="I15" t="n">
-        <v>0.1799182109930582</v>
+        <v>0.1747147521591429</v>
       </c>
       <c r="J15" t="n">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="K15" t="n">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="L15" t="n">
-        <v>0.01758034502671901</v>
+        <v>0.01681168512721498</v>
       </c>
       <c r="M15" t="n">
-        <v>7.746856459151336</v>
+        <v>7.721702012590702</v>
       </c>
       <c r="N15" t="n">
-        <v>95.82418537127597</v>
+        <v>95.29856295158403</v>
       </c>
       <c r="O15" t="n">
-        <v>9.788982856828179</v>
+        <v>9.762098286310378</v>
       </c>
       <c r="P15" t="n">
-        <v>327.7018872511691</v>
+        <v>327.7551581449273</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -28286,28 +28456,28 @@
         <v>0.1029</v>
       </c>
       <c r="I16" t="n">
-        <v>0.1014535280931134</v>
+        <v>0.08250045471599776</v>
       </c>
       <c r="J16" t="n">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="K16" t="n">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="L16" t="n">
-        <v>0.005903758042038687</v>
+        <v>0.003909500272971655</v>
       </c>
       <c r="M16" t="n">
-        <v>7.35481065161475</v>
+        <v>7.407343442755868</v>
       </c>
       <c r="N16" t="n">
-        <v>91.18524907532253</v>
+        <v>91.92924606856127</v>
       </c>
       <c r="O16" t="n">
-        <v>9.549096767512754</v>
+        <v>9.587974033577755</v>
       </c>
       <c r="P16" t="n">
-        <v>329.0994765918257</v>
+        <v>329.2947151754087</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -28364,28 +28534,28 @@
         <v>0.1031</v>
       </c>
       <c r="I17" t="n">
-        <v>0.1707852207337138</v>
+        <v>0.1536903431023647</v>
       </c>
       <c r="J17" t="n">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="K17" t="n">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="L17" t="n">
-        <v>0.01325110279105712</v>
+        <v>0.01081147084834699</v>
       </c>
       <c r="M17" t="n">
-        <v>8.465082556968571</v>
+        <v>8.493318251936241</v>
       </c>
       <c r="N17" t="n">
-        <v>113.7879767441209</v>
+        <v>114.0891475166719</v>
       </c>
       <c r="O17" t="n">
-        <v>10.66714473250086</v>
+        <v>10.68125215116055</v>
       </c>
       <c r="P17" t="n">
-        <v>330.4698865626629</v>
+        <v>330.6464769452449</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -28442,28 +28612,28 @@
         <v>0.1249</v>
       </c>
       <c r="I18" t="n">
-        <v>0.1914262223135969</v>
+        <v>0.1725774236450179</v>
       </c>
       <c r="J18" t="n">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="K18" t="n">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="L18" t="n">
-        <v>0.01823119857518873</v>
+        <v>0.01490689703466519</v>
       </c>
       <c r="M18" t="n">
-        <v>7.877132399903899</v>
+        <v>7.915715953933212</v>
       </c>
       <c r="N18" t="n">
-        <v>103.1244541071616</v>
+        <v>103.6880772001912</v>
       </c>
       <c r="O18" t="n">
-        <v>10.15502112785402</v>
+        <v>10.18273426934982</v>
       </c>
       <c r="P18" t="n">
-        <v>327.4757706770458</v>
+        <v>327.6690986641327</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
@@ -28520,28 +28690,28 @@
         <v>0.0973</v>
       </c>
       <c r="I19" t="n">
-        <v>0.2060068600928373</v>
+        <v>0.197615559730229</v>
       </c>
       <c r="J19" t="n">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="K19" t="n">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="L19" t="n">
-        <v>0.01563737480847283</v>
+        <v>0.01455980477875263</v>
       </c>
       <c r="M19" t="n">
-        <v>9.512578901486048</v>
+        <v>9.501496838665496</v>
       </c>
       <c r="N19" t="n">
-        <v>139.3440088898218</v>
+        <v>138.9750316965601</v>
       </c>
       <c r="O19" t="n">
-        <v>11.804406333646</v>
+        <v>11.78876718306711</v>
       </c>
       <c r="P19" t="n">
-        <v>325.9239793614228</v>
+        <v>326.0103000496996</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">
@@ -28598,28 +28768,28 @@
         <v>0.1034</v>
       </c>
       <c r="I20" t="n">
-        <v>0.177448826296663</v>
+        <v>0.1613000384747775</v>
       </c>
       <c r="J20" t="n">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="K20" t="n">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="L20" t="n">
-        <v>0.01230584066071749</v>
+        <v>0.01024815190636674</v>
       </c>
       <c r="M20" t="n">
-        <v>9.323621857067687</v>
+        <v>9.342996798241828</v>
       </c>
       <c r="N20" t="n">
-        <v>132.5736820933662</v>
+        <v>132.8641521008661</v>
       </c>
       <c r="O20" t="n">
-        <v>11.51406453401084</v>
+        <v>11.52667133655099</v>
       </c>
       <c r="P20" t="n">
-        <v>327.3333614138731</v>
+        <v>327.499354612114</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr">
@@ -28676,28 +28846,28 @@
         <v>0.08309999999999999</v>
       </c>
       <c r="I21" t="n">
-        <v>0.3080821803321048</v>
+        <v>0.2988044853952353</v>
       </c>
       <c r="J21" t="n">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="K21" t="n">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="L21" t="n">
-        <v>0.02654805499385959</v>
+        <v>0.02526257893881156</v>
       </c>
       <c r="M21" t="n">
-        <v>10.36773434538537</v>
+        <v>10.36633325505266</v>
       </c>
       <c r="N21" t="n">
-        <v>182.5183394634981</v>
+        <v>182.1542399113536</v>
       </c>
       <c r="O21" t="n">
-        <v>13.50993484305154</v>
+        <v>13.49645286404371</v>
       </c>
       <c r="P21" t="n">
-        <v>323.0309035271886</v>
+        <v>323.1262394423251</v>
       </c>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr">
@@ -28754,28 +28924,28 @@
         <v>0.0873</v>
       </c>
       <c r="I22" t="n">
-        <v>0.2207428851375462</v>
+        <v>0.2089427275177027</v>
       </c>
       <c r="J22" t="n">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="K22" t="n">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="L22" t="n">
-        <v>0.01706980860011531</v>
+        <v>0.01547998312840071</v>
       </c>
       <c r="M22" t="n">
-        <v>9.457832905768591</v>
+        <v>9.449112661833254</v>
       </c>
       <c r="N22" t="n">
-        <v>146.2418111903369</v>
+        <v>146.0167706731902</v>
       </c>
       <c r="O22" t="n">
-        <v>12.09304805209741</v>
+        <v>12.08373992906129</v>
       </c>
       <c r="P22" t="n">
-        <v>328.4507623882105</v>
+        <v>328.572750100135</v>
       </c>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr">
@@ -28813,7 +28983,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W334"/>
+  <dimension ref="A1:W336"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43192,7 +43362,7 @@
       </c>
       <c r="O135" t="inlineStr">
         <is>
-          <t>-36.7137578565791,175.61703033868645</t>
+          <t>-36.71375785657909,175.61703033868645</t>
         </is>
       </c>
       <c r="P135" t="inlineStr">
@@ -46917,7 +47087,7 @@
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>-36.71035746256525,175.61223995653427</t>
+          <t>-36.710357462565256,175.61223995653427</t>
         </is>
       </c>
       <c r="I171" t="inlineStr">
@@ -48627,7 +48797,7 @@
       </c>
       <c r="K186" t="inlineStr">
         <is>
-          <t>-36.71183081337071,175.6142795385211</t>
+          <t>-36.71183081337072,175.6142795385211</t>
         </is>
       </c>
       <c r="L186" t="inlineStr">
@@ -52334,7 +52504,7 @@
       </c>
       <c r="U219" t="inlineStr">
         <is>
-          <t>-36.71581603105982,175.62182605312267</t>
+          <t>-36.71581603105983,175.62182605312267</t>
         </is>
       </c>
       <c r="V219" t="inlineStr">
@@ -55269,7 +55439,7 @@
       </c>
       <c r="M246" t="inlineStr">
         <is>
-          <t>-36.71272603249029,175.61571276094537</t>
+          <t>-36.712726032490295,175.61571276094537</t>
         </is>
       </c>
       <c r="N246" t="inlineStr">
@@ -55548,7 +55718,7 @@
       </c>
       <c r="V248" t="inlineStr">
         <is>
-          <t>-36.716044414344644,175.62268566340705</t>
+          <t>-36.71604441434464,175.62268566340705</t>
         </is>
       </c>
       <c r="W248" t="inlineStr">
@@ -59112,7 +59282,7 @@
       </c>
       <c r="I285" t="inlineStr">
         <is>
-          <t>-36.71083194596307,175.6129240621987</t>
+          <t>-36.710831945963065,175.6129240621987</t>
         </is>
       </c>
       <c r="J285" t="inlineStr">
@@ -59152,7 +59322,7 @@
       </c>
       <c r="Q285" t="inlineStr">
         <is>
-          <t>-36.714480048049374,175.61860970345128</t>
+          <t>-36.71448004804937,175.61860970345128</t>
         </is>
       </c>
       <c r="R285" t="inlineStr">
@@ -64107,6 +64277,240 @@
         </is>
       </c>
     </row>
+    <row r="335">
+      <c r="A335" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-30 22:05:30+00:00</t>
+        </is>
+      </c>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>-36.70711765012007,175.6085246836036</t>
+        </is>
+      </c>
+      <c r="C335" t="inlineStr">
+        <is>
+          <t>-36.70756624326927,175.60928083495114</t>
+        </is>
+      </c>
+      <c r="D335" t="inlineStr">
+        <is>
+          <t>-36.708162058338885,175.60978612459826</t>
+        </is>
+      </c>
+      <c r="E335" t="inlineStr">
+        <is>
+          <t>-36.70869116750366,175.61040506732513</t>
+        </is>
+      </c>
+      <c r="F335" t="inlineStr">
+        <is>
+          <t>-36.709178269571005,175.6111267749303</t>
+        </is>
+      </c>
+      <c r="G335" t="inlineStr">
+        <is>
+          <t>-36.7097938146294,175.61165725750251</t>
+        </is>
+      </c>
+      <c r="H335" t="inlineStr">
+        <is>
+          <t>-36.710340363241215,175.61226341021606</t>
+        </is>
+      </c>
+      <c r="I335" t="inlineStr">
+        <is>
+          <t>-36.71086647112435,175.6128767071382</t>
+        </is>
+      </c>
+      <c r="J335" t="inlineStr">
+        <is>
+          <t>-36.711409691165066,175.61349180783301</t>
+        </is>
+      </c>
+      <c r="K335" t="inlineStr">
+        <is>
+          <t>-36.711853431120666,175.6142541057626</t>
+        </is>
+      </c>
+      <c r="L335" t="inlineStr">
+        <is>
+          <t>-36.71234013744131,175.61494174009846</t>
+        </is>
+      </c>
+      <c r="M335" t="inlineStr">
+        <is>
+          <t>-36.71289310700988,175.6155433040546</t>
+        </is>
+      </c>
+      <c r="N335" t="inlineStr">
+        <is>
+          <t>-36.71329627781576,175.61631733551025</t>
+        </is>
+      </c>
+      <c r="O335" t="inlineStr">
+        <is>
+          <t>-36.71363110527029,175.61714017697196</t>
+        </is>
+      </c>
+      <c r="P335" t="inlineStr">
+        <is>
+          <t>-36.71416348327759,175.6177724282151</t>
+        </is>
+      </c>
+      <c r="Q335" t="inlineStr">
+        <is>
+          <t>-36.714552422881496,175.61855280527092</t>
+        </is>
+      </c>
+      <c r="R335" t="inlineStr">
+        <is>
+          <t>-36.71495589333482,175.61932357985057</t>
+        </is>
+      </c>
+      <c r="S335" t="inlineStr">
+        <is>
+          <t>-36.715209085205615,175.62017787529868</t>
+        </is>
+      </c>
+      <c r="T335" t="inlineStr">
+        <is>
+          <t>-36.71562114999631,175.62093280325158</t>
+        </is>
+      </c>
+      <c r="U335" t="inlineStr">
+        <is>
+          <t>-36.71589141524738,175.6217809854788</t>
+        </is>
+      </c>
+      <c r="V335" t="inlineStr">
+        <is>
+          <t>-36.71620896575225,175.62258783831717</t>
+        </is>
+      </c>
+      <c r="W335" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-07 22:05:29+00:00</t>
+        </is>
+      </c>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>-36.70697527834414,175.6087672733944</t>
+        </is>
+      </c>
+      <c r="C336" t="inlineStr">
+        <is>
+          <t>-36.7075958474881,175.6092303919486</t>
+        </is>
+      </c>
+      <c r="D336" t="inlineStr">
+        <is>
+          <t>-36.70814332156883,175.60981805038057</t>
+        </is>
+      </c>
+      <c r="E336" t="inlineStr">
+        <is>
+          <t>-36.70865602055697,175.61046495436372</t>
+        </is>
+      </c>
+      <c r="F336" t="inlineStr">
+        <is>
+          <t>-36.70921361788874,175.6110703567839</t>
+        </is>
+      </c>
+      <c r="G336" t="inlineStr">
+        <is>
+          <t>-36.709860680506466,175.61156147557793</t>
+        </is>
+      </c>
+      <c r="H336" t="inlineStr">
+        <is>
+          <t>-36.710385560541496,175.6122014169055</t>
+        </is>
+      </c>
+      <c r="I336" t="inlineStr">
+        <is>
+          <t>-36.71093289817691,175.61278559493397</t>
+        </is>
+      </c>
+      <c r="J336" t="inlineStr">
+        <is>
+          <t>-36.71141187034931,175.61348898416446</t>
+        </is>
+      </c>
+      <c r="K336" t="inlineStr">
+        <is>
+          <t>-36.71190368817596,175.61419759363372</t>
+        </is>
+      </c>
+      <c r="L336" t="inlineStr">
+        <is>
+          <t>-36.71239261840517,175.61488755788903</t>
+        </is>
+      </c>
+      <c r="M336" t="inlineStr">
+        <is>
+          <t>-36.71283994807841,175.6155972210997</t>
+        </is>
+      </c>
+      <c r="N336" t="inlineStr">
+        <is>
+          <t>-36.71324874401751,175.61636153330133</t>
+        </is>
+      </c>
+      <c r="O336" t="inlineStr">
+        <is>
+          <t>-36.713659583276154,175.61711549895801</t>
+        </is>
+      </c>
+      <c r="P336" t="inlineStr">
+        <is>
+          <t>-36.71413403649612,175.61779794565942</t>
+        </is>
+      </c>
+      <c r="Q336" t="inlineStr">
+        <is>
+          <t>-36.71453662339931,175.61856522619848</t>
+        </is>
+      </c>
+      <c r="R336" t="inlineStr">
+        <is>
+          <t>-36.71494222551039,175.61933322125734</t>
+        </is>
+      </c>
+      <c r="S336" t="inlineStr">
+        <is>
+          <t>-36.715317459286794,175.62010194263925</t>
+        </is>
+      </c>
+      <c r="T336" t="inlineStr">
+        <is>
+          <t>-36.71572263199171,175.62086682898294</t>
+        </is>
+      </c>
+      <c r="U336" t="inlineStr">
+        <is>
+          <t>-36.71604413176973,175.62168968522556</t>
+        </is>
+      </c>
+      <c r="V336" t="inlineStr">
+        <is>
+          <t>-36.71633624588082,175.6225121705362</t>
+        </is>
+      </c>
+      <c r="W336" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0154/nzd0154.xlsx
+++ b/data/nzd0154/nzd0154.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W336"/>
+  <dimension ref="A1:W337"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23638,9 +23638,7 @@
           <t>2025-05-30 22:05:30+00:00</t>
         </is>
       </c>
-      <c r="B335" t="n">
-        <v>249.97</v>
-      </c>
+      <c r="B335" t="inlineStr"/>
       <c r="C335" t="n">
         <v>276.4533333333333</v>
       </c>
@@ -23777,6 +23775,79 @@
         <v>318.7666666666667</v>
       </c>
       <c r="W336" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-23 22:05:42+00:00</t>
+        </is>
+      </c>
+      <c r="B337" t="inlineStr"/>
+      <c r="C337" t="n">
+        <v>287.9622222222222</v>
+      </c>
+      <c r="D337" t="n">
+        <v>297.8081818181818</v>
+      </c>
+      <c r="E337" t="n">
+        <v>324.2966666666667</v>
+      </c>
+      <c r="F337" t="n">
+        <v>315.2081818181818</v>
+      </c>
+      <c r="G337" t="n">
+        <v>310.205</v>
+      </c>
+      <c r="H337" t="n">
+        <v>307.6511111111111</v>
+      </c>
+      <c r="I337" t="n">
+        <v>303.8038095238095</v>
+      </c>
+      <c r="J337" t="n">
+        <v>314.6008695652173</v>
+      </c>
+      <c r="K337" t="n">
+        <v>323.4538095238095</v>
+      </c>
+      <c r="L337" t="n">
+        <v>330.6638095238095</v>
+      </c>
+      <c r="M337" t="n">
+        <v>336.8794117647059</v>
+      </c>
+      <c r="N337" t="n">
+        <v>337.0815789473684</v>
+      </c>
+      <c r="O337" t="n">
+        <v>339.2511111111111</v>
+      </c>
+      <c r="P337" t="n">
+        <v>346.3211111111111</v>
+      </c>
+      <c r="Q337" t="n">
+        <v>347.0511111111111</v>
+      </c>
+      <c r="R337" t="n">
+        <v>342.0938095238095</v>
+      </c>
+      <c r="S337" t="n">
+        <v>336.1494117647059</v>
+      </c>
+      <c r="T337" t="n">
+        <v>338.7511111111111</v>
+      </c>
+      <c r="U337" t="n">
+        <v>334.7333333333333</v>
+      </c>
+      <c r="V337" t="n">
+        <v>338.2633333333333</v>
+      </c>
+      <c r="W337" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -23793,7 +23864,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B339"/>
+  <dimension ref="A1:B340"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27191,6 +27262,16 @@
       </c>
       <c r="B339" t="n">
         <v>-0.7</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>2025-06-23 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B340" t="n">
+        <v>-0.89</v>
       </c>
     </row>
   </sheetData>
@@ -27364,28 +27445,28 @@
         <v>0.026</v>
       </c>
       <c r="I2" t="n">
-        <v>0.5023136334056267</v>
+        <v>0.5356599398656723</v>
       </c>
       <c r="J2" t="n">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="K2" t="n">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="L2" t="n">
-        <v>0.02415616849254965</v>
+        <v>0.02756811523490721</v>
       </c>
       <c r="M2" t="n">
-        <v>19.1407083520834</v>
+        <v>19.03186084181755</v>
       </c>
       <c r="N2" t="n">
-        <v>553.3219610516926</v>
+        <v>547.3937860812293</v>
       </c>
       <c r="O2" t="n">
-        <v>23.5227966247998</v>
+        <v>23.39644815097431</v>
       </c>
       <c r="P2" t="n">
-        <v>282.6142215314624</v>
+        <v>282.2710922120049</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -27442,28 +27523,28 @@
         <v>0.054</v>
       </c>
       <c r="I3" t="n">
-        <v>0.3485274999587834</v>
+        <v>0.3442376703528806</v>
       </c>
       <c r="J3" t="n">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="K3" t="n">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="L3" t="n">
-        <v>0.02497209863143923</v>
+        <v>0.02454238485263238</v>
       </c>
       <c r="M3" t="n">
-        <v>12.66779148023187</v>
+        <v>12.64497559647815</v>
       </c>
       <c r="N3" t="n">
-        <v>247.767823079781</v>
+        <v>246.971648992065</v>
       </c>
       <c r="O3" t="n">
-        <v>15.74064239730326</v>
+        <v>15.7153316538998</v>
       </c>
       <c r="P3" t="n">
-        <v>284.821475236273</v>
+        <v>284.8668661751102</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -27520,28 +27601,28 @@
         <v>0.0626</v>
       </c>
       <c r="I4" t="n">
-        <v>0.4241743491325267</v>
+        <v>0.426151318838577</v>
       </c>
       <c r="J4" t="n">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="K4" t="n">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="L4" t="n">
-        <v>0.06369166672819793</v>
+        <v>0.06467653157506414</v>
       </c>
       <c r="M4" t="n">
-        <v>9.616175067442308</v>
+        <v>9.591501527100228</v>
       </c>
       <c r="N4" t="n">
-        <v>140.8213674209198</v>
+        <v>140.3557646568702</v>
       </c>
       <c r="O4" t="n">
-        <v>11.86681791471158</v>
+        <v>11.84718382810321</v>
       </c>
       <c r="P4" t="n">
-        <v>283.9422808462016</v>
+        <v>283.9218399967677</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -27598,28 +27679,28 @@
         <v>0.068</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4341433879921547</v>
+        <v>0.4464902319544687</v>
       </c>
       <c r="J5" t="n">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="K5" t="n">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="L5" t="n">
-        <v>0.07802632493541051</v>
+        <v>0.08198614546407068</v>
       </c>
       <c r="M5" t="n">
-        <v>8.868085322181869</v>
+        <v>8.898959309255803</v>
       </c>
       <c r="N5" t="n">
-        <v>120.2164516096637</v>
+        <v>120.9271695388946</v>
       </c>
       <c r="O5" t="n">
-        <v>10.96432631809468</v>
+        <v>10.99668902619759</v>
       </c>
       <c r="P5" t="n">
-        <v>295.0946798802892</v>
+        <v>294.9672145685263</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -27676,28 +27757,28 @@
         <v>0.2</v>
       </c>
       <c r="I6" t="n">
-        <v>0.3336455946186399</v>
+        <v>0.335165706046457</v>
       </c>
       <c r="J6" t="n">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="K6" t="n">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="L6" t="n">
-        <v>0.05865856917092127</v>
+        <v>0.05956107965363533</v>
       </c>
       <c r="M6" t="n">
-        <v>7.956687021035486</v>
+        <v>7.936559917682046</v>
       </c>
       <c r="N6" t="n">
-        <v>95.98121317636053</v>
+        <v>95.65417020965596</v>
       </c>
       <c r="O6" t="n">
-        <v>9.797000213144864</v>
+        <v>9.780294996044647</v>
       </c>
       <c r="P6" t="n">
-        <v>304.3675911714614</v>
+        <v>304.3519018725696</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -27754,28 +27835,28 @@
         <v>0.0878</v>
       </c>
       <c r="I7" t="n">
-        <v>0.2225533345055196</v>
+        <v>0.2266038641309202</v>
       </c>
       <c r="J7" t="n">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="K7" t="n">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0322765283417441</v>
+        <v>0.03360118642494969</v>
       </c>
       <c r="M7" t="n">
-        <v>7.048772019599377</v>
+        <v>7.044043695205302</v>
       </c>
       <c r="N7" t="n">
-        <v>80.07285451176094</v>
+        <v>79.93353397452842</v>
       </c>
       <c r="O7" t="n">
-        <v>8.948343674209264</v>
+        <v>8.940555574153567</v>
       </c>
       <c r="P7" t="n">
-        <v>298.2485558380454</v>
+        <v>298.2074293568663</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -27832,28 +27913,28 @@
         <v>0.0982</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1926035883730782</v>
+        <v>0.1970352425700645</v>
       </c>
       <c r="J8" t="n">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="K8" t="n">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="L8" t="n">
-        <v>0.02403039558479958</v>
+        <v>0.02525830555686936</v>
       </c>
       <c r="M8" t="n">
-        <v>6.97206310966708</v>
+        <v>6.970071513041437</v>
       </c>
       <c r="N8" t="n">
-        <v>79.76399897453832</v>
+        <v>79.63744229335802</v>
       </c>
       <c r="O8" t="n">
-        <v>8.931069307453521</v>
+        <v>8.923981302835525</v>
       </c>
       <c r="P8" t="n">
-        <v>296.1368408007374</v>
+        <v>296.0915101050377</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -27910,28 +27991,28 @@
         <v>0.1193</v>
       </c>
       <c r="I9" t="n">
-        <v>0.2399579635170787</v>
+        <v>0.2386197569896752</v>
       </c>
       <c r="J9" t="n">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="K9" t="n">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="L9" t="n">
-        <v>0.03493398032841566</v>
+        <v>0.03479578975067155</v>
       </c>
       <c r="M9" t="n">
-        <v>7.1573707999542</v>
+        <v>7.140519979222842</v>
       </c>
       <c r="N9" t="n">
-        <v>84.75215815626704</v>
+        <v>84.48284393552593</v>
       </c>
       <c r="O9" t="n">
-        <v>9.20609353397341</v>
+        <v>9.191454941168233</v>
       </c>
       <c r="P9" t="n">
-        <v>299.5809885734764</v>
+        <v>299.5946573290034</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -27988,28 +28069,28 @@
         <v>0.1376</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1892553714877373</v>
+        <v>0.1885473142273493</v>
       </c>
       <c r="J10" t="n">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="K10" t="n">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="L10" t="n">
-        <v>0.02516541370561054</v>
+        <v>0.02515778278156477</v>
       </c>
       <c r="M10" t="n">
-        <v>6.728279578134766</v>
+        <v>6.709244265390266</v>
       </c>
       <c r="N10" t="n">
-        <v>74.1988557153353</v>
+        <v>73.95357261502788</v>
       </c>
       <c r="O10" t="n">
-        <v>8.613875766188835</v>
+        <v>8.59962630670821</v>
       </c>
       <c r="P10" t="n">
-        <v>310.749455915535</v>
+        <v>310.7566810103186</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -28066,28 +28147,28 @@
         <v>0.1174</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1121269277294671</v>
+        <v>0.1127192247964972</v>
       </c>
       <c r="J11" t="n">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="K11" t="n">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="L11" t="n">
-        <v>0.009255255298768472</v>
+        <v>0.009417515147373434</v>
       </c>
       <c r="M11" t="n">
-        <v>6.468751554726819</v>
+        <v>6.449984648113348</v>
       </c>
       <c r="N11" t="n">
-        <v>71.42756739476449</v>
+        <v>71.19291033777952</v>
       </c>
       <c r="O11" t="n">
-        <v>8.45148314763536</v>
+        <v>8.437589130656903</v>
       </c>
       <c r="P11" t="n">
-        <v>319.6493200570334</v>
+        <v>319.6432122334427</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -28144,28 +28225,28 @@
         <v>0.1204</v>
       </c>
       <c r="I12" t="n">
-        <v>0.1773507374455845</v>
+        <v>0.1807871141253847</v>
       </c>
       <c r="J12" t="n">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="K12" t="n">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="L12" t="n">
-        <v>0.02409384128926717</v>
+        <v>0.02515126386902</v>
       </c>
       <c r="M12" t="n">
-        <v>6.310448747862734</v>
+        <v>6.306957113292416</v>
       </c>
       <c r="N12" t="n">
-        <v>68.05641594337594</v>
+        <v>67.92213321097611</v>
       </c>
       <c r="O12" t="n">
-        <v>8.249631261055002</v>
+        <v>8.241488531265217</v>
       </c>
       <c r="P12" t="n">
-        <v>320.8060839282399</v>
+        <v>320.7708056311033</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -28222,28 +28303,28 @@
         <v>0.0939</v>
       </c>
       <c r="I13" t="n">
-        <v>0.108465781968221</v>
+        <v>0.1140520132781564</v>
       </c>
       <c r="J13" t="n">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="K13" t="n">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="L13" t="n">
-        <v>0.007802347719895075</v>
+        <v>0.008653380659859322</v>
       </c>
       <c r="M13" t="n">
-        <v>7.006006477536055</v>
+        <v>7.01109404586463</v>
       </c>
       <c r="N13" t="n">
-        <v>80.79234629808583</v>
+        <v>80.76995116716203</v>
       </c>
       <c r="O13" t="n">
-        <v>8.988456280034177</v>
+        <v>8.987210421880754</v>
       </c>
       <c r="P13" t="n">
-        <v>325.4223479903779</v>
+        <v>325.3655006032046</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -28300,28 +28381,28 @@
         <v>0.1032</v>
       </c>
       <c r="I14" t="n">
-        <v>0.1856422043438247</v>
+        <v>0.1883652424983468</v>
       </c>
       <c r="J14" t="n">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="K14" t="n">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="L14" t="n">
-        <v>0.02155748710863381</v>
+        <v>0.02232190558810854</v>
       </c>
       <c r="M14" t="n">
-        <v>7.239142369975656</v>
+        <v>7.227726256938703</v>
       </c>
       <c r="N14" t="n">
-        <v>83.36778509614309</v>
+        <v>83.14318004940849</v>
       </c>
       <c r="O14" t="n">
-        <v>9.130596097525238</v>
+        <v>9.118288219255218</v>
       </c>
       <c r="P14" t="n">
-        <v>328.1918664779957</v>
+        <v>328.1639334688297</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -28378,28 +28459,28 @@
         <v>0.099</v>
       </c>
       <c r="I15" t="n">
-        <v>0.1747147521591429</v>
+        <v>0.1793835635130008</v>
       </c>
       <c r="J15" t="n">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="K15" t="n">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="L15" t="n">
-        <v>0.01681168512721498</v>
+        <v>0.0178014695774108</v>
       </c>
       <c r="M15" t="n">
-        <v>7.721702012590702</v>
+        <v>7.717819574309911</v>
       </c>
       <c r="N15" t="n">
-        <v>95.29856295158403</v>
+        <v>95.13878005592842</v>
       </c>
       <c r="O15" t="n">
-        <v>9.762098286310378</v>
+        <v>9.753911013328368</v>
       </c>
       <c r="P15" t="n">
-        <v>327.7551581449273</v>
+        <v>327.7072523314578</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -28456,28 +28537,28 @@
         <v>0.1029</v>
       </c>
       <c r="I16" t="n">
-        <v>0.08250045471599776</v>
+        <v>0.09236055636550719</v>
       </c>
       <c r="J16" t="n">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="K16" t="n">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="L16" t="n">
-        <v>0.003909500272971655</v>
+        <v>0.00489062152913744</v>
       </c>
       <c r="M16" t="n">
-        <v>7.407343442755868</v>
+        <v>7.428196562191006</v>
       </c>
       <c r="N16" t="n">
-        <v>91.92924606856127</v>
+        <v>92.35391427820501</v>
       </c>
       <c r="O16" t="n">
-        <v>9.587974033577755</v>
+        <v>9.610094394864444</v>
       </c>
       <c r="P16" t="n">
-        <v>329.2947151754087</v>
+        <v>329.1928818550264</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -28534,28 +28615,28 @@
         <v>0.1031</v>
       </c>
       <c r="I17" t="n">
-        <v>0.1536903431023647</v>
+        <v>0.1620213683758423</v>
       </c>
       <c r="J17" t="n">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="K17" t="n">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="L17" t="n">
-        <v>0.01081147084834699</v>
+        <v>0.01203202941872872</v>
       </c>
       <c r="M17" t="n">
-        <v>8.493318251936241</v>
+        <v>8.506144371928308</v>
       </c>
       <c r="N17" t="n">
-        <v>114.0891475166719</v>
+        <v>114.2188804272116</v>
       </c>
       <c r="O17" t="n">
-        <v>10.68125215116055</v>
+        <v>10.68732335185998</v>
       </c>
       <c r="P17" t="n">
-        <v>330.6464769452449</v>
+        <v>330.5601980396663</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -28612,28 +28693,28 @@
         <v>0.1249</v>
       </c>
       <c r="I18" t="n">
-        <v>0.1725774236450179</v>
+        <v>0.1793402244314508</v>
       </c>
       <c r="J18" t="n">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="K18" t="n">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="L18" t="n">
-        <v>0.01490689703466519</v>
+        <v>0.01614487551261845</v>
       </c>
       <c r="M18" t="n">
-        <v>7.915715953933212</v>
+        <v>7.922328979889436</v>
       </c>
       <c r="N18" t="n">
-        <v>103.6880772001912</v>
+        <v>103.6687715445773</v>
       </c>
       <c r="O18" t="n">
-        <v>10.18273426934982</v>
+        <v>10.18178626492313</v>
       </c>
       <c r="P18" t="n">
-        <v>327.6690986641327</v>
+        <v>327.5995622653472</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
@@ -28690,28 +28771,28 @@
         <v>0.0973</v>
       </c>
       <c r="I19" t="n">
-        <v>0.197615559730229</v>
+        <v>0.2010221846839249</v>
       </c>
       <c r="J19" t="n">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="K19" t="n">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="L19" t="n">
-        <v>0.01455980477875263</v>
+        <v>0.01515832238270165</v>
       </c>
       <c r="M19" t="n">
-        <v>9.501496838665496</v>
+        <v>9.483574073082597</v>
       </c>
       <c r="N19" t="n">
-        <v>138.9750316965601</v>
+        <v>138.5921520604637</v>
       </c>
       <c r="O19" t="n">
-        <v>11.78876718306711</v>
+        <v>11.77251681079554</v>
       </c>
       <c r="P19" t="n">
-        <v>326.0103000496996</v>
+        <v>325.9751899997807</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">
@@ -28768,28 +28849,28 @@
         <v>0.1034</v>
       </c>
       <c r="I20" t="n">
-        <v>0.1613000384747775</v>
+        <v>0.166137574798599</v>
       </c>
       <c r="J20" t="n">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="K20" t="n">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="L20" t="n">
-        <v>0.01024815190636674</v>
+        <v>0.01093064466080462</v>
       </c>
       <c r="M20" t="n">
-        <v>9.342996798241828</v>
+        <v>9.333792639805482</v>
       </c>
       <c r="N20" t="n">
-        <v>132.8641521008661</v>
+        <v>132.5794043633061</v>
       </c>
       <c r="O20" t="n">
-        <v>11.52667133655099</v>
+        <v>11.51431302177017</v>
       </c>
       <c r="P20" t="n">
-        <v>327.499354612114</v>
+        <v>327.4495196654037</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr">
@@ -28846,28 +28927,28 @@
         <v>0.08309999999999999</v>
       </c>
       <c r="I21" t="n">
-        <v>0.2988044853952353</v>
+        <v>0.3015126599375286</v>
       </c>
       <c r="J21" t="n">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="K21" t="n">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="L21" t="n">
-        <v>0.02526257893881156</v>
+        <v>0.02589303880365856</v>
       </c>
       <c r="M21" t="n">
-        <v>10.36633325505266</v>
+        <v>10.34188439638547</v>
       </c>
       <c r="N21" t="n">
-        <v>182.1542399113536</v>
+        <v>181.5688140939415</v>
       </c>
       <c r="O21" t="n">
-        <v>13.49645286404371</v>
+        <v>13.47474727384308</v>
       </c>
       <c r="P21" t="n">
-        <v>323.1262394423251</v>
+        <v>323.0983616676147</v>
       </c>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr">
@@ -28924,28 +29005,28 @@
         <v>0.0873</v>
       </c>
       <c r="I22" t="n">
-        <v>0.2089427275177027</v>
+        <v>0.2122480261033893</v>
       </c>
       <c r="J22" t="n">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="K22" t="n">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="L22" t="n">
-        <v>0.01547998312840071</v>
+        <v>0.01608837080922043</v>
       </c>
       <c r="M22" t="n">
-        <v>9.449112661833254</v>
+        <v>9.427846409351075</v>
       </c>
       <c r="N22" t="n">
-        <v>146.0167706731902</v>
+        <v>145.5226163781963</v>
       </c>
       <c r="O22" t="n">
-        <v>12.08373992906129</v>
+        <v>12.06327552442521</v>
       </c>
       <c r="P22" t="n">
-        <v>328.572750100135</v>
+        <v>328.538513455553</v>
       </c>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr">
@@ -28983,7 +29064,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W336"/>
+  <dimension ref="A1:W337"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -64283,11 +64364,7 @@
           <t>2025-05-30 22:05:30+00:00</t>
         </is>
       </c>
-      <c r="B335" t="inlineStr">
-        <is>
-          <t>-36.70711765012007,175.6085246836036</t>
-        </is>
-      </c>
+      <c r="B335" t="inlineStr"/>
       <c r="C335" t="inlineStr">
         <is>
           <t>-36.70756624326927,175.60928083495114</t>
@@ -64506,6 +64583,119 @@
         </is>
       </c>
       <c r="W336" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-23 22:05:42+00:00</t>
+        </is>
+      </c>
+      <c r="B337" t="inlineStr"/>
+      <c r="C337" t="inlineStr">
+        <is>
+          <t>-36.70750517160705,175.60938489549602</t>
+        </is>
+      </c>
+      <c r="D337" t="inlineStr">
+        <is>
+          <t>-36.70804204446044,175.6099906170164</t>
+        </is>
+      </c>
+      <c r="E337" t="inlineStr">
+        <is>
+          <t>-36.708490597810226,175.6107468175265</t>
+        </is>
+      </c>
+      <c r="F337" t="inlineStr">
+        <is>
+          <t>-36.70913817827157,175.6111907630634</t>
+        </is>
+      </c>
+      <c r="G337" t="inlineStr">
+        <is>
+          <t>-36.70974556846466,175.61172636748097</t>
+        </is>
+      </c>
+      <c r="H337" t="inlineStr">
+        <is>
+          <t>-36.71031028320193,175.61230466839635</t>
+        </is>
+      </c>
+      <c r="I337" t="inlineStr">
+        <is>
+          <t>-36.71087550986054,175.61286430950523</t>
+        </is>
+      </c>
+      <c r="J337" t="inlineStr">
+        <is>
+          <t>-36.71136076521006,175.61355520336372</t>
+        </is>
+      </c>
+      <c r="K337" t="inlineStr">
+        <is>
+          <t>-36.711834963562815,175.61427487179697</t>
+        </is>
+      </c>
+      <c r="L337" t="inlineStr">
+        <is>
+          <t>-36.71226396280691,175.61502038387175</t>
+        </is>
+      </c>
+      <c r="M337" t="inlineStr">
+        <is>
+          <t>-36.71269177529124,175.6157475065122</t>
+        </is>
+      </c>
+      <c r="N337" t="inlineStr">
+        <is>
+          <t>-36.71315571088449,175.6164480370075</t>
+        </is>
+      </c>
+      <c r="O337" t="inlineStr">
+        <is>
+          <t>-36.71356590712045,175.61719667525756</t>
+        </is>
+      </c>
+      <c r="P337" t="inlineStr">
+        <is>
+          <t>-36.71393574057814,175.61796978064123</t>
+        </is>
+      </c>
+      <c r="Q337" t="inlineStr">
+        <is>
+          <t>-36.714355462125134,175.6187076476028</t>
+        </is>
+      </c>
+      <c r="R337" t="inlineStr">
+        <is>
+          <t>-36.71476533828615,175.61945799875974</t>
+        </is>
+      </c>
+      <c r="S337" t="inlineStr">
+        <is>
+          <t>-36.71517673451884,175.6202005418688</t>
+        </is>
+      </c>
+      <c r="T337" t="inlineStr">
+        <is>
+          <t>-36.715523818419314,175.62099607912276</t>
+        </is>
+      </c>
+      <c r="U337" t="inlineStr">
+        <is>
+          <t>-36.71588424482097,175.62178527224683</t>
+        </is>
+      </c>
+      <c r="V337" t="inlineStr">
+        <is>
+          <t>-36.71617781610829,175.62260635667772</t>
+        </is>
+      </c>
+      <c r="W337" t="inlineStr">
         <is>
           <t>L9</t>
         </is>

--- a/data/nzd0154/nzd0154.xlsx
+++ b/data/nzd0154/nzd0154.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W337"/>
+  <dimension ref="A1:W339"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23853,6 +23853,156 @@
         </is>
       </c>
     </row>
+    <row r="338">
+      <c r="A338" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-02 22:05:57+00:00</t>
+        </is>
+      </c>
+      <c r="B338" t="n">
+        <v>270.89</v>
+      </c>
+      <c r="C338" t="n">
+        <v>274.3533333333333</v>
+      </c>
+      <c r="D338" t="n">
+        <v>275.7318181818182</v>
+      </c>
+      <c r="E338" t="n">
+        <v>288.36</v>
+      </c>
+      <c r="F338" t="n">
+        <v>300.1518181818182</v>
+      </c>
+      <c r="G338" t="n">
+        <v>292.515</v>
+      </c>
+      <c r="H338" t="n">
+        <v>289.3666666666667</v>
+      </c>
+      <c r="I338" t="n">
+        <v>292.91</v>
+      </c>
+      <c r="J338" t="n">
+        <v>303.2139130434783</v>
+      </c>
+      <c r="K338" t="n">
+        <v>310.03</v>
+      </c>
+      <c r="L338" t="n">
+        <v>313.48</v>
+      </c>
+      <c r="M338" t="n">
+        <v>317.2694117647059</v>
+      </c>
+      <c r="N338" t="n">
+        <v>321.8594736842105</v>
+      </c>
+      <c r="O338" t="n">
+        <v>325.4066666666667</v>
+      </c>
+      <c r="P338" t="n">
+        <v>325.5566666666667</v>
+      </c>
+      <c r="Q338" t="n">
+        <v>328.1966666666667</v>
+      </c>
+      <c r="R338" t="n">
+        <v>322.6</v>
+      </c>
+      <c r="S338" t="n">
+        <v>323.3594117647058</v>
+      </c>
+      <c r="T338" t="n">
+        <v>319.2866666666667</v>
+      </c>
+      <c r="U338" t="n">
+        <v>318.73</v>
+      </c>
+      <c r="V338" t="n">
+        <v>320.27</v>
+      </c>
+      <c r="W338" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-10 22:06:04+00:00</t>
+        </is>
+      </c>
+      <c r="B339" t="n">
+        <v>266.89</v>
+      </c>
+      <c r="C339" t="n">
+        <v>282.6333333333333</v>
+      </c>
+      <c r="D339" t="n">
+        <v>284.4036363636364</v>
+      </c>
+      <c r="E339" t="n">
+        <v>292.84</v>
+      </c>
+      <c r="F339" t="n">
+        <v>303.2036363636363</v>
+      </c>
+      <c r="G339" t="n">
+        <v>291.61</v>
+      </c>
+      <c r="H339" t="n">
+        <v>294.2066666666667</v>
+      </c>
+      <c r="I339" t="n">
+        <v>293.3657142857143</v>
+      </c>
+      <c r="J339" t="n">
+        <v>305.1069565217391</v>
+      </c>
+      <c r="K339" t="n">
+        <v>313.5457142857143</v>
+      </c>
+      <c r="L339" t="n">
+        <v>312.5757142857143</v>
+      </c>
+      <c r="M339" t="n">
+        <v>321.8035294117647</v>
+      </c>
+      <c r="N339" t="n">
+        <v>324.1963157894737</v>
+      </c>
+      <c r="O339" t="n">
+        <v>325.9566666666667</v>
+      </c>
+      <c r="P339" t="n">
+        <v>328.5466666666667</v>
+      </c>
+      <c r="Q339" t="n">
+        <v>327.7766666666667</v>
+      </c>
+      <c r="R339" t="n">
+        <v>323.9657142857143</v>
+      </c>
+      <c r="S339" t="n">
+        <v>326.5135294117647</v>
+      </c>
+      <c r="T339" t="n">
+        <v>323.7866666666667</v>
+      </c>
+      <c r="U339" t="n">
+        <v>322.81</v>
+      </c>
+      <c r="V339" t="n">
+        <v>325.88</v>
+      </c>
+      <c r="W339" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -23864,7 +24014,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B340"/>
+  <dimension ref="A1:B342"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27272,6 +27422,26 @@
       </c>
       <c r="B340" t="n">
         <v>-0.89</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>2025-08-02 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B341" t="n">
+        <v>-0.21</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>2025-08-10 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B342" t="n">
+        <v>0.24</v>
       </c>
     </row>
   </sheetData>
@@ -27445,28 +27615,28 @@
         <v>0.026</v>
       </c>
       <c r="I2" t="n">
-        <v>0.5356599398656723</v>
+        <v>0.4959163232264749</v>
       </c>
       <c r="J2" t="n">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="K2" t="n">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="L2" t="n">
-        <v>0.02756811523490721</v>
+        <v>0.02384441448559893</v>
       </c>
       <c r="M2" t="n">
-        <v>19.03186084181755</v>
+        <v>19.09911536139978</v>
       </c>
       <c r="N2" t="n">
-        <v>547.3937860812293</v>
+        <v>548.8097429002485</v>
       </c>
       <c r="O2" t="n">
-        <v>23.39644815097431</v>
+        <v>23.42668868833682</v>
       </c>
       <c r="P2" t="n">
-        <v>282.2710922120049</v>
+        <v>282.683732084525</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -27523,28 +27693,28 @@
         <v>0.054</v>
       </c>
       <c r="I3" t="n">
-        <v>0.3442376703528806</v>
+        <v>0.3221626596304017</v>
       </c>
       <c r="J3" t="n">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="K3" t="n">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="L3" t="n">
-        <v>0.02454238485263238</v>
+        <v>0.0217212652455766</v>
       </c>
       <c r="M3" t="n">
-        <v>12.64497559647815</v>
+        <v>12.67487051578584</v>
       </c>
       <c r="N3" t="n">
-        <v>246.971648992065</v>
+        <v>246.9738497729609</v>
       </c>
       <c r="O3" t="n">
-        <v>15.7153316538998</v>
+        <v>15.71540167392997</v>
       </c>
       <c r="P3" t="n">
-        <v>284.8668661751102</v>
+        <v>285.1017294459391</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -27601,28 +27771,28 @@
         <v>0.0626</v>
       </c>
       <c r="I4" t="n">
-        <v>0.426151318838577</v>
+        <v>0.4057314194755393</v>
       </c>
       <c r="J4" t="n">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="K4" t="n">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="L4" t="n">
-        <v>0.06467653157506414</v>
+        <v>0.05913961289766989</v>
       </c>
       <c r="M4" t="n">
-        <v>9.591501527100228</v>
+        <v>9.637606558723039</v>
       </c>
       <c r="N4" t="n">
-        <v>140.3557646568702</v>
+        <v>141.0340123161533</v>
       </c>
       <c r="O4" t="n">
-        <v>11.84718382810321</v>
+        <v>11.87577417754958</v>
       </c>
       <c r="P4" t="n">
-        <v>283.9218399967677</v>
+        <v>284.1341172223796</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -27679,28 +27849,28 @@
         <v>0.068</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4464902319544687</v>
+        <v>0.4246949840090722</v>
       </c>
       <c r="J5" t="n">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="K5" t="n">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="L5" t="n">
-        <v>0.08198614546407068</v>
+        <v>0.07471983016009665</v>
       </c>
       <c r="M5" t="n">
-        <v>8.898959309255803</v>
+        <v>8.950651960750807</v>
       </c>
       <c r="N5" t="n">
-        <v>120.9271695388946</v>
+        <v>121.8851617169455</v>
       </c>
       <c r="O5" t="n">
-        <v>10.99668902619759</v>
+        <v>11.04016130846581</v>
       </c>
       <c r="P5" t="n">
-        <v>294.9672145685263</v>
+        <v>295.1935057701959</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -27757,28 +27927,28 @@
         <v>0.2</v>
       </c>
       <c r="I6" t="n">
-        <v>0.335165706046457</v>
+        <v>0.3194829361021528</v>
       </c>
       <c r="J6" t="n">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="K6" t="n">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="L6" t="n">
-        <v>0.05956107965363533</v>
+        <v>0.05467055067480497</v>
       </c>
       <c r="M6" t="n">
-        <v>7.936559917682046</v>
+        <v>7.953986818854158</v>
       </c>
       <c r="N6" t="n">
-        <v>95.65417020965596</v>
+        <v>95.89591313818137</v>
       </c>
       <c r="O6" t="n">
-        <v>9.780294996044647</v>
+        <v>9.792645870150793</v>
       </c>
       <c r="P6" t="n">
-        <v>304.3519018725696</v>
+        <v>304.5146767337894</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -27835,28 +28005,28 @@
         <v>0.0878</v>
       </c>
       <c r="I7" t="n">
-        <v>0.2266038641309202</v>
+        <v>0.2109729078286288</v>
       </c>
       <c r="J7" t="n">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="K7" t="n">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="L7" t="n">
-        <v>0.03360118642494969</v>
+        <v>0.02932750565667375</v>
       </c>
       <c r="M7" t="n">
-        <v>7.044043695205302</v>
+        <v>7.082392119485773</v>
       </c>
       <c r="N7" t="n">
-        <v>79.93353397452842</v>
+        <v>80.34311626201711</v>
       </c>
       <c r="O7" t="n">
-        <v>8.940555574153567</v>
+        <v>8.963432169767175</v>
       </c>
       <c r="P7" t="n">
-        <v>298.2074293568663</v>
+        <v>298.3670128290503</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -27913,28 +28083,28 @@
         <v>0.0982</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1970352425700645</v>
+        <v>0.184338880999402</v>
       </c>
       <c r="J8" t="n">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="K8" t="n">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="L8" t="n">
-        <v>0.02525830555686936</v>
+        <v>0.02232909428637775</v>
       </c>
       <c r="M8" t="n">
-        <v>6.970071513041437</v>
+        <v>6.98698981560286</v>
       </c>
       <c r="N8" t="n">
-        <v>79.63744229335802</v>
+        <v>79.72677612073016</v>
       </c>
       <c r="O8" t="n">
-        <v>8.923981302835525</v>
+        <v>8.928985167460532</v>
       </c>
       <c r="P8" t="n">
-        <v>296.0915101050377</v>
+        <v>296.2220563464482</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -27991,28 +28161,28 @@
         <v>0.1193</v>
       </c>
       <c r="I9" t="n">
-        <v>0.2386197569896752</v>
+        <v>0.2218283820396358</v>
       </c>
       <c r="J9" t="n">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="K9" t="n">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="L9" t="n">
-        <v>0.03479578975067155</v>
+        <v>0.03027689974367587</v>
       </c>
       <c r="M9" t="n">
-        <v>7.140519979222842</v>
+        <v>7.180435280255792</v>
       </c>
       <c r="N9" t="n">
-        <v>84.48284393552593</v>
+        <v>84.96516489420388</v>
       </c>
       <c r="O9" t="n">
-        <v>9.191454941168233</v>
+        <v>9.217655064830963</v>
       </c>
       <c r="P9" t="n">
-        <v>299.5946573290034</v>
+        <v>299.7670949835999</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -28069,28 +28239,28 @@
         <v>0.1376</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1885473142273493</v>
+        <v>0.1732767947220044</v>
       </c>
       <c r="J10" t="n">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="K10" t="n">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="L10" t="n">
-        <v>0.02515778278156477</v>
+        <v>0.02138783708704917</v>
       </c>
       <c r="M10" t="n">
-        <v>6.709244265390266</v>
+        <v>6.739924963751768</v>
       </c>
       <c r="N10" t="n">
-        <v>73.95357261502788</v>
+        <v>74.33096905212133</v>
       </c>
       <c r="O10" t="n">
-        <v>8.59962630670821</v>
+        <v>8.62154099057247</v>
       </c>
       <c r="P10" t="n">
-        <v>310.7566810103186</v>
+        <v>310.9133462576236</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -28147,28 +28317,28 @@
         <v>0.1174</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1127192247964972</v>
+        <v>0.09859858684278104</v>
       </c>
       <c r="J11" t="n">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="K11" t="n">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="L11" t="n">
-        <v>0.009417515147373434</v>
+        <v>0.007245038888266442</v>
       </c>
       <c r="M11" t="n">
-        <v>6.449984648113348</v>
+        <v>6.483331896111208</v>
       </c>
       <c r="N11" t="n">
-        <v>71.19291033777952</v>
+        <v>71.49635311447604</v>
       </c>
       <c r="O11" t="n">
-        <v>8.437589130656903</v>
+        <v>8.455551615032341</v>
       </c>
       <c r="P11" t="n">
-        <v>319.6432122334427</v>
+        <v>319.7896124082779</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -28225,28 +28395,28 @@
         <v>0.1204</v>
       </c>
       <c r="I12" t="n">
-        <v>0.1807871141253847</v>
+        <v>0.1646612213330832</v>
       </c>
       <c r="J12" t="n">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="K12" t="n">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="L12" t="n">
-        <v>0.02515126386902</v>
+        <v>0.02094046795074944</v>
       </c>
       <c r="M12" t="n">
-        <v>6.306957113292416</v>
+        <v>6.346115498084685</v>
       </c>
       <c r="N12" t="n">
-        <v>67.92213321097611</v>
+        <v>68.47429007047023</v>
       </c>
       <c r="O12" t="n">
-        <v>8.241488531265217</v>
+        <v>8.27491933921233</v>
       </c>
       <c r="P12" t="n">
-        <v>320.7708056311033</v>
+        <v>320.9372729777173</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -28303,28 +28473,28 @@
         <v>0.0939</v>
       </c>
       <c r="I13" t="n">
-        <v>0.1140520132781564</v>
+        <v>0.1027853461115524</v>
       </c>
       <c r="J13" t="n">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="K13" t="n">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="L13" t="n">
-        <v>0.008653380659859322</v>
+        <v>0.007091355925389342</v>
       </c>
       <c r="M13" t="n">
-        <v>7.01109404586463</v>
+        <v>7.022552141551074</v>
       </c>
       <c r="N13" t="n">
-        <v>80.76995116716203</v>
+        <v>80.77153914632882</v>
       </c>
       <c r="O13" t="n">
-        <v>8.987210421880754</v>
+        <v>8.987298768057553</v>
       </c>
       <c r="P13" t="n">
-        <v>325.3655006032046</v>
+        <v>325.480776353824</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -28381,28 +28551,28 @@
         <v>0.1032</v>
       </c>
       <c r="I14" t="n">
-        <v>0.1883652424983468</v>
+        <v>0.1750764130500033</v>
       </c>
       <c r="J14" t="n">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="K14" t="n">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="L14" t="n">
-        <v>0.02232190558810854</v>
+        <v>0.01946224333641566</v>
       </c>
       <c r="M14" t="n">
-        <v>7.227726256938703</v>
+        <v>7.249250802055164</v>
       </c>
       <c r="N14" t="n">
-        <v>83.14318004940849</v>
+        <v>83.25644910919526</v>
       </c>
       <c r="O14" t="n">
-        <v>9.118288219255218</v>
+        <v>9.124497197610138</v>
       </c>
       <c r="P14" t="n">
-        <v>328.1639334688297</v>
+        <v>328.3009890427105</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -28459,28 +28629,28 @@
         <v>0.099</v>
       </c>
       <c r="I15" t="n">
-        <v>0.1793835635130008</v>
+        <v>0.1704908374681715</v>
       </c>
       <c r="J15" t="n">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="K15" t="n">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="L15" t="n">
-        <v>0.0178014695774108</v>
+        <v>0.01628733303019392</v>
       </c>
       <c r="M15" t="n">
-        <v>7.717819574309911</v>
+        <v>7.712552641832849</v>
       </c>
       <c r="N15" t="n">
-        <v>95.13878005592842</v>
+        <v>94.79567092447311</v>
       </c>
       <c r="O15" t="n">
-        <v>9.753911013328368</v>
+        <v>9.736306842148778</v>
       </c>
       <c r="P15" t="n">
-        <v>327.7072523314578</v>
+        <v>327.7989992020696</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -28537,28 +28707,28 @@
         <v>0.1029</v>
       </c>
       <c r="I16" t="n">
-        <v>0.09236055636550719</v>
+        <v>0.08639525917090013</v>
       </c>
       <c r="J16" t="n">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="K16" t="n">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="L16" t="n">
-        <v>0.00489062152913744</v>
+        <v>0.004335562634083523</v>
       </c>
       <c r="M16" t="n">
-        <v>7.428196562191006</v>
+        <v>7.41094929775025</v>
       </c>
       <c r="N16" t="n">
-        <v>92.35391427820501</v>
+        <v>91.8912190987467</v>
       </c>
       <c r="O16" t="n">
-        <v>9.610094394864444</v>
+        <v>9.585990772932483</v>
       </c>
       <c r="P16" t="n">
-        <v>329.1928818550264</v>
+        <v>329.2548183713336</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -28615,28 +28785,28 @@
         <v>0.1031</v>
       </c>
       <c r="I17" t="n">
-        <v>0.1620213683758423</v>
+        <v>0.152992459475715</v>
       </c>
       <c r="J17" t="n">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="K17" t="n">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="L17" t="n">
-        <v>0.01203202941872872</v>
+        <v>0.01086663934120213</v>
       </c>
       <c r="M17" t="n">
-        <v>8.506144371928308</v>
+        <v>8.494175580200569</v>
       </c>
       <c r="N17" t="n">
-        <v>114.2188804272116</v>
+        <v>113.757575289309</v>
       </c>
       <c r="O17" t="n">
-        <v>10.68732335185998</v>
+        <v>10.66571963297878</v>
       </c>
       <c r="P17" t="n">
-        <v>330.5601980396663</v>
+        <v>330.6542171877982</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -28693,28 +28863,28 @@
         <v>0.1249</v>
       </c>
       <c r="I18" t="n">
-        <v>0.1793402244314508</v>
+        <v>0.1672447840492008</v>
       </c>
       <c r="J18" t="n">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="K18" t="n">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="L18" t="n">
-        <v>0.01614487551261845</v>
+        <v>0.01420325672111566</v>
       </c>
       <c r="M18" t="n">
-        <v>7.922328979889436</v>
+        <v>7.92869666877039</v>
       </c>
       <c r="N18" t="n">
-        <v>103.6687715445773</v>
+        <v>103.5080413960965</v>
       </c>
       <c r="O18" t="n">
-        <v>10.18178626492313</v>
+        <v>10.17389018006861</v>
       </c>
       <c r="P18" t="n">
-        <v>327.5995622653472</v>
+        <v>327.724589195206</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
@@ -28771,28 +28941,28 @@
         <v>0.0973</v>
       </c>
       <c r="I19" t="n">
-        <v>0.2010221846839249</v>
+        <v>0.1925827048024019</v>
       </c>
       <c r="J19" t="n">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="K19" t="n">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="L19" t="n">
-        <v>0.01515832238270165</v>
+        <v>0.01410456105165847</v>
       </c>
       <c r="M19" t="n">
-        <v>9.483574073082597</v>
+        <v>9.468427705852084</v>
       </c>
       <c r="N19" t="n">
-        <v>138.5921520604637</v>
+        <v>137.9417886555861</v>
       </c>
       <c r="O19" t="n">
-        <v>11.77251681079554</v>
+        <v>11.74486222378049</v>
       </c>
       <c r="P19" t="n">
-        <v>325.9751899997807</v>
+        <v>326.0626246194978</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">
@@ -28849,28 +29019,28 @@
         <v>0.1034</v>
       </c>
       <c r="I20" t="n">
-        <v>0.166137574798599</v>
+        <v>0.152266166773687</v>
       </c>
       <c r="J20" t="n">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="K20" t="n">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="L20" t="n">
-        <v>0.01093064466080462</v>
+        <v>0.009281513456848134</v>
       </c>
       <c r="M20" t="n">
-        <v>9.333792639805482</v>
+        <v>9.342538176630267</v>
       </c>
       <c r="N20" t="n">
-        <v>132.5794043633061</v>
+        <v>132.4107910745143</v>
       </c>
       <c r="O20" t="n">
-        <v>11.51431302177017</v>
+        <v>11.50698879266484</v>
       </c>
       <c r="P20" t="n">
-        <v>327.4495196654037</v>
+        <v>327.5931775969515</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr">
@@ -28927,28 +29097,28 @@
         <v>0.08309999999999999</v>
       </c>
       <c r="I21" t="n">
-        <v>0.3015126599375286</v>
+        <v>0.2873727945399139</v>
       </c>
       <c r="J21" t="n">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="K21" t="n">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="L21" t="n">
-        <v>0.02589303880365856</v>
+        <v>0.0238324125333641</v>
       </c>
       <c r="M21" t="n">
-        <v>10.34188439638547</v>
+        <v>10.34803910662841</v>
       </c>
       <c r="N21" t="n">
-        <v>181.5688140939415</v>
+        <v>181.0412288719569</v>
       </c>
       <c r="O21" t="n">
-        <v>13.47474727384308</v>
+        <v>13.45515621878679</v>
       </c>
       <c r="P21" t="n">
-        <v>323.0983616676147</v>
+        <v>323.2446893031224</v>
       </c>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr">
@@ -29005,28 +29175,28 @@
         <v>0.0873</v>
       </c>
       <c r="I22" t="n">
-        <v>0.2122480261033893</v>
+        <v>0.1954589171795514</v>
       </c>
       <c r="J22" t="n">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="K22" t="n">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="L22" t="n">
-        <v>0.01608837080922043</v>
+        <v>0.01381054360002898</v>
       </c>
       <c r="M22" t="n">
-        <v>9.427846409351075</v>
+        <v>9.445809517891794</v>
       </c>
       <c r="N22" t="n">
-        <v>145.5226163781963</v>
+        <v>145.3716483792512</v>
       </c>
       <c r="O22" t="n">
-        <v>12.06327552442521</v>
+        <v>12.05701656212063</v>
       </c>
       <c r="P22" t="n">
-        <v>328.538513455553</v>
+        <v>328.713337576049</v>
       </c>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr">
@@ -29064,7 +29234,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W337"/>
+  <dimension ref="A1:W339"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -64701,6 +64871,240 @@
         </is>
       </c>
     </row>
+    <row r="338">
+      <c r="A338" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-02 22:05:57+00:00</t>
+        </is>
+      </c>
+      <c r="B338" t="inlineStr">
+        <is>
+          <t>-36.70700663944223,175.60871383680973</t>
+        </is>
+      </c>
+      <c r="C338" t="inlineStr">
+        <is>
+          <t>-36.70757738686324,175.60926184724914</t>
+        </is>
+      </c>
+      <c r="D338" t="inlineStr">
+        <is>
+          <t>-36.70815919282926,175.6097910071726</t>
+        </is>
+      </c>
+      <c r="E338" t="inlineStr">
+        <is>
+          <t>-36.70868129735238,175.6104218851302</t>
+        </is>
+      </c>
+      <c r="F338" t="inlineStr">
+        <is>
+          <t>-36.70922147921441,175.61105780959934</t>
+        </is>
+      </c>
+      <c r="G338" t="inlineStr">
+        <is>
+          <t>-36.70984996898727,175.61157681929552</t>
+        </is>
+      </c>
+      <c r="H338" t="inlineStr">
+        <is>
+          <t>-36.71042084760587,175.61215301654744</t>
+        </is>
+      </c>
+      <c r="I338" t="inlineStr">
+        <is>
+          <t>-36.710941384041796,175.61277395559424</t>
+        </is>
+      </c>
+      <c r="J338" t="inlineStr">
+        <is>
+          <t>-36.71143175133706,175.61346322344983</t>
+        </is>
+      </c>
+      <c r="K338" t="inlineStr">
+        <is>
+          <t>-36.71192461403247,175.6141740632819</t>
+        </is>
+      </c>
+      <c r="L338" t="inlineStr">
+        <is>
+          <t>-36.71238301163246,175.61489747608624</t>
+        </is>
+      </c>
+      <c r="M338" t="inlineStr">
+        <is>
+          <t>-36.71282861111559,175.61560871972955</t>
+        </is>
+      </c>
+      <c r="N338" t="inlineStr">
+        <is>
+          <t>-36.71326549073464,175.61634596190652</t>
+        </is>
+      </c>
+      <c r="O338" t="inlineStr">
+        <is>
+          <t>-36.71366819481409,175.6171080365052</t>
+        </is>
+      </c>
+      <c r="P338" t="inlineStr">
+        <is>
+          <t>-36.71408915620963,175.61783683713873</t>
+        </is>
+      </c>
+      <c r="Q338" t="inlineStr">
+        <is>
+          <t>-36.71449898544201,175.61859481564719</t>
+        </is>
+      </c>
+      <c r="R338" t="inlineStr">
+        <is>
+          <t>-36.71491804569488,175.61935027790815</t>
+        </is>
+      </c>
+      <c r="S338" t="inlineStr">
+        <is>
+          <t>-36.715277091331124,175.62013022660892</t>
+        </is>
+      </c>
+      <c r="T338" t="inlineStr">
+        <is>
+          <t>-36.71567917645264,175.62089507980454</t>
+        </is>
+      </c>
+      <c r="U338" t="inlineStr">
+        <is>
+          <t>-36.71601415128065,175.6217076088321</t>
+        </is>
+      </c>
+      <c r="V338" t="inlineStr">
+        <is>
+          <t>-36.716324029807254,175.6225194329789</t>
+        </is>
+      </c>
+      <c r="W338" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-10 22:06:04+00:00</t>
+        </is>
+      </c>
+      <c r="B339" t="inlineStr">
+        <is>
+          <t>-36.70702786521499,175.6086776698915</t>
+        </is>
+      </c>
+      <c r="C339" t="inlineStr">
+        <is>
+          <t>-36.70753344924768,175.60933671301316</t>
+        </is>
+      </c>
+      <c r="D339" t="inlineStr">
+        <is>
+          <t>-36.7081131758064,175.60986941600493</t>
+        </is>
+      </c>
+      <c r="E339" t="inlineStr">
+        <is>
+          <t>-36.708657524075655,175.61046239251368</t>
+        </is>
+      </c>
+      <c r="F339" t="inlineStr">
+        <is>
+          <t>-36.70920459471496,175.6110847583476</t>
+        </is>
+      </c>
+      <c r="G339" t="inlineStr">
+        <is>
+          <t>-36.709855309992946,175.61156916857186</t>
+        </is>
+      </c>
+      <c r="H339" t="inlineStr">
+        <is>
+          <t>-36.71039158057509,175.61219315972647</t>
+        </is>
+      </c>
+      <c r="I339" t="inlineStr">
+        <is>
+          <t>-36.71093862836742,175.61277773531904</t>
+        </is>
+      </c>
+      <c r="J339" t="inlineStr">
+        <is>
+          <t>-36.71141995013514,175.613478514815</t>
+        </is>
+      </c>
+      <c r="K339" t="inlineStr">
+        <is>
+          <t>-36.711901134457925,175.61420046519402</t>
+        </is>
+      </c>
+      <c r="L339" t="inlineStr">
+        <is>
+          <t>-36.712389276488786,175.61489100814129</t>
+        </is>
+      </c>
+      <c r="M339" t="inlineStr">
+        <is>
+          <t>-36.712796972692715,175.61564080929867</t>
+        </is>
+      </c>
+      <c r="N339" t="inlineStr">
+        <is>
+          <t>-36.71324863773733,175.6163616321225</t>
+        </is>
+      </c>
+      <c r="O339" t="inlineStr">
+        <is>
+          <t>-36.71366413121901,175.61711155787253</t>
+        </is>
+      </c>
+      <c r="P339" t="inlineStr">
+        <is>
+          <t>-36.71406706495787,175.6178559805229</t>
+        </is>
+      </c>
+      <c r="Q339" t="inlineStr">
+        <is>
+          <t>-36.71450218255414,175.6185923022075</t>
+        </is>
+      </c>
+      <c r="R339" t="inlineStr">
+        <is>
+          <t>-36.71490734718898,175.61935782472293</t>
+        </is>
+      </c>
+      <c r="S339" t="inlineStr">
+        <is>
+          <t>-36.71525234253127,175.62014756693833</t>
+        </is>
+      </c>
+      <c r="T339" t="inlineStr">
+        <is>
+          <t>-36.715643259114984,175.62091842995017</t>
+        </is>
+      </c>
+      <c r="U339" t="inlineStr">
+        <is>
+          <t>-36.71598103203735,175.62172740890176</t>
+        </is>
+      </c>
+      <c r="V339" t="inlineStr">
+        <is>
+          <t>-36.71627844299283,175.62254653426984</t>
+        </is>
+      </c>
+      <c r="W339" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0154/nzd0154.xlsx
+++ b/data/nzd0154/nzd0154.xlsx
@@ -27606,13 +27606,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="G2" t="n">
         <v>0.025</v>
       </c>
-      <c r="G2" t="n">
-        <v>0.0199</v>
-      </c>
       <c r="H2" t="n">
-        <v>0.026</v>
+        <v>0.035</v>
       </c>
       <c r="I2" t="n">
         <v>0.4959163232264747</v>
@@ -27684,13 +27684,13 @@
         <v>0.0500118462812575</v>
       </c>
       <c r="F3" t="n">
-        <v>0.045</v>
+        <v>0.06</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0429</v>
+        <v>0.0497</v>
       </c>
       <c r="H3" t="n">
-        <v>0.054</v>
+        <v>0.0706</v>
       </c>
       <c r="I3" t="n">
         <v>0.3221944466295729</v>
@@ -27762,13 +27762,13 @@
         <v>0.100023692562515</v>
       </c>
       <c r="F4" t="n">
-        <v>0.055</v>
+        <v>0.125</v>
       </c>
       <c r="G4" t="n">
-        <v>0.051</v>
+        <v>0.08790000000000001</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0626</v>
+        <v>0.2</v>
       </c>
       <c r="I4" t="n">
         <v>0.405705238300852</v>
@@ -27840,13 +27840,13 @@
         <v>0.1500355388433915</v>
       </c>
       <c r="F5" t="n">
-        <v>0.06</v>
+        <v>0.2</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0574</v>
+        <v>0.0669</v>
       </c>
       <c r="H5" t="n">
-        <v>0.068</v>
+        <v>0.2</v>
       </c>
       <c r="I5" t="n">
         <v>0.4247349921919532</v>
@@ -27918,10 +27918,10 @@
         <v>0.2000473851238869</v>
       </c>
       <c r="F6" t="n">
-        <v>0.055</v>
+        <v>0.2</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0259</v>
+        <v>0.08160000000000001</v>
       </c>
       <c r="H6" t="n">
         <v>0.2</v>
@@ -27996,13 +27996,13 @@
         <v>0.2499914366389308</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08</v>
+        <v>0.145</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0731</v>
+        <v>0.0955</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0878</v>
+        <v>0.2</v>
       </c>
       <c r="I7" t="n">
         <v>0.2110021478340535</v>
@@ -28074,13 +28074,13 @@
         <v>0.3000032829200199</v>
       </c>
       <c r="F8" t="n">
-        <v>0.09</v>
+        <v>0.13</v>
       </c>
       <c r="G8" t="n">
-        <v>0.08309999999999999</v>
+        <v>0.1042</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0982</v>
+        <v>0.1823</v>
       </c>
       <c r="I8" t="n">
         <v>0.1843505202982758</v>
@@ -28152,13 +28152,13 @@
         <v>0.3500151292011091</v>
       </c>
       <c r="F9" t="n">
-        <v>0.105</v>
+        <v>0.125</v>
       </c>
       <c r="G9" t="n">
-        <v>0.09329999999999999</v>
+        <v>0.0939</v>
       </c>
       <c r="H9" t="n">
-        <v>0.1193</v>
+        <v>0.1815</v>
       </c>
       <c r="I9" t="n">
         <v>0.221881857125551</v>
@@ -28230,13 +28230,13 @@
         <v>0.4000269754821982</v>
       </c>
       <c r="F10" t="n">
-        <v>0.115</v>
+        <v>0.105</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1016</v>
+        <v>0.0829</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1376</v>
+        <v>0.1413</v>
       </c>
       <c r="I10" t="n">
         <v>0.1732691012702301</v>
@@ -28308,13 +28308,13 @@
         <v>0.449918645429784</v>
       </c>
       <c r="F11" t="n">
-        <v>0.105</v>
+        <v>0.1</v>
       </c>
       <c r="G11" t="n">
-        <v>0.093</v>
+        <v>0.08069999999999999</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1174</v>
+        <v>0.126</v>
       </c>
       <c r="I11" t="n">
         <v>0.09865476826317977</v>
@@ -28386,13 +28386,13 @@
         <v>0.4999304917109452</v>
       </c>
       <c r="F12" t="n">
-        <v>0.105</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0934</v>
+        <v>0.0665</v>
       </c>
       <c r="H12" t="n">
-        <v>0.1204</v>
+        <v>0.1228</v>
       </c>
       <c r="I12" t="n">
         <v>0.1647132884655077</v>
@@ -28464,13 +28464,13 @@
         <v>0.5499423379918025</v>
       </c>
       <c r="F13" t="n">
-        <v>0.08500000000000001</v>
+        <v>0.13</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0791</v>
+        <v>0.0984</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0939</v>
+        <v>0.1816</v>
       </c>
       <c r="I13" t="n">
         <v>0.1027969492953599</v>
@@ -28542,13 +28542,13 @@
         <v>0.5999250689730015</v>
       </c>
       <c r="F14" t="n">
-        <v>0.095</v>
+        <v>0.175</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0851</v>
+        <v>0.119</v>
       </c>
       <c r="H14" t="n">
-        <v>0.1032</v>
+        <v>0.2</v>
       </c>
       <c r="I14" t="n">
         <v>0.1751189743035932</v>
@@ -28620,13 +28620,13 @@
         <v>0.6499369152555161</v>
       </c>
       <c r="F15" t="n">
-        <v>0.09</v>
+        <v>0.14</v>
       </c>
       <c r="G15" t="n">
-        <v>0.079</v>
+        <v>0.104</v>
       </c>
       <c r="H15" t="n">
-        <v>0.099</v>
+        <v>0.2</v>
       </c>
       <c r="I15" t="n">
         <v>0.1705048663251364</v>
@@ -28698,13 +28698,13 @@
         <v>0.6999487615365212</v>
       </c>
       <c r="F16" t="n">
-        <v>0.09</v>
+        <v>0.115</v>
       </c>
       <c r="G16" t="n">
-        <v>0.082</v>
+        <v>0.1003</v>
       </c>
       <c r="H16" t="n">
-        <v>0.1029</v>
+        <v>0.1311</v>
       </c>
       <c r="I16" t="n">
         <v>0.08640424604895904</v>
@@ -28776,13 +28776,13 @@
         <v>0.7499606078175263</v>
       </c>
       <c r="F17" t="n">
-        <v>0.09</v>
+        <v>0.105</v>
       </c>
       <c r="G17" t="n">
-        <v>0.08160000000000001</v>
+        <v>0.0926</v>
       </c>
       <c r="H17" t="n">
-        <v>0.1031</v>
+        <v>0.1205</v>
       </c>
       <c r="I17" t="n">
         <v>0.1529988177609273</v>
@@ -28854,13 +28854,13 @@
         <v>0.799959464611679</v>
       </c>
       <c r="F18" t="n">
-        <v>0.105</v>
+        <v>0.125</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0912</v>
+        <v>0.1057</v>
       </c>
       <c r="H18" t="n">
-        <v>0.1249</v>
+        <v>0.1462</v>
       </c>
       <c r="I18" t="n">
         <v>0.1672931308090357</v>
@@ -28932,13 +28932,13 @@
         <v>0.8499713108932073</v>
       </c>
       <c r="F19" t="n">
-        <v>0.08500000000000001</v>
+        <v>0.125</v>
       </c>
       <c r="G19" t="n">
-        <v>0.076</v>
+        <v>0.107</v>
       </c>
       <c r="H19" t="n">
-        <v>0.0973</v>
+        <v>0.152</v>
       </c>
       <c r="I19" t="n">
         <v>0.1926054785824863</v>
@@ -29010,13 +29010,13 @@
         <v>0.8999831571747358</v>
       </c>
       <c r="F20" t="n">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="G20" t="n">
-        <v>0.07969999999999999</v>
+        <v>0.0818</v>
       </c>
       <c r="H20" t="n">
-        <v>0.1034</v>
+        <v>0.1227</v>
       </c>
       <c r="I20" t="n">
         <v>0.1522755784262224</v>
@@ -29088,13 +29088,13 @@
         <v>0.9499881537185679</v>
       </c>
       <c r="F21" t="n">
-        <v>0.075</v>
+        <v>0.16</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0654</v>
+        <v>0.115</v>
       </c>
       <c r="H21" t="n">
-        <v>0.08309999999999999</v>
+        <v>0.2</v>
       </c>
       <c r="I21" t="n">
         <v>0.2873269287828954</v>
@@ -29166,13 +29166,13 @@
         <v>1</v>
       </c>
       <c r="F22" t="n">
-        <v>0.075</v>
+        <v>0.105</v>
       </c>
       <c r="G22" t="n">
-        <v>0.06560000000000001</v>
+        <v>0.0772</v>
       </c>
       <c r="H22" t="n">
-        <v>0.0873</v>
+        <v>0.1578</v>
       </c>
       <c r="I22" t="n">
         <v>0.1954015539433501</v>
